--- a/src/attributions/attributions_saliency_traj_444.xlsx
+++ b/src/attributions/attributions_saliency_traj_444.xlsx
@@ -1004,571 +1004,571 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.001571772270835936</v>
+        <v>0.002599120372906327</v>
       </c>
       <c r="B2" t="n">
-        <v>0.003411163343116641</v>
+        <v>0.01609206385910511</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01844303496181965</v>
+        <v>0.0012603176292032</v>
       </c>
       <c r="D2" t="n">
-        <v>0.002706242259591818</v>
+        <v>0.004631020594388247</v>
       </c>
       <c r="E2" t="n">
-        <v>0.008058883249759674</v>
+        <v>0.00521476287394762</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0001043613301590085</v>
+        <v>0.008975524455308914</v>
       </c>
       <c r="G2" t="n">
-        <v>0.002020556479692459</v>
+        <v>0.0009215386817231774</v>
       </c>
       <c r="H2" t="n">
-        <v>0.008564078249037266</v>
+        <v>0.009912168607115746</v>
       </c>
       <c r="I2" t="n">
-        <v>0.007136961445212364</v>
+        <v>0.02048457227647305</v>
       </c>
       <c r="J2" t="n">
-        <v>0.002792165614664555</v>
+        <v>0.004406089894473553</v>
       </c>
       <c r="K2" t="n">
-        <v>0.001109682372771204</v>
+        <v>0.01250215247273445</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01739133149385452</v>
+        <v>0.0002390267327427864</v>
       </c>
       <c r="M2" t="n">
-        <v>0.002742893062531948</v>
+        <v>0.01054298505187035</v>
       </c>
       <c r="N2" t="n">
-        <v>0.004362204112112522</v>
+        <v>0.0003593885339796543</v>
       </c>
       <c r="O2" t="n">
-        <v>0.001647550030611455</v>
+        <v>0.008589151315391064</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0009778604144230485</v>
+        <v>0.002112683607265353</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.008933462202548981</v>
+        <v>0.006170693784952164</v>
       </c>
       <c r="R2" t="n">
-        <v>0.008992152288556099</v>
+        <v>0.01722599938511848</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0001997442013816908</v>
+        <v>0.00115384953096509</v>
       </c>
       <c r="T2" t="n">
-        <v>0.007345118559896946</v>
+        <v>0.000333341071382165</v>
       </c>
       <c r="U2" t="n">
-        <v>0.000739141833037138</v>
+        <v>0.0006649932474829257</v>
       </c>
       <c r="V2" t="n">
-        <v>0.001073955208994448</v>
+        <v>0.001044812495820224</v>
       </c>
       <c r="W2" t="n">
-        <v>0.00249810260720551</v>
+        <v>0.0003954970161430538</v>
       </c>
       <c r="X2" t="n">
-        <v>0.0006296578794717789</v>
+        <v>0.00529852882027626</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.0007119756191968918</v>
+        <v>3.985466173617169e-05</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.001789189642295241</v>
+        <v>0.001011194195598364</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.0002303345245309174</v>
+        <v>0.001200702507048845</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.0002835723280441016</v>
+        <v>0.003122310154139996</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.0002096894168062136</v>
+        <v>0.0009371086489409208</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.000588804658036679</v>
+        <v>0.006151573732495308</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.00320382509380579</v>
+        <v>0.001752619631588459</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.0006575805600732565</v>
+        <v>0.001569732907228172</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.0007297927513718605</v>
+        <v>0.002420732052996755</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.001153064309619367</v>
+        <v>0.002858974970877171</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.002438940340653062</v>
+        <v>0.003361525014042854</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.006483363453298807</v>
+        <v>0.0007508508861064911</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.0002812157035805285</v>
+        <v>0.002070586662739515</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.002699396107345819</v>
+        <v>0.001962702721357346</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.003310311352834105</v>
+        <v>0.001967809163033962</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.000637716380879283</v>
+        <v>0.0006330799078568816</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.001694313017651439</v>
+        <v>0.002716755727306008</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.0009423042647540569</v>
+        <v>0.0001896416069939733</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.001392317819409072</v>
+        <v>0.002010888652876019</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.00123326713219285</v>
+        <v>0.003169203409925103</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.0005152038647793233</v>
+        <v>0.002508729230612516</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.0005811966839246452</v>
+        <v>0.002498976420611143</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.001882417593151331</v>
+        <v>0.01644771359860897</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.009258500300347805</v>
+        <v>0.001306418562307954</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.001362545299343765</v>
+        <v>0.0008289782563224435</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.001870906911790371</v>
+        <v>0.01308901887387037</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.005809018854051828</v>
+        <v>0.001085194759070873</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.001087038079276681</v>
+        <v>0.004983411636203527</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.005942664109170437</v>
+        <v>7.490161806344986e-07</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.0004521137452684343</v>
+        <v>0.00444947462528944</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.0005301542114466429</v>
+        <v>0.001066455733962357</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.00211091386154294</v>
+        <v>0.002096116077154875</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.004543322138488293</v>
+        <v>0.0005662792827934027</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.00267829280346632</v>
+        <v>0.0002756011381279677</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.004875354934483767</v>
+        <v>0.002283708192408085</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.002530965488404036</v>
+        <v>0.008568987250328064</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.001590267405845225</v>
+        <v>0.001391954370774329</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.002155042486265302</v>
+        <v>0.003100564237684011</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.002018276369199157</v>
+        <v>0.01441813632845879</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.001005437807179987</v>
+        <v>0.001354834530502558</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.00178841152228415</v>
+        <v>0.001012637279927731</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.004034102894365788</v>
+        <v>0.001616248511709273</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.001816865988075733</v>
+        <v>0.0006262115202844143</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.003000665921717882</v>
+        <v>0.01306765247136354</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.001011575921438634</v>
+        <v>0.001577193499542773</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.001113094040192664</v>
+        <v>0.004680970218032598</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.001931051025167108</v>
+        <v>0.0006572737474925816</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.002123894868418574</v>
+        <v>0.005301559343934059</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.0008753809379413724</v>
+        <v>0.0008789283456280828</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.0007622921257279813</v>
+        <v>0.008966622874140739</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.005237147212028503</v>
+        <v>0.003562293946743011</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.0004046835238113999</v>
+        <v>0.001447304617613554</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.001863704062998295</v>
+        <v>0.002009303076192737</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.001937110326252878</v>
+        <v>0.0001214928925037384</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.0001232672220794484</v>
+        <v>0.0007589847664348781</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.002129441360011697</v>
+        <v>0.001020070980302989</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.002745869103819132</v>
+        <v>0.001393619691953063</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.0004808979574590921</v>
+        <v>0.0004609489697031677</v>
       </c>
       <c r="CE2" t="n">
-        <v>7.881622150307521e-05</v>
+        <v>0.002498300513252616</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.003419009502977133</v>
+        <v>0.001515249954536557</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.000436510716099292</v>
+        <v>0.000534356280695647</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.001410491764545441</v>
+        <v>0.0009200162021443248</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.0009273072355426848</v>
+        <v>0.0005672386614605784</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.0002641391474753618</v>
+        <v>0.001260992255993187</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.001258841017261147</v>
+        <v>0.001834739930927753</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.001041479408740997</v>
+        <v>0.004849852062761784</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.001084328512661159</v>
+        <v>0.006604696623980999</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.005256017204374075</v>
+        <v>0.002249553333967924</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.000824678922072053</v>
+        <v>0.0004855940933339298</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.00176850613206625</v>
+        <v>0.006134207360446453</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.002721057506278157</v>
+        <v>0.004950510337948799</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.0007806106586940587</v>
+        <v>0.002717267023399472</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.0005753550794906914</v>
+        <v>0.002049675676971674</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.002438571071252227</v>
+        <v>0.006320544518530369</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.003726112190634012</v>
+        <v>0.001992864534258842</v>
       </c>
       <c r="CV2" t="n">
-        <v>6.802589632570744e-05</v>
+        <v>0.0003872924426104873</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.0002536037645768374</v>
+        <v>0.002942485269159079</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.003739038249477744</v>
+        <v>0.001131512108258903</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.000102145757409744</v>
+        <v>0.0001734709949232638</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.002068141242489219</v>
+        <v>0.0005927192978560925</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.0013677510432899</v>
+        <v>1.360394526273012e-05</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.0002568742784205824</v>
+        <v>0.001276399823836982</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.001204997301101685</v>
+        <v>0.001622605137526989</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.0005669377278536558</v>
+        <v>0.003786505432799459</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.002716181799769402</v>
+        <v>0.001327963313087821</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.0008009728626348078</v>
+        <v>5.96360769122839e-05</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.003203676547855139</v>
+        <v>0.004209212493151426</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.006130299065262079</v>
+        <v>0.001652825274504721</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.0007850694819353521</v>
+        <v>0.0007756390841677785</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.001774174626916647</v>
+        <v>0.0007681823917664587</v>
       </c>
       <c r="DK2" t="n">
-        <v>2.411101013422012e-05</v>
+        <v>0.00308147631585598</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.001756825717166066</v>
+        <v>0.00882299430668354</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.002436083741486073</v>
+        <v>0.0014925078721717</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.0008111707284115255</v>
+        <v>0.0008959921542555094</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.0002238809829577804</v>
+        <v>0.0007678805268369615</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.0003815383824985474</v>
+        <v>0.002330253832042217</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.0001565382990520447</v>
+        <v>0.001081337919458747</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.0001274198293685913</v>
+        <v>0.0003062081523239613</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.001591759268194437</v>
+        <v>0.0007489104173146188</v>
       </c>
       <c r="DT2" t="n">
-        <v>0.0008276876178570092</v>
+        <v>0.003268005792051554</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.0008580546709708869</v>
+        <v>0.0006251807790249586</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.001900417730212212</v>
+        <v>0.003276385832577944</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.00118266127537936</v>
+        <v>0.0003336823137942702</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.0001876744790934026</v>
+        <v>0.005583182908594608</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.0009756998042576015</v>
+        <v>0.0008420111844316125</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.0001228615583386272</v>
+        <v>0.002528143581002951</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.001672476995736361</v>
+        <v>0.0005038821836933494</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.0003916027490049601</v>
+        <v>0.002193921245634556</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.001594546600244939</v>
+        <v>0.002054056851193309</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.002471691695973277</v>
+        <v>0.004381606355309486</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.0007426604279316962</v>
+        <v>0.001051481813192368</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.0008599205757491291</v>
+        <v>0.001227070693857968</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.002327114110812545</v>
+        <v>0.002749964594841003</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.002362344413995743</v>
+        <v>0.002321261679753661</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.0002194072003476322</v>
+        <v>0.001046667573973536</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.0005015235510654747</v>
+        <v>0.0005836933851242065</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.004256774671375751</v>
+        <v>2.801614755298942e-05</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.0004013501165900379</v>
+        <v>0.003058141097426414</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.00308225629851222</v>
+        <v>0.0005427438882179558</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.0007325304904952645</v>
+        <v>0.004869779106229544</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.0007848042878322303</v>
+        <v>0.001119884545914829</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.001001019729301333</v>
+        <v>0.002458132337778807</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.0002968200715258718</v>
+        <v>0.001337280380539596</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.001702099456451833</v>
+        <v>0.0004368243389762938</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.001245188876055181</v>
+        <v>0.003626642283052206</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.0001253912632819265</v>
+        <v>0.003126605181023479</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.0004405966610647738</v>
+        <v>0.002832961268723011</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.001266733859665692</v>
+        <v>0.003603304736316204</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.001935897045768797</v>
+        <v>0.003897603834047914</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.0008298193570226431</v>
+        <v>0.0002665995270945132</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.0003073246334679425</v>
+        <v>0.003453490789979696</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.003783467225730419</v>
+        <v>0.001015160931274295</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.0001837954914662987</v>
+        <v>0.001114983228035271</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.001642410177737474</v>
+        <v>0.0002146267361240461</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.000154648587340489</v>
+        <v>0.001097046886570752</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.0006287869764491916</v>
+        <v>0.001399491913616657</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.001329264603555202</v>
+        <v>0.001026872312650084</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.001061270944774151</v>
+        <v>0.00391002930700779</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.001176581252366304</v>
+        <v>1.457198231946677e-05</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.0005822952371090651</v>
+        <v>0.001082260627299547</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.00406133197247982</v>
+        <v>0.00139045063406229</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.0005553783848881721</v>
+        <v>0.002423689467832446</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.001818883931264281</v>
+        <v>0.005656545050442219</v>
       </c>
       <c r="FL2" t="n">
-        <v>0.0001419277396053076</v>
+        <v>0.0005797549383714795</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.0001383965136483312</v>
+        <v>0.0009179430198855698</v>
       </c>
       <c r="FN2" t="n">
-        <v>0.0007589017041027546</v>
+        <v>0.001555354334414005</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.002341113286092877</v>
+        <v>0.0004512912128120661</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.005276150535792112</v>
+        <v>0.001033767824992537</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.004797208588570356</v>
+        <v>0.002119699958711863</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.003220280865207314</v>
+        <v>0.001001637428998947</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.001841893885284662</v>
+        <v>0.0009376385132782161</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.002727943705394864</v>
+        <v>0.00387727003544569</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.001801335252821445</v>
+        <v>8.450579480268061e-05</v>
       </c>
       <c r="FV2" t="n">
-        <v>0.0007426442462019622</v>
+        <v>0.006723211146891117</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.0002562823938205838</v>
+        <v>0.0006700553931295872</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.001615465735085309</v>
+        <v>0.0004415071452967823</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.0006379624828696251</v>
+        <v>0.002901530591771007</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.0003250630397815257</v>
+        <v>0.001217569690197706</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.0003067395591642708</v>
+        <v>0.001031131716445088</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.002716973889619112</v>
+        <v>0.003619985189288855</v>
       </c>
       <c r="GC2" t="n">
-        <v>0.001937833963893354</v>
+        <v>0.001564617967233062</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.001770574832335114</v>
+        <v>0.0043830256909132</v>
       </c>
       <c r="GE2" t="n">
-        <v>0.0001534244220238179</v>
+        <v>0.002817362081259489</v>
       </c>
       <c r="GF2" t="n">
-        <v>0.003489926923066378</v>
+        <v>0.0009326980798505247</v>
       </c>
       <c r="GG2" t="n">
-        <v>0.001028545550070703</v>
+        <v>0.0007584390114061534</v>
       </c>
     </row>
     <row r="3">
@@ -2711,571 +2711,571 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.006165928207337856</v>
+        <v>0.001826437306590378</v>
       </c>
       <c r="B5" t="n">
-        <v>0.008694957010447979</v>
+        <v>0.03024758584797382</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05875148624181747</v>
+        <v>0.003799000987783074</v>
       </c>
       <c r="D5" t="n">
-        <v>0.009852404706180096</v>
+        <v>0.008706137537956238</v>
       </c>
       <c r="E5" t="n">
-        <v>0.008405369706451893</v>
+        <v>0.002584209432825446</v>
       </c>
       <c r="F5" t="n">
-        <v>0.006632039789110422</v>
+        <v>0.001737460726872087</v>
       </c>
       <c r="G5" t="n">
-        <v>0.006080499850213528</v>
+        <v>0.007181717548519373</v>
       </c>
       <c r="H5" t="n">
-        <v>0.01523598935455084</v>
+        <v>0.004537832923233509</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02162612974643707</v>
+        <v>0.003134252037853003</v>
       </c>
       <c r="J5" t="n">
-        <v>0.005098788999021053</v>
+        <v>0.00600776681676507</v>
       </c>
       <c r="K5" t="n">
-        <v>0.004972002469003201</v>
+        <v>0.02421927638351917</v>
       </c>
       <c r="L5" t="n">
-        <v>0.07074928283691406</v>
+        <v>0.004565797746181488</v>
       </c>
       <c r="M5" t="n">
-        <v>0.015168696641922</v>
+        <v>0.01309492159634829</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0114233260974288</v>
+        <v>0.00546382088214159</v>
       </c>
       <c r="O5" t="n">
-        <v>0.01756970584392548</v>
+        <v>0.006927585229277611</v>
       </c>
       <c r="P5" t="n">
-        <v>0.00438281986862421</v>
+        <v>0.006485254503786564</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.02130457386374474</v>
+        <v>9.688141290098429e-05</v>
       </c>
       <c r="R5" t="n">
-        <v>0.02124599926173687</v>
+        <v>0.002411410678178072</v>
       </c>
       <c r="S5" t="n">
-        <v>0.008718287572264671</v>
+        <v>0.003521543461829424</v>
       </c>
       <c r="T5" t="n">
-        <v>0.01952329650521278</v>
+        <v>0.004729864653199911</v>
       </c>
       <c r="U5" t="n">
-        <v>0.005091675091534853</v>
+        <v>0.002297791186720133</v>
       </c>
       <c r="V5" t="n">
-        <v>0.0034269611351192</v>
+        <v>0.003025323385372758</v>
       </c>
       <c r="W5" t="n">
-        <v>0.01541956793516874</v>
+        <v>0.004525301977992058</v>
       </c>
       <c r="X5" t="n">
-        <v>0.01358283683657646</v>
+        <v>0.004895764868706465</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.01327851694077253</v>
+        <v>0.0001069940772140399</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.007497417740523815</v>
+        <v>0.002825890900567174</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.005792246665805578</v>
+        <v>0.00165717292111367</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.002421829616650939</v>
+        <v>0.003214523894712329</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.000861121341586113</v>
+        <v>0.006482399068772793</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.006005683448165655</v>
+        <v>0.003886079881340265</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.005298805888742208</v>
+        <v>0.001851965440437198</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.01993546821177006</v>
+        <v>0.0009761007386259735</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.008566137403249741</v>
+        <v>0.001140790758654475</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.003642025869339705</v>
+        <v>0.0001369877136312425</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.001996384700760245</v>
+        <v>0.006057932041585445</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.02025209553539753</v>
+        <v>0.0001041601717588492</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.004887419752776623</v>
+        <v>0.002803369192406535</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.00252203643321991</v>
+        <v>0.003503491869196296</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.01185654290020466</v>
+        <v>0.0006218196358531713</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.006172530353069305</v>
+        <v>0.002815695013850927</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.01462224032729864</v>
+        <v>0.001322350464761257</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.001682626898400486</v>
+        <v>0.001133944955654442</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.004939951933920383</v>
+        <v>0.0007687300676479936</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.01220666151493788</v>
+        <v>0.0009618987096473575</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.004495326429605484</v>
+        <v>0.001996946521103382</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.005063898861408234</v>
+        <v>0.002661773236468434</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.002429990563541651</v>
+        <v>0.01984619535505772</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.02946228720247746</v>
+        <v>0.003081000875681639</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.01674416847527027</v>
+        <v>0.004953842144459486</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.009543062187731266</v>
+        <v>0.00367784989066422</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.02169961854815483</v>
+        <v>0.0002092598006129265</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.01389226969331503</v>
+        <v>0.008261994458734989</v>
       </c>
       <c r="BA5" t="n">
-        <v>0.02936381287872791</v>
+        <v>0.0008727512322366238</v>
       </c>
       <c r="BB5" t="n">
-        <v>0.006170159205794334</v>
+        <v>0.0006874117534607649</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.01053324341773987</v>
+        <v>0.0002690692199394107</v>
       </c>
       <c r="BD5" t="n">
-        <v>0.005909709259867668</v>
+        <v>0.008221559226512909</v>
       </c>
       <c r="BE5" t="n">
-        <v>0.0195100549608469</v>
+        <v>0.007280182559043169</v>
       </c>
       <c r="BF5" t="n">
-        <v>0.01202477514743805</v>
+        <v>0.003237232100218534</v>
       </c>
       <c r="BG5" t="n">
-        <v>0.009358453564345837</v>
+        <v>0.005738941021263599</v>
       </c>
       <c r="BH5" t="n">
-        <v>0.002639844780787826</v>
+        <v>0.00164468795992434</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.002497015986591578</v>
+        <v>0.001796250930055976</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0.003594896988943219</v>
+        <v>0.001775237731635571</v>
       </c>
       <c r="BK5" t="n">
-        <v>0.01800764910876751</v>
+        <v>0.002081130165606737</v>
       </c>
       <c r="BL5" t="n">
-        <v>0.004188495688140392</v>
+        <v>0.001566313672810793</v>
       </c>
       <c r="BM5" t="n">
-        <v>0.01455611083656549</v>
+        <v>0.001253301743417978</v>
       </c>
       <c r="BN5" t="n">
-        <v>0.01542946323752403</v>
+        <v>0.001920696580782533</v>
       </c>
       <c r="BO5" t="n">
-        <v>0.006666099186986685</v>
+        <v>0.0018117087893188</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.01650771498680115</v>
+        <v>0.005890168715268373</v>
       </c>
       <c r="BQ5" t="n">
-        <v>4.658746183849871e-05</v>
+        <v>0.002889168448746204</v>
       </c>
       <c r="BR5" t="n">
-        <v>0.000160696217790246</v>
+        <v>0.003356824163347483</v>
       </c>
       <c r="BS5" t="n">
-        <v>0.005112958606332541</v>
+        <v>0.007952075451612473</v>
       </c>
       <c r="BT5" t="n">
-        <v>0.0006652707234025002</v>
+        <v>0.000328941154293716</v>
       </c>
       <c r="BU5" t="n">
-        <v>0.005815312266349792</v>
+        <v>0.0003994885191787034</v>
       </c>
       <c r="BV5" t="n">
-        <v>0.01813988201320171</v>
+        <v>0.00913886446505785</v>
       </c>
       <c r="BW5" t="n">
-        <v>0.005681878887116909</v>
+        <v>0.004308202303946018</v>
       </c>
       <c r="BX5" t="n">
-        <v>0.01237092725932598</v>
+        <v>0.002279953099787235</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.009244121611118317</v>
+        <v>0.001909691607579589</v>
       </c>
       <c r="BZ5" t="n">
-        <v>0.01096134632825851</v>
+        <v>0.0003761895932257175</v>
       </c>
       <c r="CA5" t="n">
-        <v>0.005845271050930023</v>
+        <v>0.00325833959504962</v>
       </c>
       <c r="CB5" t="n">
-        <v>0.01361678447574377</v>
+        <v>0.003429859410971403</v>
       </c>
       <c r="CC5" t="n">
-        <v>0.008035601116716862</v>
+        <v>0.0005426693824119866</v>
       </c>
       <c r="CD5" t="n">
-        <v>0.00150699052028358</v>
+        <v>0.0001846840896178037</v>
       </c>
       <c r="CE5" t="n">
-        <v>0.01686150953173637</v>
+        <v>0.005330335348844528</v>
       </c>
       <c r="CF5" t="n">
-        <v>0.01334915217012167</v>
+        <v>0.00197182921692729</v>
       </c>
       <c r="CG5" t="n">
-        <v>0.0001434599980711937</v>
+        <v>0.0005861129029653966</v>
       </c>
       <c r="CH5" t="n">
-        <v>0.001106041017919779</v>
+        <v>0.0004955742042511702</v>
       </c>
       <c r="CI5" t="n">
-        <v>0.004186981823295355</v>
+        <v>0.0003574063302949071</v>
       </c>
       <c r="CJ5" t="n">
-        <v>0.008180364966392517</v>
+        <v>0.002086637541651726</v>
       </c>
       <c r="CK5" t="n">
-        <v>0.008096376433968544</v>
+        <v>0.0006897527491673827</v>
       </c>
       <c r="CL5" t="n">
-        <v>0.002788946265354753</v>
+        <v>0.001030670013278723</v>
       </c>
       <c r="CM5" t="n">
-        <v>0.001201084814965725</v>
+        <v>0.005537683144211769</v>
       </c>
       <c r="CN5" t="n">
-        <v>0.001543408259749413</v>
+        <v>0.00421430915594101</v>
       </c>
       <c r="CO5" t="n">
-        <v>0.007261945866048336</v>
+        <v>7.037515752017498e-05</v>
       </c>
       <c r="CP5" t="n">
-        <v>0.01245967857539654</v>
+        <v>0.008078422397375107</v>
       </c>
       <c r="CQ5" t="n">
-        <v>0.002459611278027296</v>
+        <v>0.006158165633678436</v>
       </c>
       <c r="CR5" t="n">
-        <v>0.002057835925370455</v>
+        <v>0.000598643091507256</v>
       </c>
       <c r="CS5" t="n">
-        <v>0.008796178735792637</v>
+        <v>0.001979437889531255</v>
       </c>
       <c r="CT5" t="n">
-        <v>0.005453773774206638</v>
+        <v>0.0004428183019626886</v>
       </c>
       <c r="CU5" t="n">
-        <v>0.002474800683557987</v>
+        <v>0.0004315710975788534</v>
       </c>
       <c r="CV5" t="n">
-        <v>0.001204204745590687</v>
+        <v>0.0005565036553889513</v>
       </c>
       <c r="CW5" t="n">
-        <v>0.01381244231015444</v>
+        <v>0.004996536299586296</v>
       </c>
       <c r="CX5" t="n">
-        <v>0.01145523227751255</v>
+        <v>0.002190787810832262</v>
       </c>
       <c r="CY5" t="n">
-        <v>0.0005035685608163476</v>
+        <v>0.002594375051558018</v>
       </c>
       <c r="CZ5" t="n">
-        <v>0.001368744648061693</v>
+        <v>0.001675865729339421</v>
       </c>
       <c r="DA5" t="n">
-        <v>0.007756458595395088</v>
+        <v>0.0002371507143834606</v>
       </c>
       <c r="DB5" t="n">
-        <v>0.004889228381216526</v>
+        <v>0.00243843742646277</v>
       </c>
       <c r="DC5" t="n">
-        <v>0.005752062890678644</v>
+        <v>0.0004818909510504454</v>
       </c>
       <c r="DD5" t="n">
-        <v>0.005385718774050474</v>
+        <v>0.001300791976973414</v>
       </c>
       <c r="DE5" t="n">
-        <v>0.01382382307201624</v>
+        <v>0.003886770457029343</v>
       </c>
       <c r="DF5" t="n">
-        <v>0.02962351590394974</v>
+        <v>0.0006905010668560863</v>
       </c>
       <c r="DG5" t="n">
-        <v>0.008133979514241219</v>
+        <v>0.001466666348278522</v>
       </c>
       <c r="DH5" t="n">
-        <v>0.005311998073011637</v>
+        <v>0.001445933361537755</v>
       </c>
       <c r="DI5" t="n">
-        <v>0.001557227689772844</v>
+        <v>0.001709290663711727</v>
       </c>
       <c r="DJ5" t="n">
-        <v>0.001236706972122192</v>
+        <v>0.0009321810211986303</v>
       </c>
       <c r="DK5" t="n">
-        <v>0.008470967411994934</v>
+        <v>0.002623571781441569</v>
       </c>
       <c r="DL5" t="n">
-        <v>0.0009202897199429572</v>
+        <v>0.004225106909871101</v>
       </c>
       <c r="DM5" t="n">
-        <v>0.004895229358226061</v>
+        <v>0.003110970836132765</v>
       </c>
       <c r="DN5" t="n">
-        <v>0.001253040507435799</v>
+        <v>0.004167319741100073</v>
       </c>
       <c r="DO5" t="n">
-        <v>0.02800657600164413</v>
+        <v>0.0005601111333817244</v>
       </c>
       <c r="DP5" t="n">
-        <v>0.0007168764714151621</v>
+        <v>0.003528842469677329</v>
       </c>
       <c r="DQ5" t="n">
-        <v>0.006606134120374918</v>
+        <v>0.00142837013117969</v>
       </c>
       <c r="DR5" t="n">
-        <v>0.002548510208725929</v>
+        <v>0.002347118221223354</v>
       </c>
       <c r="DS5" t="n">
-        <v>0.006885365583002567</v>
+        <v>0.00122810760512948</v>
       </c>
       <c r="DT5" t="n">
-        <v>0.003232755232602358</v>
+        <v>0.001361087546683848</v>
       </c>
       <c r="DU5" t="n">
-        <v>0.006734045688062906</v>
+        <v>0.0002212547697126865</v>
       </c>
       <c r="DV5" t="n">
-        <v>0.002196767134591937</v>
+        <v>0.001670109573751688</v>
       </c>
       <c r="DW5" t="n">
-        <v>0.004427885636687279</v>
+        <v>0.0005109201883897185</v>
       </c>
       <c r="DX5" t="n">
-        <v>0.0154112521559</v>
+        <v>0.00667637912556529</v>
       </c>
       <c r="DY5" t="n">
-        <v>0.005527103319764137</v>
+        <v>0.0004030580457765609</v>
       </c>
       <c r="DZ5" t="n">
-        <v>0.0006635383469983935</v>
+        <v>0.002635735552757978</v>
       </c>
       <c r="EA5" t="n">
-        <v>0.006346566136926413</v>
+        <v>0.002673079026862979</v>
       </c>
       <c r="EB5" t="n">
-        <v>0.001753641408868134</v>
+        <v>0.001012965571135283</v>
       </c>
       <c r="EC5" t="n">
-        <v>0.005567267537117004</v>
+        <v>0.000296586484182626</v>
       </c>
       <c r="ED5" t="n">
-        <v>0.01053399965167046</v>
+        <v>0.002685835584998131</v>
       </c>
       <c r="EE5" t="n">
-        <v>0.0005837621865794063</v>
+        <v>0.001060701906681061</v>
       </c>
       <c r="EF5" t="n">
-        <v>0.006329286377876997</v>
+        <v>0.0001938121858984232</v>
       </c>
       <c r="EG5" t="n">
-        <v>0.00157282454892993</v>
+        <v>0.004245321732014418</v>
       </c>
       <c r="EH5" t="n">
-        <v>0.01548956707119942</v>
+        <v>0.001650518155656755</v>
       </c>
       <c r="EI5" t="n">
-        <v>0.009725725278258324</v>
+        <v>0.001499074744060636</v>
       </c>
       <c r="EJ5" t="n">
-        <v>0.00417941901832819</v>
+        <v>0.00019830372184515</v>
       </c>
       <c r="EK5" t="n">
-        <v>0.02767428569495678</v>
+        <v>0.0004009453114122152</v>
       </c>
       <c r="EL5" t="n">
-        <v>0.00194024492520839</v>
+        <v>0.004295014776289463</v>
       </c>
       <c r="EM5" t="n">
-        <v>0.006471166387200356</v>
+        <v>0.0004105728003196418</v>
       </c>
       <c r="EN5" t="n">
-        <v>0.003272207919508219</v>
+        <v>3.244564868509769e-05</v>
       </c>
       <c r="EO5" t="n">
-        <v>0.003399939741939306</v>
+        <v>0.002897517522796988</v>
       </c>
       <c r="EP5" t="n">
-        <v>0.007828631438314915</v>
+        <v>0.002514493884518743</v>
       </c>
       <c r="EQ5" t="n">
-        <v>0.002336899749934673</v>
+        <v>0.003469395916908979</v>
       </c>
       <c r="ER5" t="n">
-        <v>0.003903042525053024</v>
+        <v>0.002529290737584233</v>
       </c>
       <c r="ES5" t="n">
-        <v>0.001988613279536366</v>
+        <v>0.003927554003894329</v>
       </c>
       <c r="ET5" t="n">
-        <v>0.006524370517581701</v>
+        <v>4.031031858175993e-05</v>
       </c>
       <c r="EU5" t="n">
-        <v>0.000872403965331614</v>
+        <v>0.002405981998890638</v>
       </c>
       <c r="EV5" t="n">
-        <v>0.01709394529461861</v>
+        <v>0.003372378181666136</v>
       </c>
       <c r="EW5" t="n">
-        <v>0.004800629802048206</v>
+        <v>0.0003610366838984191</v>
       </c>
       <c r="EX5" t="n">
-        <v>0.001919112517498434</v>
+        <v>0.001483325846493244</v>
       </c>
       <c r="EY5" t="n">
-        <v>0.01281813532114029</v>
+        <v>0.005361238960176706</v>
       </c>
       <c r="EZ5" t="n">
-        <v>0.01024064049124718</v>
+        <v>0.001364431576803327</v>
       </c>
       <c r="FA5" t="n">
-        <v>0.001822491060011089</v>
+        <v>0.001213089330121875</v>
       </c>
       <c r="FB5" t="n">
-        <v>0.0008214829140342772</v>
+        <v>0.002107033738866448</v>
       </c>
       <c r="FC5" t="n">
-        <v>0.002635313430801034</v>
+        <v>0.0009493264369666576</v>
       </c>
       <c r="FD5" t="n">
-        <v>0.002796636894345284</v>
+        <v>0.002837501000612974</v>
       </c>
       <c r="FE5" t="n">
-        <v>0.003411916783079505</v>
+        <v>0.001258496544323862</v>
       </c>
       <c r="FF5" t="n">
-        <v>0.004875496961176395</v>
+        <v>0.001812247559428215</v>
       </c>
       <c r="FG5" t="n">
-        <v>0.004102446138858795</v>
+        <v>0.001728770439513028</v>
       </c>
       <c r="FH5" t="n">
-        <v>0.01614835858345032</v>
+        <v>0.0005920404801145196</v>
       </c>
       <c r="FI5" t="n">
-        <v>0.01252182014286518</v>
+        <v>0.003186834743246436</v>
       </c>
       <c r="FJ5" t="n">
-        <v>0.003726341761648655</v>
+        <v>0.001968624070286751</v>
       </c>
       <c r="FK5" t="n">
-        <v>0.005530757363885641</v>
+        <v>0.004251133650541306</v>
       </c>
       <c r="FL5" t="n">
-        <v>0.005788059439510107</v>
+        <v>0.003131769131869078</v>
       </c>
       <c r="FM5" t="n">
-        <v>0.007147093303501606</v>
+        <v>0.0003885240294039249</v>
       </c>
       <c r="FN5" t="n">
-        <v>0.01520245335996151</v>
+        <v>0.003194438759237528</v>
       </c>
       <c r="FO5" t="n">
-        <v>0.00151203153654933</v>
+        <v>0.00379328872077167</v>
       </c>
       <c r="FP5" t="n">
-        <v>0.008139198645949364</v>
+        <v>0.004120262339711189</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0.007341976277530193</v>
+        <v>0.005455686245113611</v>
       </c>
       <c r="FR5" t="n">
-        <v>0.001433535944670439</v>
+        <v>0.001374259009025991</v>
       </c>
       <c r="FS5" t="n">
-        <v>0.01686441153287888</v>
+        <v>0.002230421639978886</v>
       </c>
       <c r="FT5" t="n">
-        <v>0.01611571200191975</v>
+        <v>0.005986940115690231</v>
       </c>
       <c r="FU5" t="n">
-        <v>0.006956355646252632</v>
+        <v>0.003066572826355696</v>
       </c>
       <c r="FV5" t="n">
-        <v>0.01974587328732014</v>
+        <v>4.979330697096884e-05</v>
       </c>
       <c r="FW5" t="n">
-        <v>0.0176193043589592</v>
+        <v>0.006440386176109314</v>
       </c>
       <c r="FX5" t="n">
-        <v>0.01281959377229214</v>
+        <v>0.001505691441707313</v>
       </c>
       <c r="FY5" t="n">
-        <v>0.009000804275274277</v>
+        <v>0.006108001805841923</v>
       </c>
       <c r="FZ5" t="n">
-        <v>0.004803366027772427</v>
+        <v>0.00100701255723834</v>
       </c>
       <c r="GA5" t="n">
-        <v>0.0138218104839325</v>
+        <v>0.001395421917550266</v>
       </c>
       <c r="GB5" t="n">
-        <v>0.001926184049807489</v>
+        <v>0.000920414284337312</v>
       </c>
       <c r="GC5" t="n">
-        <v>0.01943645812571049</v>
+        <v>0.001269027823582292</v>
       </c>
       <c r="GD5" t="n">
-        <v>0.01481564715504646</v>
+        <v>0.004690374247729778</v>
       </c>
       <c r="GE5" t="n">
-        <v>0.008342170156538486</v>
+        <v>0.006570311263203621</v>
       </c>
       <c r="GF5" t="n">
-        <v>0.006185689475387335</v>
+        <v>0.003767029847949743</v>
       </c>
       <c r="GG5" t="n">
-        <v>0.002704023150727153</v>
+        <v>0.001908453297801316</v>
       </c>
     </row>
     <row r="6">
@@ -3849,1140 +3849,1140 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.4561391174793243</v>
+        <v>0.02818325161933899</v>
       </c>
       <c r="B7" t="n">
-        <v>0.08665201812982559</v>
+        <v>0.2596421241760254</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3070242404937744</v>
+        <v>0.005296446848660707</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3639589548110962</v>
+        <v>0.1868983805179596</v>
       </c>
       <c r="E7" t="n">
-        <v>0.220192015171051</v>
+        <v>0.02852121740579605</v>
       </c>
       <c r="F7" t="n">
-        <v>0.03417759388685226</v>
+        <v>0.001040209084749222</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1770291775465012</v>
+        <v>0.03269913792610168</v>
       </c>
       <c r="H7" t="n">
-        <v>0.08521725237369537</v>
+        <v>0.02363956719636917</v>
       </c>
       <c r="I7" t="n">
-        <v>0.08019374310970306</v>
+        <v>0.04864060506224632</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4692549705505371</v>
+        <v>0.06052296608686447</v>
       </c>
       <c r="K7" t="n">
-        <v>0.04680762812495232</v>
+        <v>0.2191426903009415</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3742370009422302</v>
+        <v>0.01589564979076385</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2221288084983826</v>
+        <v>0.1774753481149673</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1014871522784233</v>
+        <v>0.06792730093002319</v>
       </c>
       <c r="O7" t="n">
-        <v>0.07173556089401245</v>
+        <v>0.03992633521556854</v>
       </c>
       <c r="P7" t="n">
-        <v>0.163195326924324</v>
+        <v>0.02048132941126823</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.2611543238162994</v>
+        <v>0.032915860414505</v>
       </c>
       <c r="R7" t="n">
-        <v>0.1853128224611282</v>
+        <v>0.04595163464546204</v>
       </c>
       <c r="S7" t="n">
-        <v>0.01786024123430252</v>
+        <v>0.01333107613027096</v>
       </c>
       <c r="T7" t="n">
-        <v>0.06222287565469742</v>
+        <v>0.02671300806105137</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07783455401659012</v>
+        <v>0.02647821418941021</v>
       </c>
       <c r="V7" t="n">
-        <v>0.01052389293909073</v>
+        <v>0.007185827475041151</v>
       </c>
       <c r="W7" t="n">
-        <v>0.08036914467811584</v>
+        <v>0.04088367521762848</v>
       </c>
       <c r="X7" t="n">
-        <v>0.03251861780881882</v>
+        <v>0.01236523501574993</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.01304068975150585</v>
+        <v>0.04263376444578171</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.006711228750646114</v>
+        <v>0.0296536348760128</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.07812128961086273</v>
+        <v>0.02681439369916916</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.02768804132938385</v>
+        <v>0.05257273837924004</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.007116213440895081</v>
+        <v>0.03666165098547935</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.1284379959106445</v>
+        <v>0.005144194699823856</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.08735246211290359</v>
+        <v>0.02577085420489311</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.1728550046682358</v>
+        <v>0.04635240137577057</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.01685015298426151</v>
+        <v>0.04660842195153236</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.0599769726395607</v>
+        <v>0.01994650438427925</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.08403752744197845</v>
+        <v>0.0323302336037159</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.1302539557218552</v>
+        <v>0.007281056605279446</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.1283246874809265</v>
+        <v>0.01274089422076941</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.09176580607891083</v>
+        <v>0.01300918497145176</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.008784722536802292</v>
+        <v>0.01054388284683228</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.0261651985347271</v>
+        <v>0.008425729349255562</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.04106483608484268</v>
+        <v>0.01094702538102865</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.04825380071997643</v>
+        <v>0.008640872314572334</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.005686735734343529</v>
+        <v>0.01633714884519577</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.103781022131443</v>
+        <v>0.0008805142715573311</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.005711812525987625</v>
+        <v>0.009574113413691521</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.2832521796226501</v>
+        <v>0.03892796486616135</v>
       </c>
       <c r="AU7" t="n">
-        <v>0.09611760079860687</v>
+        <v>0.1604516208171844</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.1825433075428009</v>
+        <v>0.04131552204489708</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.08734828233718872</v>
+        <v>0.04727865383028984</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.05621820315718651</v>
+        <v>0.007848723791539669</v>
       </c>
       <c r="AY7" t="n">
-        <v>0.1340106129646301</v>
+        <v>0.01030170544981956</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0.1089286059141159</v>
+        <v>0.003132431767880917</v>
       </c>
       <c r="BA7" t="n">
-        <v>0.1195538267493248</v>
+        <v>0.02447286993265152</v>
       </c>
       <c r="BB7" t="n">
-        <v>0.0168492216616869</v>
+        <v>0.01113622263073921</v>
       </c>
       <c r="BC7" t="n">
-        <v>0.03626938909292221</v>
+        <v>0.0151298176497221</v>
       </c>
       <c r="BD7" t="n">
-        <v>0.07574710994958878</v>
+        <v>0.05511857196688652</v>
       </c>
       <c r="BE7" t="n">
-        <v>0.1079204529523849</v>
+        <v>0.04916061460971832</v>
       </c>
       <c r="BF7" t="n">
-        <v>0.1646961569786072</v>
+        <v>0.0378224141895771</v>
       </c>
       <c r="BG7" t="n">
-        <v>0.2093618363142014</v>
+        <v>0.05592629685997963</v>
       </c>
       <c r="BH7" t="n">
-        <v>0.07913200557231903</v>
+        <v>0.008853301405906677</v>
       </c>
       <c r="BI7" t="n">
-        <v>0.07828295230865479</v>
+        <v>0.03975754231214523</v>
       </c>
       <c r="BJ7" t="n">
-        <v>0.1879443526268005</v>
+        <v>0.03792041167616844</v>
       </c>
       <c r="BK7" t="n">
-        <v>0.07535124570131302</v>
+        <v>0.01939039677381516</v>
       </c>
       <c r="BL7" t="n">
-        <v>0.1040165424346924</v>
+        <v>0.04301270470023155</v>
       </c>
       <c r="BM7" t="n">
-        <v>0.0975211039185524</v>
+        <v>0.01349073834717274</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.09117473661899567</v>
+        <v>0.003339348360896111</v>
       </c>
       <c r="BO7" t="n">
-        <v>0.06156802177429199</v>
+        <v>0.01569851115345955</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.04920735210180283</v>
+        <v>0.02526458725333214</v>
       </c>
       <c r="BQ7" t="n">
-        <v>0.1939323395490646</v>
+        <v>0.02193665504455566</v>
       </c>
       <c r="BR7" t="n">
-        <v>0.005797073245048523</v>
+        <v>0.009015712887048721</v>
       </c>
       <c r="BS7" t="n">
-        <v>0.03631541877985001</v>
+        <v>0.03498371690511703</v>
       </c>
       <c r="BT7" t="n">
-        <v>0.01790313422679901</v>
+        <v>0.006387430243194103</v>
       </c>
       <c r="BU7" t="n">
-        <v>0.2495642304420471</v>
+        <v>0.01441987603902817</v>
       </c>
       <c r="BV7" t="n">
-        <v>0.04990337044000626</v>
+        <v>0.07194770127534866</v>
       </c>
       <c r="BW7" t="n">
-        <v>0.04812297970056534</v>
+        <v>0.02277873829007149</v>
       </c>
       <c r="BX7" t="n">
-        <v>0.06457437574863434</v>
+        <v>0.02542133815586567</v>
       </c>
       <c r="BY7" t="n">
-        <v>0.03267812728881836</v>
+        <v>0.02423420175909996</v>
       </c>
       <c r="BZ7" t="n">
-        <v>0.1103369072079659</v>
+        <v>0.02196370624005795</v>
       </c>
       <c r="CA7" t="n">
-        <v>0.008638993836939335</v>
+        <v>0.01646710745990276</v>
       </c>
       <c r="CB7" t="n">
-        <v>0.08734532445669174</v>
+        <v>0.008209172636270523</v>
       </c>
       <c r="CC7" t="n">
-        <v>0.05766447260975838</v>
+        <v>0.008008105680346489</v>
       </c>
       <c r="CD7" t="n">
-        <v>0.1014043241739273</v>
+        <v>0.009519084356725216</v>
       </c>
       <c r="CE7" t="n">
-        <v>0.09814085811376572</v>
+        <v>0.03556572273373604</v>
       </c>
       <c r="CF7" t="n">
-        <v>0.03915591165423393</v>
+        <v>0.01634428836405277</v>
       </c>
       <c r="CG7" t="n">
-        <v>0.03882807493209839</v>
+        <v>0.01905746012926102</v>
       </c>
       <c r="CH7" t="n">
-        <v>0.03127549961209297</v>
+        <v>0.01002785749733448</v>
       </c>
       <c r="CI7" t="n">
-        <v>0.01236613094806671</v>
+        <v>0.005941075272858143</v>
       </c>
       <c r="CJ7" t="n">
-        <v>0.03358150646090508</v>
+        <v>0.008146616630256176</v>
       </c>
       <c r="CK7" t="n">
-        <v>0.01582888327538967</v>
+        <v>0.001082210801541805</v>
       </c>
       <c r="CL7" t="n">
-        <v>0.01696977205574512</v>
+        <v>0.01717848144471645</v>
       </c>
       <c r="CM7" t="n">
-        <v>0.08331891894340515</v>
+        <v>0.05255039036273956</v>
       </c>
       <c r="CN7" t="n">
-        <v>0.07847169041633606</v>
+        <v>0.003211393021047115</v>
       </c>
       <c r="CO7" t="n">
-        <v>0.0138072781264782</v>
+        <v>0.00259664049372077</v>
       </c>
       <c r="CP7" t="n">
-        <v>0.0008880309760570526</v>
+        <v>0.06496816128492355</v>
       </c>
       <c r="CQ7" t="n">
-        <v>0.09258481860160828</v>
+        <v>0.0415484644472599</v>
       </c>
       <c r="CR7" t="n">
-        <v>0.04882111772894859</v>
+        <v>0.006273522973060608</v>
       </c>
       <c r="CS7" t="n">
-        <v>0.1557535529136658</v>
+        <v>0.03060089237987995</v>
       </c>
       <c r="CT7" t="n">
-        <v>0.06971133500337601</v>
+        <v>0.02545219287276268</v>
       </c>
       <c r="CU7" t="n">
-        <v>0.02894945628941059</v>
+        <v>0.0104615893214941</v>
       </c>
       <c r="CV7" t="n">
-        <v>0.08274906128644943</v>
+        <v>0.004224356729537249</v>
       </c>
       <c r="CW7" t="n">
-        <v>0.1065816581249237</v>
+        <v>0.03442685306072235</v>
       </c>
       <c r="CX7" t="n">
-        <v>0.05524831637740135</v>
+        <v>0.02078959159553051</v>
       </c>
       <c r="CY7" t="n">
-        <v>0.0214029997587204</v>
+        <v>0.02705067954957485</v>
       </c>
       <c r="CZ7" t="n">
-        <v>0.06846556812524796</v>
+        <v>0.01665511354804039</v>
       </c>
       <c r="DA7" t="n">
-        <v>0.01673651486635208</v>
+        <v>0.008632518351078033</v>
       </c>
       <c r="DB7" t="n">
-        <v>0.03626077249646187</v>
+        <v>0.01152930967509747</v>
       </c>
       <c r="DC7" t="n">
-        <v>0.01369461510330439</v>
+        <v>0.004566405899822712</v>
       </c>
       <c r="DD7" t="n">
-        <v>0.006661206483840942</v>
+        <v>0.01484576240181923</v>
       </c>
       <c r="DE7" t="n">
-        <v>0.07836268842220306</v>
+        <v>0.01378596946597099</v>
       </c>
       <c r="DF7" t="n">
-        <v>0.3633063137531281</v>
+        <v>0.02143139205873013</v>
       </c>
       <c r="DG7" t="n">
-        <v>0.05705933272838593</v>
+        <v>0.0320325642824173</v>
       </c>
       <c r="DH7" t="n">
-        <v>0.1517317295074463</v>
+        <v>0.05446454137563705</v>
       </c>
       <c r="DI7" t="n">
-        <v>0.002804720774292946</v>
+        <v>0.0274320375174284</v>
       </c>
       <c r="DJ7" t="n">
-        <v>0.1509800255298615</v>
+        <v>0.02703686058521271</v>
       </c>
       <c r="DK7" t="n">
-        <v>0.05961775779724121</v>
+        <v>0.02378133311867714</v>
       </c>
       <c r="DL7" t="n">
-        <v>0.03993875533342361</v>
+        <v>0.01857761479914188</v>
       </c>
       <c r="DM7" t="n">
-        <v>0.1051136329770088</v>
+        <v>0.05054804682731628</v>
       </c>
       <c r="DN7" t="n">
-        <v>0.07846957445144653</v>
+        <v>0.007005560211837292</v>
       </c>
       <c r="DO7" t="n">
-        <v>0.0659562423825264</v>
+        <v>0.001714340411126614</v>
       </c>
       <c r="DP7" t="n">
-        <v>0.04748529568314552</v>
+        <v>0.01786784827709198</v>
       </c>
       <c r="DQ7" t="n">
-        <v>0.03041774034500122</v>
+        <v>0.02774478495121002</v>
       </c>
       <c r="DR7" t="n">
-        <v>0.07714264839887619</v>
+        <v>0.03500355780124664</v>
       </c>
       <c r="DS7" t="n">
-        <v>0.05932608991861343</v>
+        <v>0.01983479782938957</v>
       </c>
       <c r="DT7" t="n">
-        <v>0.02287784963846207</v>
+        <v>0.002975792158395052</v>
       </c>
       <c r="DU7" t="n">
-        <v>0.06173086538910866</v>
+        <v>0.02841388247907162</v>
       </c>
       <c r="DV7" t="n">
-        <v>0.03115315362811089</v>
+        <v>0.01929978281259537</v>
       </c>
       <c r="DW7" t="n">
-        <v>0.0447876825928688</v>
+        <v>0.0007710037752985954</v>
       </c>
       <c r="DX7" t="n">
-        <v>0.03511267527937889</v>
+        <v>0.004806567449122667</v>
       </c>
       <c r="DY7" t="n">
-        <v>0.05442757532000542</v>
+        <v>0.02702200599014759</v>
       </c>
       <c r="DZ7" t="n">
-        <v>0.01265323255211115</v>
+        <v>0.01780999079346657</v>
       </c>
       <c r="EA7" t="n">
-        <v>0.1804741472005844</v>
+        <v>0.0167417861521244</v>
       </c>
       <c r="EB7" t="n">
-        <v>0.04509679600596428</v>
+        <v>0.002208950463682413</v>
       </c>
       <c r="EC7" t="n">
-        <v>0.01936648041009903</v>
+        <v>0.01046987343579531</v>
       </c>
       <c r="ED7" t="n">
-        <v>0.06731247901916504</v>
+        <v>0.0006413921364583075</v>
       </c>
       <c r="EE7" t="n">
-        <v>0.09969412535429001</v>
+        <v>0.01643331907689571</v>
       </c>
       <c r="EF7" t="n">
-        <v>0.1309322863817215</v>
+        <v>0.004532940685749054</v>
       </c>
       <c r="EG7" t="n">
-        <v>0.03997810184955597</v>
+        <v>0.0358881801366806</v>
       </c>
       <c r="EH7" t="n">
-        <v>0.03868716210126877</v>
+        <v>0.02980364859104156</v>
       </c>
       <c r="EI7" t="n">
-        <v>0.02974320948123932</v>
+        <v>0.02018410712480545</v>
       </c>
       <c r="EJ7" t="n">
-        <v>0.01106641814112663</v>
+        <v>0.01869592443108559</v>
       </c>
       <c r="EK7" t="n">
-        <v>0.1227420195937157</v>
+        <v>0.01415895018726587</v>
       </c>
       <c r="EL7" t="n">
-        <v>0.003130914643406868</v>
+        <v>0.01597664877772331</v>
       </c>
       <c r="EM7" t="n">
-        <v>0.01279857940971851</v>
+        <v>0.00406309962272644</v>
       </c>
       <c r="EN7" t="n">
-        <v>0.04001148417592049</v>
+        <v>0.009133337065577507</v>
       </c>
       <c r="EO7" t="n">
-        <v>0.003770159557461739</v>
+        <v>0.003669789060950279</v>
       </c>
       <c r="EP7" t="n">
-        <v>0.1516389697790146</v>
+        <v>0.02560064569115639</v>
       </c>
       <c r="EQ7" t="n">
-        <v>0.07604043185710907</v>
+        <v>0.03468599170446396</v>
       </c>
       <c r="ER7" t="n">
-        <v>0.005288083106279373</v>
+        <v>0.004859781358391047</v>
       </c>
       <c r="ES7" t="n">
-        <v>0.1379953473806381</v>
+        <v>0.006433809176087379</v>
       </c>
       <c r="ET7" t="n">
-        <v>0.07440919429063797</v>
+        <v>0.01883028447628021</v>
       </c>
       <c r="EU7" t="n">
-        <v>0.07256165891885757</v>
+        <v>0.02345934510231018</v>
       </c>
       <c r="EV7" t="n">
-        <v>0.04579140245914459</v>
+        <v>0.04214225336909294</v>
       </c>
       <c r="EW7" t="n">
-        <v>0.02845889143645763</v>
+        <v>0.001236585900187492</v>
       </c>
       <c r="EX7" t="n">
-        <v>0.1099505424499512</v>
+        <v>0.004425988998264074</v>
       </c>
       <c r="EY7" t="n">
-        <v>0.09370865672826767</v>
+        <v>0.03569778054952621</v>
       </c>
       <c r="EZ7" t="n">
-        <v>0.05716603249311447</v>
+        <v>0.01255635917186737</v>
       </c>
       <c r="FA7" t="n">
-        <v>0.0284707136452198</v>
+        <v>0.0200820229947567</v>
       </c>
       <c r="FB7" t="n">
-        <v>0.05741295218467712</v>
+        <v>0.01403935998678207</v>
       </c>
       <c r="FC7" t="n">
-        <v>0.02438640967011452</v>
+        <v>0.008335551247000694</v>
       </c>
       <c r="FD7" t="n">
-        <v>0.03389210999011993</v>
+        <v>0.01060954201966524</v>
       </c>
       <c r="FE7" t="n">
-        <v>0.04294202104210854</v>
+        <v>0.001281492877751589</v>
       </c>
       <c r="FF7" t="n">
-        <v>0.009927263483405113</v>
+        <v>0.02308108285069466</v>
       </c>
       <c r="FG7" t="n">
-        <v>0.1349842250347137</v>
+        <v>0.003563204314559698</v>
       </c>
       <c r="FH7" t="n">
-        <v>0.01869268342852592</v>
+        <v>0.02378027699887753</v>
       </c>
       <c r="FI7" t="n">
-        <v>0.001554481685161591</v>
+        <v>0.02661331929266453</v>
       </c>
       <c r="FJ7" t="n">
-        <v>0.1280494183301926</v>
+        <v>0.04469223693013191</v>
       </c>
       <c r="FK7" t="n">
-        <v>0.1288024634122849</v>
+        <v>0.001820793841034174</v>
       </c>
       <c r="FL7" t="n">
-        <v>0.08166556060314178</v>
+        <v>0.0506303608417511</v>
       </c>
       <c r="FM7" t="n">
-        <v>0.03589104861021042</v>
+        <v>0.01213457062840462</v>
       </c>
       <c r="FN7" t="n">
-        <v>0.0585506334900856</v>
+        <v>0.01308829244226217</v>
       </c>
       <c r="FO7" t="n">
-        <v>0.08610164374113083</v>
+        <v>0.03583397716283798</v>
       </c>
       <c r="FP7" t="n">
-        <v>0.0562966950237751</v>
+        <v>0.004111314658075571</v>
       </c>
       <c r="FQ7" t="n">
-        <v>0.2312665730714798</v>
+        <v>0.043574508279562</v>
       </c>
       <c r="FR7" t="n">
-        <v>0.002528462558984756</v>
+        <v>0.001429612748324871</v>
       </c>
       <c r="FS7" t="n">
-        <v>0.363918125629425</v>
+        <v>0.04013138636946678</v>
       </c>
       <c r="FT7" t="n">
-        <v>0.06355298310518265</v>
+        <v>0.004724420607089996</v>
       </c>
       <c r="FU7" t="n">
-        <v>0.03856503590941429</v>
+        <v>0.02230119332671165</v>
       </c>
       <c r="FV7" t="n">
-        <v>0.0329122394323349</v>
+        <v>0.01521024946123362</v>
       </c>
       <c r="FW7" t="n">
-        <v>0.1239349246025085</v>
+        <v>0.00124809518456459</v>
       </c>
       <c r="FX7" t="n">
-        <v>0.005129204131662846</v>
+        <v>0.0352819636464119</v>
       </c>
       <c r="FY7" t="n">
-        <v>0.04783327132463455</v>
+        <v>0.06122425943613052</v>
       </c>
       <c r="FZ7" t="n">
-        <v>0.07159194350242615</v>
+        <v>0.02357330918312073</v>
       </c>
       <c r="GA7" t="n">
-        <v>0.0122978501021862</v>
+        <v>0.01990619674324989</v>
       </c>
       <c r="GB7" t="n">
-        <v>0.06097819656133652</v>
+        <v>0.01281820237636566</v>
       </c>
       <c r="GC7" t="n">
-        <v>0.1165365427732468</v>
+        <v>0.04651661962270737</v>
       </c>
       <c r="GD7" t="n">
-        <v>0.07297920435667038</v>
+        <v>0.04896027222275734</v>
       </c>
       <c r="GE7" t="n">
-        <v>0.0379195362329483</v>
+        <v>0.06584250926971436</v>
       </c>
       <c r="GF7" t="n">
-        <v>0.04979365319013596</v>
+        <v>0.00769729120656848</v>
       </c>
       <c r="GG7" t="n">
-        <v>0.04285698384046555</v>
+        <v>0.0170406810939312</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.003770525567233562</v>
+        <v>0.03991226106882095</v>
       </c>
       <c r="B8" t="n">
-        <v>0.004004299640655518</v>
+        <v>0.3706024885177612</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0398784726858139</v>
+        <v>0.02701650373637676</v>
       </c>
       <c r="D8" t="n">
-        <v>0.001340393675491214</v>
+        <v>0.202239528298378</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0182851254940033</v>
+        <v>0.04376749321818352</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00840443279594183</v>
+        <v>0.2395875453948975</v>
       </c>
       <c r="G8" t="n">
-        <v>0.000886820605956018</v>
+        <v>0.01195337064564228</v>
       </c>
       <c r="H8" t="n">
-        <v>0.007399202790111303</v>
+        <v>0.08599332720041275</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01451324857771397</v>
+        <v>0.02041669562458992</v>
       </c>
       <c r="J8" t="n">
-        <v>0.005169494077563286</v>
+        <v>0.1018183007836342</v>
       </c>
       <c r="K8" t="n">
-        <v>0.001130800577811897</v>
+        <v>0.2925706207752228</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03929246962070465</v>
+        <v>0.005628088489174843</v>
       </c>
       <c r="M8" t="n">
-        <v>0.000951064343098551</v>
+        <v>0.1774495393037796</v>
       </c>
       <c r="N8" t="n">
-        <v>0.009173182770609856</v>
+        <v>0.03161106258630753</v>
       </c>
       <c r="O8" t="n">
-        <v>0.005691755097359419</v>
+        <v>0.2599721252918243</v>
       </c>
       <c r="P8" t="n">
-        <v>0.001653253100812435</v>
+        <v>0.0005579981952905655</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.007942358031868935</v>
+        <v>0.0009592249989509583</v>
       </c>
       <c r="R8" t="n">
-        <v>0.01483804732561111</v>
+        <v>0.01887878961861134</v>
       </c>
       <c r="S8" t="n">
-        <v>0.002177217975258827</v>
+        <v>0.02593266218900681</v>
       </c>
       <c r="T8" t="n">
-        <v>0.008338454179465771</v>
+        <v>0.04701381921768188</v>
       </c>
       <c r="U8" t="n">
-        <v>0.001244632410816848</v>
+        <v>0.02365004830062389</v>
       </c>
       <c r="V8" t="n">
-        <v>0.002655426505953074</v>
+        <v>0.04322469979524612</v>
       </c>
       <c r="W8" t="n">
-        <v>0.001123867346905172</v>
+        <v>0.02995870262384415</v>
       </c>
       <c r="X8" t="n">
-        <v>0.0009224810055457056</v>
+        <v>0.02066626399755478</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.0004250560596119612</v>
+        <v>0.04087711498141289</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.003159732325002551</v>
+        <v>0.03940816968679428</v>
       </c>
       <c r="AA8" t="n">
-        <v>9.244168177247047e-05</v>
+        <v>0.04329539090394974</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.002635112963616848</v>
+        <v>0.0008783228695392609</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.000252832192927599</v>
+        <v>0.03327227011322975</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.005826757755130529</v>
+        <v>0.01524285133928061</v>
       </c>
       <c r="AE8" t="n">
-        <v>2.636387944221497e-05</v>
+        <v>0.007474018260836601</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.001200103317387402</v>
+        <v>0.01568353176116943</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.000775474589318037</v>
+        <v>0.005508884787559509</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.0009299201192334294</v>
+        <v>0.01469931751489639</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.0012994185090065</v>
+        <v>0.02575895749032497</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.005198732018470764</v>
+        <v>0.0195583701133728</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.003461369080469012</v>
+        <v>0.03145315498113632</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.003231715876609087</v>
+        <v>0.05547257512807846</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.007571953348815441</v>
+        <v>0.01877248659729958</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.645920125767589e-05</v>
+        <v>0.01129705179482698</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.0003704057307913899</v>
+        <v>0.01734653487801552</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.0006892223609611392</v>
+        <v>0.04719574749469757</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.0002181637973990291</v>
+        <v>0.001254115719348192</v>
       </c>
       <c r="AR8" t="n">
-        <v>0.001860939548350871</v>
+        <v>0.02632728591561317</v>
       </c>
       <c r="AS8" t="n">
-        <v>6.05330933467485e-05</v>
+        <v>0.05165809392929077</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.003347512800246477</v>
+        <v>0.02326041460037231</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.004560431931167841</v>
+        <v>0.2262705564498901</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.01737949997186661</v>
+        <v>0.01924164034426212</v>
       </c>
       <c r="AW8" t="n">
-        <v>0.002437114948406816</v>
+        <v>0.02583177760243416</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.002867039060220122</v>
+        <v>0.01899210549890995</v>
       </c>
       <c r="AY8" t="n">
-        <v>0.003989439457654953</v>
+        <v>0.128309890627861</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0.000939301447942853</v>
+        <v>0.002594396471977234</v>
       </c>
       <c r="BA8" t="n">
-        <v>0.0004912872100248933</v>
+        <v>0.05109485611319542</v>
       </c>
       <c r="BB8" t="n">
-        <v>0.0006962467450648546</v>
+        <v>0.0771840363740921</v>
       </c>
       <c r="BC8" t="n">
-        <v>0.001695537008345127</v>
+        <v>0.05175476521253586</v>
       </c>
       <c r="BD8" t="n">
-        <v>0.000908694404643029</v>
+        <v>0.07257852703332901</v>
       </c>
       <c r="BE8" t="n">
-        <v>0.01202887482941151</v>
+        <v>0.09618771076202393</v>
       </c>
       <c r="BF8" t="n">
-        <v>0.002669124864041805</v>
+        <v>0.05615564063191414</v>
       </c>
       <c r="BG8" t="n">
-        <v>0.008708945475518703</v>
+        <v>0.09094639867544174</v>
       </c>
       <c r="BH8" t="n">
-        <v>0.004716619849205017</v>
+        <v>0.06501796096563339</v>
       </c>
       <c r="BI8" t="n">
-        <v>4.609243478626013e-05</v>
+        <v>0.01993297785520554</v>
       </c>
       <c r="BJ8" t="n">
-        <v>0.004256239626556635</v>
+        <v>0.06352647393941879</v>
       </c>
       <c r="BK8" t="n">
-        <v>0.007267809007316828</v>
+        <v>0.0074737798422575</v>
       </c>
       <c r="BL8" t="n">
-        <v>0.002207203302532434</v>
+        <v>0.003175889141857624</v>
       </c>
       <c r="BM8" t="n">
-        <v>0.00136825698427856</v>
+        <v>0.04111801087856293</v>
       </c>
       <c r="BN8" t="n">
-        <v>0.008683782070875168</v>
+        <v>0.04273838922381401</v>
       </c>
       <c r="BO8" t="n">
-        <v>5.631853127852082e-05</v>
+        <v>0.03848019242286682</v>
       </c>
       <c r="BP8" t="n">
-        <v>0.00437924126163125</v>
+        <v>0.01790172606706619</v>
       </c>
       <c r="BQ8" t="n">
-        <v>0.00211609248071909</v>
+        <v>0.0002528331242501736</v>
       </c>
       <c r="BR8" t="n">
-        <v>0.001917363726533949</v>
+        <v>0.02249465137720108</v>
       </c>
       <c r="BS8" t="n">
-        <v>0.004405042622238398</v>
+        <v>0.01280170679092407</v>
       </c>
       <c r="BT8" t="n">
-        <v>0.001106362557038665</v>
+        <v>0.008401177823543549</v>
       </c>
       <c r="BU8" t="n">
-        <v>0.004849004559218884</v>
+        <v>0.02087151445448399</v>
       </c>
       <c r="BV8" t="n">
-        <v>0.0008805043762549758</v>
+        <v>0.1199531331658363</v>
       </c>
       <c r="BW8" t="n">
-        <v>0.01153282355517149</v>
+        <v>0.0506792888045311</v>
       </c>
       <c r="BX8" t="n">
-        <v>0.0006578353932127357</v>
+        <v>0.05466004088521004</v>
       </c>
       <c r="BY8" t="n">
-        <v>0.00679078372195363</v>
+        <v>0.03219272941350937</v>
       </c>
       <c r="BZ8" t="n">
-        <v>0.004310368560254574</v>
+        <v>0.04330921173095703</v>
       </c>
       <c r="CA8" t="n">
-        <v>0.0005637850263155997</v>
+        <v>0.02238618955016136</v>
       </c>
       <c r="CB8" t="n">
-        <v>0.001240320620127022</v>
+        <v>0.0252255629748106</v>
       </c>
       <c r="CC8" t="n">
-        <v>0.003582693636417389</v>
+        <v>0.0588139072060585</v>
       </c>
       <c r="CD8" t="n">
-        <v>0.0007422123453579843</v>
+        <v>0.004201129544526339</v>
       </c>
       <c r="CE8" t="n">
-        <v>0.00265679438598454</v>
+        <v>0.05838032811880112</v>
       </c>
       <c r="CF8" t="n">
-        <v>0.007115465588867664</v>
+        <v>0.0481085330247879</v>
       </c>
       <c r="CG8" t="n">
-        <v>0.0007712781662121415</v>
+        <v>0.03193579241633415</v>
       </c>
       <c r="CH8" t="n">
-        <v>0.002461243653669953</v>
+        <v>0.02279194630682468</v>
       </c>
       <c r="CI8" t="n">
-        <v>0.001895516761578619</v>
+        <v>0.04277700558304787</v>
       </c>
       <c r="CJ8" t="n">
-        <v>0.000430144980782643</v>
+        <v>0.01862684637308121</v>
       </c>
       <c r="CK8" t="n">
-        <v>0.0005119217676110566</v>
+        <v>0.0138963982462883</v>
       </c>
       <c r="CL8" t="n">
-        <v>0.002018789062276483</v>
+        <v>0.03242474794387817</v>
       </c>
       <c r="CM8" t="n">
-        <v>0.002057461533695459</v>
+        <v>0.04160402342677116</v>
       </c>
       <c r="CN8" t="n">
-        <v>0.00490009319037199</v>
+        <v>0.001566749997437</v>
       </c>
       <c r="CO8" t="n">
-        <v>0.0005205930210649967</v>
+        <v>0.01918019354343414</v>
       </c>
       <c r="CP8" t="n">
-        <v>0.00131664820946753</v>
+        <v>0.03264216706156731</v>
       </c>
       <c r="CQ8" t="n">
-        <v>0.001523651299066842</v>
+        <v>0.002481010276824236</v>
       </c>
       <c r="CR8" t="n">
-        <v>0.00542913656681776</v>
+        <v>0.004041394218802452</v>
       </c>
       <c r="CS8" t="n">
-        <v>0.0001382704940624535</v>
+        <v>0.05626946687698364</v>
       </c>
       <c r="CT8" t="n">
-        <v>0.002380848163738847</v>
+        <v>0.05307390540838242</v>
       </c>
       <c r="CU8" t="n">
-        <v>0.002730165375396609</v>
+        <v>0.005839315243065357</v>
       </c>
       <c r="CV8" t="n">
-        <v>0.0006478708237409592</v>
+        <v>0.002136111259460449</v>
       </c>
       <c r="CW8" t="n">
-        <v>0.001901461742818356</v>
+        <v>0.05319245532155037</v>
       </c>
       <c r="CX8" t="n">
-        <v>0.007588917855173349</v>
+        <v>0.04584384709596634</v>
       </c>
       <c r="CY8" t="n">
-        <v>0.0006346143200062215</v>
+        <v>0.04840312525629997</v>
       </c>
       <c r="CZ8" t="n">
-        <v>0.004758136346936226</v>
+        <v>0.02160840667784214</v>
       </c>
       <c r="DA8" t="n">
-        <v>0.001734546036459506</v>
+        <v>0.04814815521240234</v>
       </c>
       <c r="DB8" t="n">
-        <v>0.0002498718095012009</v>
+        <v>0.01687032356858253</v>
       </c>
       <c r="DC8" t="n">
-        <v>0.0007367728394456208</v>
+        <v>0.03408180922269821</v>
       </c>
       <c r="DD8" t="n">
-        <v>0.001883417600765824</v>
+        <v>0.02063731849193573</v>
       </c>
       <c r="DE8" t="n">
-        <v>0.001855113776400685</v>
+        <v>0.02404263243079185</v>
       </c>
       <c r="DF8" t="n">
-        <v>0.003738293889909983</v>
+        <v>0.04454940930008888</v>
       </c>
       <c r="DG8" t="n">
-        <v>0.005750703159719706</v>
+        <v>0.01447658613324165</v>
       </c>
       <c r="DH8" t="n">
-        <v>0.002589531010016799</v>
+        <v>0.1158683300018311</v>
       </c>
       <c r="DI8" t="n">
-        <v>0.004538573790341616</v>
+        <v>0.003284525126218796</v>
       </c>
       <c r="DJ8" t="n">
-        <v>0.001548680360428989</v>
+        <v>0.0009193895384669304</v>
       </c>
       <c r="DK8" t="n">
-        <v>0.001653161481954157</v>
+        <v>0.03743554279208183</v>
       </c>
       <c r="DL8" t="n">
-        <v>0.002015311969444156</v>
+        <v>0.04055200889706612</v>
       </c>
       <c r="DM8" t="n">
-        <v>0.0004182876436971128</v>
+        <v>0.01356407441198826</v>
       </c>
       <c r="DN8" t="n">
-        <v>0.001809283974580467</v>
+        <v>0.004813277162611485</v>
       </c>
       <c r="DO8" t="n">
-        <v>0.003619065741077065</v>
+        <v>0.005301191471517086</v>
       </c>
       <c r="DP8" t="n">
-        <v>0.001101332134567201</v>
+        <v>0.02750195376574993</v>
       </c>
       <c r="DQ8" t="n">
-        <v>0.001597980735823512</v>
+        <v>0.02636831812560558</v>
       </c>
       <c r="DR8" t="n">
-        <v>0.002840002998709679</v>
+        <v>0.01342723798006773</v>
       </c>
       <c r="DS8" t="n">
-        <v>0.003613100619986653</v>
+        <v>0.008744715712964535</v>
       </c>
       <c r="DT8" t="n">
-        <v>0.0008296318701468408</v>
+        <v>0.02255991660058498</v>
       </c>
       <c r="DU8" t="n">
-        <v>0.0007958570495247841</v>
+        <v>0.004054966382682323</v>
       </c>
       <c r="DV8" t="n">
-        <v>0.0003268679138273001</v>
+        <v>0.05637132003903389</v>
       </c>
       <c r="DW8" t="n">
-        <v>0.0009588185930624604</v>
+        <v>0.01519791223108768</v>
       </c>
       <c r="DX8" t="n">
-        <v>0.0020559704862535</v>
+        <v>0.02501221373677254</v>
       </c>
       <c r="DY8" t="n">
-        <v>0.005205380264669657</v>
+        <v>0.05863742902874947</v>
       </c>
       <c r="DZ8" t="n">
-        <v>0.003289896529167891</v>
+        <v>0.001923093572258949</v>
       </c>
       <c r="EA8" t="n">
-        <v>0.003421232337132096</v>
+        <v>0.003962449263781309</v>
       </c>
       <c r="EB8" t="n">
-        <v>0.0007635479560121894</v>
+        <v>0.02739131823182106</v>
       </c>
       <c r="EC8" t="n">
-        <v>0.0007112055318430066</v>
+        <v>0.004671803675591946</v>
       </c>
       <c r="ED8" t="n">
-        <v>0.001324585406109691</v>
+        <v>0.02357520721852779</v>
       </c>
       <c r="EE8" t="n">
-        <v>0.002131731482222676</v>
+        <v>0.003307790495455265</v>
       </c>
       <c r="EF8" t="n">
-        <v>0.0007041467470116913</v>
+        <v>0.02122171968221664</v>
       </c>
       <c r="EG8" t="n">
-        <v>0.002519516507163644</v>
+        <v>0.04540328681468964</v>
       </c>
       <c r="EH8" t="n">
-        <v>0.007803220767527819</v>
+        <v>0.0351250134408474</v>
       </c>
       <c r="EI8" t="n">
-        <v>0.001588546438142657</v>
+        <v>0.00209565949626267</v>
       </c>
       <c r="EJ8" t="n">
-        <v>0.001853000372648239</v>
+        <v>0.001370293088257313</v>
       </c>
       <c r="EK8" t="n">
-        <v>0.006080884486436844</v>
+        <v>0.04066507145762444</v>
       </c>
       <c r="EL8" t="n">
-        <v>0.0004130136221647263</v>
+        <v>0.0231635682284832</v>
       </c>
       <c r="EM8" t="n">
-        <v>0.003299373667687178</v>
+        <v>0.003530331421643496</v>
       </c>
       <c r="EN8" t="n">
-        <v>0.0008306590607389808</v>
+        <v>0.01012960821390152</v>
       </c>
       <c r="EO8" t="n">
-        <v>0.0004061358631588519</v>
+        <v>0.001999790780246258</v>
       </c>
       <c r="EP8" t="n">
-        <v>0.003723382484167814</v>
+        <v>0.02505683153867722</v>
       </c>
       <c r="EQ8" t="n">
-        <v>0.003557861316949129</v>
+        <v>0.05208823829889297</v>
       </c>
       <c r="ER8" t="n">
-        <v>0.0002458250964991748</v>
+        <v>0.03242974355816841</v>
       </c>
       <c r="ES8" t="n">
-        <v>0.003152157412841916</v>
+        <v>0.02897092327475548</v>
       </c>
       <c r="ET8" t="n">
-        <v>0.0008727486710995436</v>
+        <v>0.04764899238944054</v>
       </c>
       <c r="EU8" t="n">
-        <v>0.0005132951191626489</v>
+        <v>0.04193613305687904</v>
       </c>
       <c r="EV8" t="n">
-        <v>0.001287400256842375</v>
+        <v>0.06417530030012131</v>
       </c>
       <c r="EW8" t="n">
-        <v>0.004669902846217155</v>
+        <v>0.001712617930024862</v>
       </c>
       <c r="EX8" t="n">
-        <v>0.002079922938719392</v>
+        <v>0.004832574166357517</v>
       </c>
       <c r="EY8" t="n">
-        <v>0.001415691222064197</v>
+        <v>0.05147995054721832</v>
       </c>
       <c r="EZ8" t="n">
-        <v>0.007630482316017151</v>
+        <v>0.03694120049476624</v>
       </c>
       <c r="FA8" t="n">
-        <v>0.0003509243833832443</v>
+        <v>0.0401843897998333</v>
       </c>
       <c r="FB8" t="n">
-        <v>0.003640926443040371</v>
+        <v>0.02724707499146461</v>
       </c>
       <c r="FC8" t="n">
-        <v>0.0003403974696993828</v>
+        <v>0.03847162798047066</v>
       </c>
       <c r="FD8" t="n">
-        <v>7.09211453795433e-05</v>
+        <v>0.03166303783655167</v>
       </c>
       <c r="FE8" t="n">
-        <v>0.001907962723635137</v>
+        <v>0.02063711360096931</v>
       </c>
       <c r="FF8" t="n">
-        <v>0.002530668629333377</v>
+        <v>0.03405648469924927</v>
       </c>
       <c r="FG8" t="n">
-        <v>0.001229709712788463</v>
+        <v>0.01327623706310987</v>
       </c>
       <c r="FH8" t="n">
-        <v>0.002022271044552326</v>
+        <v>0.02620340511202812</v>
       </c>
       <c r="FI8" t="n">
-        <v>0.005006917286664248</v>
+        <v>0.04650428146123886</v>
       </c>
       <c r="FJ8" t="n">
-        <v>0.007221933454275131</v>
+        <v>0.05211788415908813</v>
       </c>
       <c r="FK8" t="n">
-        <v>0.004697673954069614</v>
+        <v>0.009885628707706928</v>
       </c>
       <c r="FL8" t="n">
-        <v>0.003513435833156109</v>
+        <v>0.02980052120983601</v>
       </c>
       <c r="FM8" t="n">
-        <v>0.0005920943804085255</v>
+        <v>0.01638757064938545</v>
       </c>
       <c r="FN8" t="n">
-        <v>0.002358425641432405</v>
+        <v>0.02127730287611485</v>
       </c>
       <c r="FO8" t="n">
-        <v>0.001089234603568912</v>
+        <v>0.02419129014015198</v>
       </c>
       <c r="FP8" t="n">
-        <v>0.000240046065300703</v>
+        <v>0.01268060691654682</v>
       </c>
       <c r="FQ8" t="n">
-        <v>0.01155487447977066</v>
+        <v>0.0690118595957756</v>
       </c>
       <c r="FR8" t="n">
-        <v>0.005543981678783894</v>
+        <v>0.03772319480776787</v>
       </c>
       <c r="FS8" t="n">
-        <v>0.002798280213028193</v>
+        <v>0.0623323954641819</v>
       </c>
       <c r="FT8" t="n">
-        <v>0.005359719973057508</v>
+        <v>0.0407879538834095</v>
       </c>
       <c r="FU8" t="n">
-        <v>0.002825903473421931</v>
+        <v>0.02127711102366447</v>
       </c>
       <c r="FV8" t="n">
-        <v>0.0007070533465594053</v>
+        <v>0.0278327502310276</v>
       </c>
       <c r="FW8" t="n">
-        <v>0.002006948227062821</v>
+        <v>0.02071288600564003</v>
       </c>
       <c r="FX8" t="n">
-        <v>0.002756505273282528</v>
+        <v>0.00819749478250742</v>
       </c>
       <c r="FY8" t="n">
-        <v>0.0001997831277549267</v>
+        <v>0.06995092332363129</v>
       </c>
       <c r="FZ8" t="n">
-        <v>0.0009548227535560727</v>
+        <v>0.009982540272176266</v>
       </c>
       <c r="GA8" t="n">
-        <v>0.003204376203939319</v>
+        <v>0.01176863070577383</v>
       </c>
       <c r="GB8" t="n">
-        <v>0.0008573863888159394</v>
+        <v>0.01460978947579861</v>
       </c>
       <c r="GC8" t="n">
-        <v>0.005975262261927128</v>
+        <v>0.03535868600010872</v>
       </c>
       <c r="GD8" t="n">
-        <v>0.006502642296254635</v>
+        <v>0.03355983272194862</v>
       </c>
       <c r="GE8" t="n">
-        <v>0.0007530596340075135</v>
+        <v>0.1722525358200073</v>
       </c>
       <c r="GF8" t="n">
-        <v>0.002115220995619893</v>
+        <v>0.002062737010419369</v>
       </c>
       <c r="GG8" t="n">
-        <v>0.002107789274305105</v>
+        <v>0.02877094224095345</v>
       </c>
     </row>
     <row r="9">
@@ -5556,2278 +5556,2278 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.001335596898570657</v>
+        <v>0.03012226894497871</v>
       </c>
       <c r="B10" t="n">
-        <v>0.002192175248637795</v>
+        <v>0.1127201467752457</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01401866413652897</v>
+        <v>0.01309815887361765</v>
       </c>
       <c r="D10" t="n">
-        <v>0.002441485412418842</v>
+        <v>0.03411699086427689</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01697658374905586</v>
+        <v>0.06488474458456039</v>
       </c>
       <c r="F10" t="n">
-        <v>0.005754387937486172</v>
+        <v>0.0009741795947775245</v>
       </c>
       <c r="G10" t="n">
-        <v>0.004003867506980896</v>
+        <v>0.0152397071942687</v>
       </c>
       <c r="H10" t="n">
-        <v>0.004876009654253721</v>
+        <v>0.00941069982945919</v>
       </c>
       <c r="I10" t="n">
-        <v>0.001570077380165458</v>
+        <v>0.0004644939326681197</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0008568230550736189</v>
+        <v>0.01885955221951008</v>
       </c>
       <c r="K10" t="n">
-        <v>0.004475143738090992</v>
+        <v>0.07587766647338867</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01679929345846176</v>
+        <v>0.008774781599640846</v>
       </c>
       <c r="M10" t="n">
-        <v>0.004996982868760824</v>
+        <v>0.03569138795137405</v>
       </c>
       <c r="N10" t="n">
-        <v>0.01512155123054981</v>
+        <v>0.06541205942630768</v>
       </c>
       <c r="O10" t="n">
-        <v>0.001561666373163462</v>
+        <v>0.01759296841919422</v>
       </c>
       <c r="P10" t="n">
-        <v>0.006292424630373716</v>
+        <v>0.005200177896767855</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.001924346783198416</v>
+        <v>0.04712911322712898</v>
       </c>
       <c r="R10" t="n">
-        <v>0.001786246546544135</v>
+        <v>0.01070365868508816</v>
       </c>
       <c r="S10" t="n">
-        <v>0.001399144413881004</v>
+        <v>0.004100442864000797</v>
       </c>
       <c r="T10" t="n">
-        <v>0.001889776787720621</v>
+        <v>0.03734380006790161</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0002955503005068749</v>
+        <v>0.0008455818751826882</v>
       </c>
       <c r="V10" t="n">
-        <v>0.00182141677942127</v>
+        <v>0.01003280002623796</v>
       </c>
       <c r="W10" t="n">
-        <v>0.0008264365023933351</v>
+        <v>0.006018416490405798</v>
       </c>
       <c r="X10" t="n">
-        <v>0.0004275946703273803</v>
+        <v>0.0184665136039257</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.0009856142569333315</v>
+        <v>0.01737495325505733</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.0001242953585460782</v>
+        <v>0.006663111969828606</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.003726877039298415</v>
+        <v>0.008187473751604557</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.002131735440343618</v>
+        <v>0.009336767718195915</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.003498728852719069</v>
+        <v>0.02463779412209988</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.0009543499327264726</v>
+        <v>0.006604806054383516</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.001661098329350352</v>
+        <v>0.01487496122717857</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.005759546998888254</v>
+        <v>0.02373581565916538</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.0002975398965645581</v>
+        <v>0.003501428756862879</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.003976712469011545</v>
+        <v>0.02336747385561466</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.005208562593907118</v>
+        <v>0.007786132395267487</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.002740479074418545</v>
+        <v>0.00102467299439013</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.001620544702745974</v>
+        <v>0.02057413198053837</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.004534214269369841</v>
+        <v>0.02246604487299919</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.00246339151635766</v>
+        <v>0.006645209155976772</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.002136807190254331</v>
+        <v>0.00749669736251235</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.002733101369813085</v>
+        <v>0.01146626751869917</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.001234446070156991</v>
+        <v>0.005545609164983034</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.0008486443548463285</v>
+        <v>0.005425998941063881</v>
       </c>
       <c r="AR10" t="n">
-        <v>8.405957487411797e-05</v>
+        <v>0.0007611621404066682</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.002418003045022488</v>
+        <v>0.00886126421391964</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.004648341797292233</v>
+        <v>0.02596181631088257</v>
       </c>
       <c r="AU10" t="n">
-        <v>0.005222600884735584</v>
+        <v>0.1191767528653145</v>
       </c>
       <c r="AV10" t="n">
-        <v>0.004620291292667389</v>
+        <v>0.009837997145950794</v>
       </c>
       <c r="AW10" t="n">
-        <v>0.002515991218388081</v>
+        <v>0.006768081337213516</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.002723274519667029</v>
+        <v>0.01149281207472086</v>
       </c>
       <c r="AY10" t="n">
-        <v>0.004037145059555769</v>
+        <v>0.006039295345544815</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0.0004066555993631482</v>
+        <v>0.001578187220729887</v>
       </c>
       <c r="BA10" t="n">
-        <v>0.009494004771113396</v>
+        <v>0.02084985561668873</v>
       </c>
       <c r="BB10" t="n">
-        <v>0.006347504910081625</v>
+        <v>0.001528106280602515</v>
       </c>
       <c r="BC10" t="n">
-        <v>0.003229063004255295</v>
+        <v>0.01530642993748188</v>
       </c>
       <c r="BD10" t="n">
-        <v>0.0009677032358013093</v>
+        <v>0.0161961130797863</v>
       </c>
       <c r="BE10" t="n">
-        <v>0.001158085651695728</v>
+        <v>0.02043894305825233</v>
       </c>
       <c r="BF10" t="n">
-        <v>0.001127948053181171</v>
+        <v>0.01410460472106934</v>
       </c>
       <c r="BG10" t="n">
-        <v>0.01292101573199034</v>
+        <v>0.03804534301161766</v>
       </c>
       <c r="BH10" t="n">
-        <v>0.002920771716162562</v>
+        <v>0.01411006599664688</v>
       </c>
       <c r="BI10" t="n">
-        <v>0.002281399210914969</v>
+        <v>0.00867030955851078</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0.003202107734978199</v>
+        <v>0.03815451264381409</v>
       </c>
       <c r="BK10" t="n">
-        <v>0.001818496268242598</v>
+        <v>0.005273159127682447</v>
       </c>
       <c r="BL10" t="n">
-        <v>0.002031944692134857</v>
+        <v>0.01054221019148827</v>
       </c>
       <c r="BM10" t="n">
-        <v>0.0007843674393370748</v>
+        <v>0.05035394430160522</v>
       </c>
       <c r="BN10" t="n">
-        <v>0.002663634484633803</v>
+        <v>0.0005987392505630851</v>
       </c>
       <c r="BO10" t="n">
-        <v>0.003176727565005422</v>
+        <v>0.04058598354458809</v>
       </c>
       <c r="BP10" t="n">
-        <v>5.812560993945226e-05</v>
+        <v>0.04122669622302055</v>
       </c>
       <c r="BQ10" t="n">
-        <v>0.0002510258054826409</v>
+        <v>0.02515665628015995</v>
       </c>
       <c r="BR10" t="n">
-        <v>0.00159935699775815</v>
+        <v>0.0009515786077827215</v>
       </c>
       <c r="BS10" t="n">
-        <v>0.001976958708837628</v>
+        <v>0.01472888607531786</v>
       </c>
       <c r="BT10" t="n">
-        <v>0.001641376875340939</v>
+        <v>0.002484069671481848</v>
       </c>
       <c r="BU10" t="n">
-        <v>0.001589854364283383</v>
+        <v>0.0136821623891592</v>
       </c>
       <c r="BV10" t="n">
-        <v>0.001055682078003883</v>
+        <v>0.06504732370376587</v>
       </c>
       <c r="BW10" t="n">
-        <v>0.006177244242280722</v>
+        <v>0.01987243443727493</v>
       </c>
       <c r="BX10" t="n">
-        <v>0.0006900904700160027</v>
+        <v>0.005665312521159649</v>
       </c>
       <c r="BY10" t="n">
-        <v>0.003362620715051889</v>
+        <v>0.008791366592049599</v>
       </c>
       <c r="BZ10" t="n">
-        <v>0.0006203883094713092</v>
+        <v>0.01519888918846846</v>
       </c>
       <c r="CA10" t="n">
-        <v>0.0005454871570691466</v>
+        <v>0.02958579361438751</v>
       </c>
       <c r="CB10" t="n">
-        <v>0.004300373140722513</v>
+        <v>0.01177760120481253</v>
       </c>
       <c r="CC10" t="n">
-        <v>0.001168813789263368</v>
+        <v>0.005189631134271622</v>
       </c>
       <c r="CD10" t="n">
-        <v>0.0008892175974324346</v>
+        <v>0.0002012511249631643</v>
       </c>
       <c r="CE10" t="n">
-        <v>0.001840396551415324</v>
+        <v>0.01947463303804398</v>
       </c>
       <c r="CF10" t="n">
-        <v>0.002256944542750716</v>
+        <v>0.002907294547185302</v>
       </c>
       <c r="CG10" t="n">
-        <v>0.001654016086831689</v>
+        <v>0.01591075398027897</v>
       </c>
       <c r="CH10" t="n">
-        <v>0.00253550847992301</v>
+        <v>0.005248608067631721</v>
       </c>
       <c r="CI10" t="n">
-        <v>0.001472048345021904</v>
+        <v>0.008956183679401875</v>
       </c>
       <c r="CJ10" t="n">
-        <v>0.0004925844259560108</v>
+        <v>0.001440385822206736</v>
       </c>
       <c r="CK10" t="n">
-        <v>0.0008772844448685646</v>
+        <v>0.0008005464333109558</v>
       </c>
       <c r="CL10" t="n">
-        <v>0.0001415225269738585</v>
+        <v>0.008278383873403072</v>
       </c>
       <c r="CM10" t="n">
-        <v>0.003777679521590471</v>
+        <v>0.04888058081269264</v>
       </c>
       <c r="CN10" t="n">
-        <v>0.00277035147882998</v>
+        <v>0.04405476525425911</v>
       </c>
       <c r="CO10" t="n">
-        <v>0.003254008712247014</v>
+        <v>0.0001472972799092531</v>
       </c>
       <c r="CP10" t="n">
-        <v>0.00120264571160078</v>
+        <v>0.0158014353364706</v>
       </c>
       <c r="CQ10" t="n">
-        <v>0.0003982550115324557</v>
+        <v>0.04242601990699768</v>
       </c>
       <c r="CR10" t="n">
-        <v>0.002409193199127913</v>
+        <v>0.002559418557211757</v>
       </c>
       <c r="CS10" t="n">
-        <v>0.001754121971316636</v>
+        <v>0.007823220454156399</v>
       </c>
       <c r="CT10" t="n">
-        <v>0.001293523702770472</v>
+        <v>0.00653317105025053</v>
       </c>
       <c r="CU10" t="n">
-        <v>0.001761116902343929</v>
+        <v>0.004790373612195253</v>
       </c>
       <c r="CV10" t="n">
-        <v>0.0008801377844065428</v>
+        <v>0.001873097382485867</v>
       </c>
       <c r="CW10" t="n">
-        <v>0.00224839779548347</v>
+        <v>0.0137105779722333</v>
       </c>
       <c r="CX10" t="n">
-        <v>0.002704716054722667</v>
+        <v>0.005871762987226248</v>
       </c>
       <c r="CY10" t="n">
-        <v>0.002083521569147706</v>
+        <v>0.02330190129578114</v>
       </c>
       <c r="CZ10" t="n">
-        <v>0.003844912862405181</v>
+        <v>0.001887722522951663</v>
       </c>
       <c r="DA10" t="n">
-        <v>0.002077945275232196</v>
+        <v>0.01109820883721113</v>
       </c>
       <c r="DB10" t="n">
-        <v>0.000160152863827534</v>
+        <v>0.001636782428249717</v>
       </c>
       <c r="DC10" t="n">
-        <v>0.0004701466532424092</v>
+        <v>0.004660897422581911</v>
       </c>
       <c r="DD10" t="n">
-        <v>0.0002334235905436799</v>
+        <v>0.004611452575773001</v>
       </c>
       <c r="DE10" t="n">
-        <v>0.00547792436555028</v>
+        <v>0.03816147148609161</v>
       </c>
       <c r="DF10" t="n">
-        <v>0.00161047768779099</v>
+        <v>0.06083832308650017</v>
       </c>
       <c r="DG10" t="n">
-        <v>0.0003946016076952219</v>
+        <v>0.000184128963155672</v>
       </c>
       <c r="DH10" t="n">
-        <v>0.001451793243177235</v>
+        <v>0.06554004549980164</v>
       </c>
       <c r="DI10" t="n">
-        <v>0.001064951531589031</v>
+        <v>0.01702569983899593</v>
       </c>
       <c r="DJ10" t="n">
-        <v>0.006672612857073545</v>
+        <v>0.002544652204960585</v>
       </c>
       <c r="DK10" t="n">
-        <v>0.001360123860649765</v>
+        <v>0.05784507840871811</v>
       </c>
       <c r="DL10" t="n">
-        <v>0.0009349893080070615</v>
+        <v>0.02233752980828285</v>
       </c>
       <c r="DM10" t="n">
-        <v>0.001952695660293102</v>
+        <v>0.003266755491495132</v>
       </c>
       <c r="DN10" t="n">
-        <v>0.002349768532440066</v>
+        <v>0.02136010862886906</v>
       </c>
       <c r="DO10" t="n">
-        <v>0.0005655548302456737</v>
+        <v>0.01633279025554657</v>
       </c>
       <c r="DP10" t="n">
-        <v>0.0003668651916086674</v>
+        <v>0.002222702139988542</v>
       </c>
       <c r="DQ10" t="n">
-        <v>0.0005413726903498173</v>
+        <v>0.008379205130040646</v>
       </c>
       <c r="DR10" t="n">
-        <v>0.0008417871431447566</v>
+        <v>0.01875111274421215</v>
       </c>
       <c r="DS10" t="n">
-        <v>0.003830909263342619</v>
+        <v>0.006405366584658623</v>
       </c>
       <c r="DT10" t="n">
-        <v>0.002622271422296762</v>
+        <v>0.008574587292969227</v>
       </c>
       <c r="DU10" t="n">
-        <v>0.002895749639719725</v>
+        <v>0.01103715319186449</v>
       </c>
       <c r="DV10" t="n">
-        <v>0.002850993536412716</v>
+        <v>0.009693802334368229</v>
       </c>
       <c r="DW10" t="n">
-        <v>0.001897071953862906</v>
+        <v>0.01039280463010073</v>
       </c>
       <c r="DX10" t="n">
-        <v>0.0008401937084272504</v>
+        <v>0.003474750090390444</v>
       </c>
       <c r="DY10" t="n">
-        <v>0.0003294213674962521</v>
+        <v>0.01072608586400747</v>
       </c>
       <c r="DZ10" t="n">
-        <v>0.002084743697196245</v>
+        <v>0.02983425557613373</v>
       </c>
       <c r="EA10" t="n">
-        <v>0.003529769135639071</v>
+        <v>0.02144984900951385</v>
       </c>
       <c r="EB10" t="n">
-        <v>0.002408822765573859</v>
+        <v>0.01041110046207905</v>
       </c>
       <c r="EC10" t="n">
-        <v>0.001236828160472214</v>
+        <v>0.0177021250128746</v>
       </c>
       <c r="ED10" t="n">
-        <v>0.002620137296617031</v>
+        <v>0.00463855592533946</v>
       </c>
       <c r="EE10" t="n">
-        <v>0.0007305329199880362</v>
+        <v>0.003545802086591721</v>
       </c>
       <c r="EF10" t="n">
-        <v>0.001774592674337327</v>
+        <v>0.01291697844862938</v>
       </c>
       <c r="EG10" t="n">
-        <v>0.0006655786419287324</v>
+        <v>0.0004152039182372391</v>
       </c>
       <c r="EH10" t="n">
-        <v>0.003338582813739777</v>
+        <v>0.001052795676514506</v>
       </c>
       <c r="EI10" t="n">
-        <v>0.003062823787331581</v>
+        <v>0.03692987188696861</v>
       </c>
       <c r="EJ10" t="n">
-        <v>0.005626204889267683</v>
+        <v>0.01901019550859928</v>
       </c>
       <c r="EK10" t="n">
-        <v>0.003996949177235365</v>
+        <v>0.01008601300418377</v>
       </c>
       <c r="EL10" t="n">
-        <v>0.0006500381277874112</v>
+        <v>0.006903310306370258</v>
       </c>
       <c r="EM10" t="n">
-        <v>0.0005818286444991827</v>
+        <v>0.003873540554195642</v>
       </c>
       <c r="EN10" t="n">
-        <v>0.003330257721245289</v>
+        <v>0.001177754136733711</v>
       </c>
       <c r="EO10" t="n">
-        <v>0.001968615455552936</v>
+        <v>0.01753291115164757</v>
       </c>
       <c r="EP10" t="n">
-        <v>0.004391624592244625</v>
+        <v>0.003234361531212926</v>
       </c>
       <c r="EQ10" t="n">
-        <v>0.0007099774084053934</v>
+        <v>0.01736916042864323</v>
       </c>
       <c r="ER10" t="n">
-        <v>0.0004260590067133307</v>
+        <v>0.01722421124577522</v>
       </c>
       <c r="ES10" t="n">
-        <v>0.002058472018688917</v>
+        <v>0.006564878858625889</v>
       </c>
       <c r="ET10" t="n">
-        <v>0.0004681414575316012</v>
+        <v>0.01768003217875957</v>
       </c>
       <c r="EU10" t="n">
-        <v>0.00122335203923285</v>
+        <v>0.004956093151122332</v>
       </c>
       <c r="EV10" t="n">
-        <v>0.003860576543956995</v>
+        <v>0.009670021012425423</v>
       </c>
       <c r="EW10" t="n">
-        <v>0.0007626147125847638</v>
+        <v>0.006460039876401424</v>
       </c>
       <c r="EX10" t="n">
-        <v>0.001265262486413121</v>
+        <v>0.0003136568702757359</v>
       </c>
       <c r="EY10" t="n">
-        <v>0.001708099036477506</v>
+        <v>0.01089922524988651</v>
       </c>
       <c r="EZ10" t="n">
-        <v>0.002490142127498984</v>
+        <v>0.002704053418710828</v>
       </c>
       <c r="FA10" t="n">
-        <v>0.001866850536316633</v>
+        <v>0.01864333637058735</v>
       </c>
       <c r="FB10" t="n">
-        <v>0.00397460488602519</v>
+        <v>0.001678014872595668</v>
       </c>
       <c r="FC10" t="n">
-        <v>0.001538620330393314</v>
+        <v>0.01119199674576521</v>
       </c>
       <c r="FD10" t="n">
-        <v>0.0004061858053319156</v>
+        <v>0.004232757724821568</v>
       </c>
       <c r="FE10" t="n">
-        <v>0.0005480745458044112</v>
+        <v>0.002907342044636607</v>
       </c>
       <c r="FF10" t="n">
-        <v>6.380381819326431e-06</v>
+        <v>0.007731154095381498</v>
       </c>
       <c r="FG10" t="n">
-        <v>0.000851306424010545</v>
+        <v>0.01506997644901276</v>
       </c>
       <c r="FH10" t="n">
-        <v>0.000955596100538969</v>
+        <v>0.02001497335731983</v>
       </c>
       <c r="FI10" t="n">
-        <v>0.00361903477460146</v>
+        <v>0.01427080202847719</v>
       </c>
       <c r="FJ10" t="n">
-        <v>0.0001969895674847066</v>
+        <v>0.003713356563821435</v>
       </c>
       <c r="FK10" t="n">
-        <v>0.002338502556085587</v>
+        <v>0.00957846362143755</v>
       </c>
       <c r="FL10" t="n">
-        <v>0.001928797806613147</v>
+        <v>0.008088047616183758</v>
       </c>
       <c r="FM10" t="n">
-        <v>0.002307821996510029</v>
+        <v>0.005733831319957972</v>
       </c>
       <c r="FN10" t="n">
-        <v>0.0003088795929215848</v>
+        <v>0.00503899110481143</v>
       </c>
       <c r="FO10" t="n">
-        <v>0.0009327236330136657</v>
+        <v>0.003054639557376504</v>
       </c>
       <c r="FP10" t="n">
-        <v>0.006877794861793518</v>
+        <v>0.01147746481001377</v>
       </c>
       <c r="FQ10" t="n">
-        <v>0.005732722580432892</v>
+        <v>0.003105501877143979</v>
       </c>
       <c r="FR10" t="n">
-        <v>0.001514231669716537</v>
+        <v>0.0134167680516839</v>
       </c>
       <c r="FS10" t="n">
-        <v>0.002147419610992074</v>
+        <v>0.03842197358608246</v>
       </c>
       <c r="FT10" t="n">
-        <v>0.001818660879507661</v>
+        <v>0.02485858462750912</v>
       </c>
       <c r="FU10" t="n">
-        <v>0.0008335521561093628</v>
+        <v>0.007700713351368904</v>
       </c>
       <c r="FV10" t="n">
-        <v>0.001213158830069005</v>
+        <v>0.009126899763941765</v>
       </c>
       <c r="FW10" t="n">
-        <v>0.002417304320260882</v>
+        <v>0.02907511219382286</v>
       </c>
       <c r="FX10" t="n">
-        <v>0.001987001625820994</v>
+        <v>0.0001408324460498989</v>
       </c>
       <c r="FY10" t="n">
-        <v>0.0002971375361084938</v>
+        <v>0.01791926100850105</v>
       </c>
       <c r="FZ10" t="n">
-        <v>9.84719954431057e-05</v>
+        <v>0.02982952445745468</v>
       </c>
       <c r="GA10" t="n">
-        <v>0.0009479092550463974</v>
+        <v>0.01150678843259811</v>
       </c>
       <c r="GB10" t="n">
-        <v>0.001001599943265319</v>
+        <v>0.01661542803049088</v>
       </c>
       <c r="GC10" t="n">
-        <v>0.0005128523916937411</v>
+        <v>0.003354147309437394</v>
       </c>
       <c r="GD10" t="n">
-        <v>0.001186513458378613</v>
+        <v>0.01694303750991821</v>
       </c>
       <c r="GE10" t="n">
-        <v>0.0006295318598859012</v>
+        <v>0.03342152759432793</v>
       </c>
       <c r="GF10" t="n">
-        <v>0.002258246298879385</v>
+        <v>0.02571737021207809</v>
       </c>
       <c r="GG10" t="n">
-        <v>0.00126720720436424</v>
+        <v>0.0007841588230803609</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.07111547887325287</v>
+        <v>0.02759500779211521</v>
       </c>
       <c r="B11" t="n">
-        <v>0.162915900349617</v>
+        <v>0.1859644800424576</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2044825404882431</v>
+        <v>0.00749886641278863</v>
       </c>
       <c r="D11" t="n">
-        <v>0.05699175223708153</v>
+        <v>0.04449662938714027</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1083793267607689</v>
+        <v>0.01928612031042576</v>
       </c>
       <c r="F11" t="n">
-        <v>0.01256382092833519</v>
+        <v>0.03512324392795563</v>
       </c>
       <c r="G11" t="n">
-        <v>0.009613249450922012</v>
+        <v>0.008753789588809013</v>
       </c>
       <c r="H11" t="n">
-        <v>0.00944502092897892</v>
+        <v>0.005112582817673683</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0644054114818573</v>
+        <v>0.02395706064999104</v>
       </c>
       <c r="J11" t="n">
-        <v>0.09823346883058548</v>
+        <v>0.03870249912142754</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1530688554048538</v>
+        <v>0.1404530853033066</v>
       </c>
       <c r="L11" t="n">
-        <v>0.2388934642076492</v>
+        <v>0.0004947693669237196</v>
       </c>
       <c r="M11" t="n">
-        <v>0.03149892762303352</v>
+        <v>0.03997950255870819</v>
       </c>
       <c r="N11" t="n">
-        <v>0.108733206987381</v>
+        <v>0.03680889308452606</v>
       </c>
       <c r="O11" t="n">
-        <v>0.05392444133758545</v>
+        <v>0.03618716821074486</v>
       </c>
       <c r="P11" t="n">
-        <v>0.0562916211783886</v>
+        <v>0.01385861821472645</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.006456362083554268</v>
+        <v>0.01522425934672356</v>
       </c>
       <c r="R11" t="n">
-        <v>0.06223110854625702</v>
+        <v>0.03079834207892418</v>
       </c>
       <c r="S11" t="n">
-        <v>0.01684300042688847</v>
+        <v>0.006353600881993771</v>
       </c>
       <c r="T11" t="n">
-        <v>0.06804705411195755</v>
+        <v>0.03755853697657585</v>
       </c>
       <c r="U11" t="n">
-        <v>0.05697955191135406</v>
+        <v>0.004041987471282482</v>
       </c>
       <c r="V11" t="n">
-        <v>0.007879562675952911</v>
+        <v>0.02313247323036194</v>
       </c>
       <c r="W11" t="n">
-        <v>0.07788052409887314</v>
+        <v>0.004878943786025047</v>
       </c>
       <c r="X11" t="n">
-        <v>0.02631821110844612</v>
+        <v>0.02870947867631912</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.04351456090807915</v>
+        <v>0.007073147222399712</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.00495332945138216</v>
+        <v>0.02499787695705891</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.009435484185814857</v>
+        <v>0.01303263008594513</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.01002123393118382</v>
+        <v>0.002514350228011608</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.08301182091236115</v>
+        <v>0.02532180398702621</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.05033793300390244</v>
+        <v>0.00993555411696434</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.07833065092563629</v>
+        <v>0.005249709822237492</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.04232992604374886</v>
+        <v>0.02605257742106915</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.03948081284761429</v>
+        <v>0.03654049336910248</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.09664589166641235</v>
+        <v>0.008468920364975929</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.08027861267328262</v>
+        <v>0.003257366362959146</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.07916995882987976</v>
+        <v>0.01091800164431334</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.01264598686248064</v>
+        <v>0.01853809878230095</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.007628206163644791</v>
+        <v>0.03286920487880707</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.03411101177334785</v>
+        <v>0.004945769906044006</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.008314613252878189</v>
+        <v>0.01390007883310318</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.005499443970620632</v>
+        <v>0.008202215656638145</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.01703835837543011</v>
+        <v>0.02588010206818581</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.0001929085701704025</v>
+        <v>0.01047411467880011</v>
       </c>
       <c r="AR11" t="n">
-        <v>0.02365289069712162</v>
+        <v>0.005938308779150248</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.02619176357984543</v>
+        <v>0.0152928251773119</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.05410048365592957</v>
+        <v>0.004779733717441559</v>
       </c>
       <c r="AU11" t="n">
-        <v>0.04693657159805298</v>
+        <v>0.1073350980877876</v>
       </c>
       <c r="AV11" t="n">
-        <v>0.04137033596634865</v>
+        <v>0.006326788570731878</v>
       </c>
       <c r="AW11" t="n">
-        <v>0.04305285215377808</v>
+        <v>0.01318204030394554</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.04995611682534218</v>
+        <v>0.01092442683875561</v>
       </c>
       <c r="AY11" t="n">
-        <v>0.03324335068464279</v>
+        <v>0.02060450613498688</v>
       </c>
       <c r="AZ11" t="n">
-        <v>0.01143033523112535</v>
+        <v>0.008937926962971687</v>
       </c>
       <c r="BA11" t="n">
-        <v>0.01529297232627869</v>
+        <v>0.007820823229849339</v>
       </c>
       <c r="BB11" t="n">
-        <v>0.002020704559981823</v>
+        <v>0.005490421317517757</v>
       </c>
       <c r="BC11" t="n">
-        <v>0.0559053011238575</v>
+        <v>0.005063532385975122</v>
       </c>
       <c r="BD11" t="n">
-        <v>0.08440499752759933</v>
+        <v>0.03391365706920624</v>
       </c>
       <c r="BE11" t="n">
-        <v>0.07570922374725342</v>
+        <v>0.01417379081249237</v>
       </c>
       <c r="BF11" t="n">
-        <v>0.00195184163749218</v>
+        <v>0.002233723178505898</v>
       </c>
       <c r="BG11" t="n">
-        <v>0.1613712310791016</v>
+        <v>0.03048870526254177</v>
       </c>
       <c r="BH11" t="n">
-        <v>0.02708102390170097</v>
+        <v>0.004112933296710253</v>
       </c>
       <c r="BI11" t="n">
-        <v>0.01790926232933998</v>
+        <v>0.01275850087404251</v>
       </c>
       <c r="BJ11" t="n">
-        <v>0.02888519503176212</v>
+        <v>0.01423207577317953</v>
       </c>
       <c r="BK11" t="n">
-        <v>0.008435864001512527</v>
+        <v>0.02416597120463848</v>
       </c>
       <c r="BL11" t="n">
-        <v>0.04724437370896339</v>
+        <v>0.003713428508490324</v>
       </c>
       <c r="BM11" t="n">
-        <v>0.01160368695855141</v>
+        <v>0.01395357586443424</v>
       </c>
       <c r="BN11" t="n">
-        <v>0.04500074684619904</v>
+        <v>0.003375293454155326</v>
       </c>
       <c r="BO11" t="n">
-        <v>0.03976888209581375</v>
+        <v>0.0131174698472023</v>
       </c>
       <c r="BP11" t="n">
-        <v>0.01968574151396751</v>
+        <v>0.02907210402190685</v>
       </c>
       <c r="BQ11" t="n">
-        <v>0.04859697073698044</v>
+        <v>0.02110854908823967</v>
       </c>
       <c r="BR11" t="n">
-        <v>0.01737197116017342</v>
+        <v>0.005870943889021873</v>
       </c>
       <c r="BS11" t="n">
-        <v>0.0285694170743227</v>
+        <v>0.009965335018932819</v>
       </c>
       <c r="BT11" t="n">
-        <v>0.01119414251297712</v>
+        <v>0.02167515084147453</v>
       </c>
       <c r="BU11" t="n">
-        <v>0.06649202853441238</v>
+        <v>0.007178491912782192</v>
       </c>
       <c r="BV11" t="n">
-        <v>0.07071337103843689</v>
+        <v>0.07475323975086212</v>
       </c>
       <c r="BW11" t="n">
-        <v>0.07915949821472168</v>
+        <v>0.01910967938601971</v>
       </c>
       <c r="BX11" t="n">
-        <v>0.02735618129372597</v>
+        <v>0.02481677383184433</v>
       </c>
       <c r="BY11" t="n">
-        <v>0.04224199056625366</v>
+        <v>0.001514715724624693</v>
       </c>
       <c r="BZ11" t="n">
-        <v>0.03889109939336777</v>
+        <v>0.001116340165026486</v>
       </c>
       <c r="CA11" t="n">
-        <v>0.02259549684822559</v>
+        <v>0.005287920124828815</v>
       </c>
       <c r="CB11" t="n">
-        <v>0.05757221952080727</v>
+        <v>0.01112877018749714</v>
       </c>
       <c r="CC11" t="n">
-        <v>0.01371855102479458</v>
+        <v>0.01114058867096901</v>
       </c>
       <c r="CD11" t="n">
-        <v>0.02243713103234768</v>
+        <v>0.005550763569772243</v>
       </c>
       <c r="CE11" t="n">
-        <v>0.02392731606960297</v>
+        <v>0.02743666060268879</v>
       </c>
       <c r="CF11" t="n">
-        <v>0.02869791351258755</v>
+        <v>0.006535694003105164</v>
       </c>
       <c r="CG11" t="n">
-        <v>0.001830722205340862</v>
+        <v>0.006687214132398367</v>
       </c>
       <c r="CH11" t="n">
-        <v>0.01825555413961411</v>
+        <v>0.004480481147766113</v>
       </c>
       <c r="CI11" t="n">
-        <v>0.009701251983642578</v>
+        <v>0.002646669978275895</v>
       </c>
       <c r="CJ11" t="n">
-        <v>0.004214012529700994</v>
+        <v>0.002543216804042459</v>
       </c>
       <c r="CK11" t="n">
-        <v>0.003376889741048217</v>
+        <v>0.00535071874037385</v>
       </c>
       <c r="CL11" t="n">
-        <v>0.01040300447493792</v>
+        <v>0.002220041584223509</v>
       </c>
       <c r="CM11" t="n">
-        <v>0.006469633430242538</v>
+        <v>0.02975256368517876</v>
       </c>
       <c r="CN11" t="n">
-        <v>0.01426179986447096</v>
+        <v>0.005728339776396751</v>
       </c>
       <c r="CO11" t="n">
-        <v>0.02251469902694225</v>
+        <v>1.948638237081468e-05</v>
       </c>
       <c r="CP11" t="n">
-        <v>0.03469322994351387</v>
+        <v>0.01024437230080366</v>
       </c>
       <c r="CQ11" t="n">
-        <v>0.04653524234890938</v>
+        <v>0.0390520803630352</v>
       </c>
       <c r="CR11" t="n">
-        <v>0.02298930287361145</v>
+        <v>0.005561215803027153</v>
       </c>
       <c r="CS11" t="n">
-        <v>0.03071244806051254</v>
+        <v>0.01352506782859564</v>
       </c>
       <c r="CT11" t="n">
-        <v>0.003485852153971791</v>
+        <v>0.01454662438482046</v>
       </c>
       <c r="CU11" t="n">
-        <v>0.03846016153693199</v>
+        <v>0.01216002646833658</v>
       </c>
       <c r="CV11" t="n">
-        <v>0.01621980220079422</v>
+        <v>0.002476117108017206</v>
       </c>
       <c r="CW11" t="n">
-        <v>0.03077476099133492</v>
+        <v>0.02834261208772659</v>
       </c>
       <c r="CX11" t="n">
-        <v>0.03774843737483025</v>
+        <v>0.008946609683334827</v>
       </c>
       <c r="CY11" t="n">
-        <v>0.0207491759210825</v>
+        <v>0.01070425845682621</v>
       </c>
       <c r="CZ11" t="n">
-        <v>0.0356585867702961</v>
+        <v>0.006517460569739342</v>
       </c>
       <c r="DA11" t="n">
-        <v>0.01128549594432116</v>
+        <v>0.01175716798752546</v>
       </c>
       <c r="DB11" t="n">
-        <v>0.01445877365767956</v>
+        <v>0.005391097627580166</v>
       </c>
       <c r="DC11" t="n">
-        <v>0.006446674466133118</v>
+        <v>0.006095162127166986</v>
       </c>
       <c r="DD11" t="n">
-        <v>0.01024177949875593</v>
+        <v>5.052174310549162e-05</v>
       </c>
       <c r="DE11" t="n">
-        <v>0.05645271390676498</v>
+        <v>0.0016603316180408</v>
       </c>
       <c r="DF11" t="n">
-        <v>0.01803728565573692</v>
+        <v>0.0641840472817421</v>
       </c>
       <c r="DG11" t="n">
-        <v>0.02479912340641022</v>
+        <v>0.0002192731772083789</v>
       </c>
       <c r="DH11" t="n">
-        <v>0.09165525436401367</v>
+        <v>0.03597969561815262</v>
       </c>
       <c r="DI11" t="n">
-        <v>0.01356121432036161</v>
+        <v>0.01654715090990067</v>
       </c>
       <c r="DJ11" t="n">
-        <v>0.02946505695581436</v>
+        <v>0.04237109050154686</v>
       </c>
       <c r="DK11" t="n">
-        <v>0.0406363233923912</v>
+        <v>0.0005799736827611923</v>
       </c>
       <c r="DL11" t="n">
-        <v>0.03870828449726105</v>
+        <v>0.0004606416914612055</v>
       </c>
       <c r="DM11" t="n">
-        <v>0.01182195264846087</v>
+        <v>0.01596053689718246</v>
       </c>
       <c r="DN11" t="n">
-        <v>0.1002478897571564</v>
+        <v>0.00360245443880558</v>
       </c>
       <c r="DO11" t="n">
-        <v>0.07339188456535339</v>
+        <v>0.0214561503380537</v>
       </c>
       <c r="DP11" t="n">
-        <v>0.03586387634277344</v>
+        <v>0.00227212649770081</v>
       </c>
       <c r="DQ11" t="n">
-        <v>0.006468824576586485</v>
+        <v>0.01106477156281471</v>
       </c>
       <c r="DR11" t="n">
-        <v>0.03792041540145874</v>
+        <v>0.02263367921113968</v>
       </c>
       <c r="DS11" t="n">
-        <v>0.02350223809480667</v>
+        <v>9.504245826974511e-05</v>
       </c>
       <c r="DT11" t="n">
-        <v>0.01169477961957455</v>
+        <v>0.003221204970031977</v>
       </c>
       <c r="DU11" t="n">
-        <v>0.006159708835184574</v>
+        <v>0.00297012971714139</v>
       </c>
       <c r="DV11" t="n">
-        <v>0.03607410192489624</v>
+        <v>0.02145582064986229</v>
       </c>
       <c r="DW11" t="n">
-        <v>0.01034038513898849</v>
+        <v>0.001634169835597277</v>
       </c>
       <c r="DX11" t="n">
-        <v>0.01370316557586193</v>
+        <v>0.0202200822532177</v>
       </c>
       <c r="DY11" t="n">
-        <v>0.02257449552416801</v>
+        <v>0.01115433964878321</v>
       </c>
       <c r="DZ11" t="n">
-        <v>0.005980162881314754</v>
+        <v>0.008524668402969837</v>
       </c>
       <c r="EA11" t="n">
-        <v>0.03660480678081512</v>
+        <v>0.01817566715180874</v>
       </c>
       <c r="EB11" t="n">
-        <v>0.006254592910408974</v>
+        <v>0.0103760315105319</v>
       </c>
       <c r="EC11" t="n">
-        <v>0.004553064238280058</v>
+        <v>0.006167850457131863</v>
       </c>
       <c r="ED11" t="n">
-        <v>0.03254180774092674</v>
+        <v>0.005798204801976681</v>
       </c>
       <c r="EE11" t="n">
-        <v>0.0444861426949501</v>
+        <v>0.01065713725984097</v>
       </c>
       <c r="EF11" t="n">
-        <v>0.007300326600670815</v>
+        <v>0.003766049165278673</v>
       </c>
       <c r="EG11" t="n">
-        <v>0.023017643019557</v>
+        <v>0.00702327536419034</v>
       </c>
       <c r="EH11" t="n">
-        <v>0.04538403451442719</v>
+        <v>0.006826406810432673</v>
       </c>
       <c r="EI11" t="n">
-        <v>0.05145033076405525</v>
+        <v>0.008272828534245491</v>
       </c>
       <c r="EJ11" t="n">
-        <v>0.01511496305465698</v>
+        <v>0.003064665710553527</v>
       </c>
       <c r="EK11" t="n">
-        <v>0.01975992880761623</v>
+        <v>0.01596767269074917</v>
       </c>
       <c r="EL11" t="n">
-        <v>0.006781776435673237</v>
+        <v>0.004874794743955135</v>
       </c>
       <c r="EM11" t="n">
-        <v>0.01740484870970249</v>
+        <v>0.001265312545001507</v>
       </c>
       <c r="EN11" t="n">
-        <v>0.0004354004049673676</v>
+        <v>0.003339379793033004</v>
       </c>
       <c r="EO11" t="n">
-        <v>0.05270011350512505</v>
+        <v>0.003515642136335373</v>
       </c>
       <c r="EP11" t="n">
-        <v>0.07981712371110916</v>
+        <v>0.01396780461072922</v>
       </c>
       <c r="EQ11" t="n">
-        <v>0.02835379913449287</v>
+        <v>0.01210260670632124</v>
       </c>
       <c r="ER11" t="n">
-        <v>0.03342343866825104</v>
+        <v>0.008178792893886566</v>
       </c>
       <c r="ES11" t="n">
-        <v>0.08610139787197113</v>
+        <v>0.005266303662210703</v>
       </c>
       <c r="ET11" t="n">
-        <v>0.01775801181793213</v>
+        <v>0.01994788087904453</v>
       </c>
       <c r="EU11" t="n">
-        <v>0.002594801364466548</v>
+        <v>0.00803699903190136</v>
       </c>
       <c r="EV11" t="n">
-        <v>0.02543661370873451</v>
+        <v>0.02357137016952038</v>
       </c>
       <c r="EW11" t="n">
-        <v>0.02810988016426563</v>
+        <v>0.004906383343040943</v>
       </c>
       <c r="EX11" t="n">
-        <v>0.03652322292327881</v>
+        <v>0.002352225128561258</v>
       </c>
       <c r="EY11" t="n">
-        <v>0.02288886345922947</v>
+        <v>0.02868761122226715</v>
       </c>
       <c r="EZ11" t="n">
-        <v>0.03223128989338875</v>
+        <v>0.004739769268780947</v>
       </c>
       <c r="FA11" t="n">
-        <v>0.01374562364071608</v>
+        <v>0.01115298178046942</v>
       </c>
       <c r="FB11" t="n">
-        <v>0.02446508966386318</v>
+        <v>0.01033898629248142</v>
       </c>
       <c r="FC11" t="n">
-        <v>0.0001115347258746624</v>
+        <v>0.009045633487403393</v>
       </c>
       <c r="FD11" t="n">
-        <v>0.01121732406318188</v>
+        <v>0.003791367402300239</v>
       </c>
       <c r="FE11" t="n">
-        <v>0.001335486653260887</v>
+        <v>0.001382210059091449</v>
       </c>
       <c r="FF11" t="n">
-        <v>0.016348572447896</v>
+        <v>0.004008709453046322</v>
       </c>
       <c r="FG11" t="n">
-        <v>0.00379653088748455</v>
+        <v>0.0001315540866926312</v>
       </c>
       <c r="FH11" t="n">
-        <v>0.01737200655043125</v>
+        <v>0.01029986888170242</v>
       </c>
       <c r="FI11" t="n">
-        <v>0.05826477333903313</v>
+        <v>0.007897324860095978</v>
       </c>
       <c r="FJ11" t="n">
-        <v>0.03235049173235893</v>
+        <v>0.005988847464323044</v>
       </c>
       <c r="FK11" t="n">
-        <v>0.005363783799111843</v>
+        <v>0.007378980983048677</v>
       </c>
       <c r="FL11" t="n">
-        <v>0.05677356198430061</v>
+        <v>0.003042571945115924</v>
       </c>
       <c r="FM11" t="n">
-        <v>0.04465970024466515</v>
+        <v>0.004415177740156651</v>
       </c>
       <c r="FN11" t="n">
-        <v>0.04472168907523155</v>
+        <v>0.004757349845021963</v>
       </c>
       <c r="FO11" t="n">
-        <v>0.005450998432934284</v>
+        <v>0.004605380352586508</v>
       </c>
       <c r="FP11" t="n">
-        <v>0.04614778980612755</v>
+        <v>0.008689001202583313</v>
       </c>
       <c r="FQ11" t="n">
-        <v>0.02696100994944572</v>
+        <v>0.02244426868855953</v>
       </c>
       <c r="FR11" t="n">
-        <v>0.02507604099810123</v>
+        <v>0.01368111651390791</v>
       </c>
       <c r="FS11" t="n">
-        <v>0.09657487273216248</v>
+        <v>0.02611268498003483</v>
       </c>
       <c r="FT11" t="n">
-        <v>0.09590002149343491</v>
+        <v>0.0002444530837237835</v>
       </c>
       <c r="FU11" t="n">
-        <v>0.01870515570044518</v>
+        <v>0.003290965687483549</v>
       </c>
       <c r="FV11" t="n">
-        <v>0.006521787960082293</v>
+        <v>0.01476482022553682</v>
       </c>
       <c r="FW11" t="n">
-        <v>0.01151120662689209</v>
+        <v>0.004900000058114529</v>
       </c>
       <c r="FX11" t="n">
-        <v>0.1310857832431793</v>
+        <v>0.01127923186868429</v>
       </c>
       <c r="FY11" t="n">
-        <v>0.009377941489219666</v>
+        <v>0.01965648122131824</v>
       </c>
       <c r="FZ11" t="n">
-        <v>0.01573197171092033</v>
+        <v>0.004976620431989431</v>
       </c>
       <c r="GA11" t="n">
-        <v>0.03208734095096588</v>
+        <v>6.151199340820312e-05</v>
       </c>
       <c r="GB11" t="n">
-        <v>0.01795894280076027</v>
+        <v>0.01113398745656013</v>
       </c>
       <c r="GC11" t="n">
-        <v>0.06034039705991745</v>
+        <v>0.06983210891485214</v>
       </c>
       <c r="GD11" t="n">
-        <v>0.003140304237604141</v>
+        <v>0.02699921652674675</v>
       </c>
       <c r="GE11" t="n">
-        <v>0.01913832686841488</v>
+        <v>0.05434849113225937</v>
       </c>
       <c r="GF11" t="n">
-        <v>0.01898712851107121</v>
+        <v>0.003333470318466425</v>
       </c>
       <c r="GG11" t="n">
-        <v>0.0117496307939291</v>
+        <v>0.008275385014712811</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.007688564248383045</v>
+        <v>0.001567959319800138</v>
       </c>
       <c r="B12" t="n">
-        <v>0.02914498001337051</v>
+        <v>0.08620385080575943</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0256976205855608</v>
+        <v>0.004370290320366621</v>
       </c>
       <c r="D12" t="n">
-        <v>0.06208581849932671</v>
+        <v>0.01488096546381712</v>
       </c>
       <c r="E12" t="n">
-        <v>0.007055874448269606</v>
+        <v>0.02239872701466084</v>
       </c>
       <c r="F12" t="n">
-        <v>0.006737950257956982</v>
+        <v>0.009369951672852039</v>
       </c>
       <c r="G12" t="n">
-        <v>0.004019316285848618</v>
+        <v>0.0531504787504673</v>
       </c>
       <c r="H12" t="n">
-        <v>0.01959097012877464</v>
+        <v>0.001076655695214868</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0135174198076129</v>
+        <v>0.007556445896625519</v>
       </c>
       <c r="J12" t="n">
-        <v>0.01520302705466747</v>
+        <v>0.008329928852617741</v>
       </c>
       <c r="K12" t="n">
-        <v>0.03849953413009644</v>
+        <v>0.06257939338684082</v>
       </c>
       <c r="L12" t="n">
-        <v>0.03099584206938744</v>
+        <v>0.001179769751615822</v>
       </c>
       <c r="M12" t="n">
-        <v>0.03776326030492783</v>
+        <v>0.03880654275417328</v>
       </c>
       <c r="N12" t="n">
-        <v>0.01745830290019512</v>
+        <v>0.02993777021765709</v>
       </c>
       <c r="O12" t="n">
-        <v>0.0224552359431982</v>
+        <v>0.000189648853847757</v>
       </c>
       <c r="P12" t="n">
-        <v>0.005413367878645658</v>
+        <v>0.04344216734170914</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.02387875504791737</v>
+        <v>0.01438582688570023</v>
       </c>
       <c r="R12" t="n">
-        <v>0.01543883420526981</v>
+        <v>0.000872518983669579</v>
       </c>
       <c r="S12" t="n">
-        <v>0.006772876717150211</v>
+        <v>0.008687444962561131</v>
       </c>
       <c r="T12" t="n">
-        <v>0.0006593213183805346</v>
+        <v>0.02194667048752308</v>
       </c>
       <c r="U12" t="n">
-        <v>0.00404045544564724</v>
+        <v>0.0008919193642213941</v>
       </c>
       <c r="V12" t="n">
-        <v>0.02178262732923031</v>
+        <v>0.005059428513050079</v>
       </c>
       <c r="W12" t="n">
-        <v>0.02930008620023727</v>
+        <v>0.01507317554205656</v>
       </c>
       <c r="X12" t="n">
-        <v>0.009027006104588509</v>
+        <v>0.009932934306561947</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.001927181147038937</v>
+        <v>0.007387509103864431</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.001413688412867486</v>
+        <v>0.002202012343332171</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.003061413764953613</v>
+        <v>0.002088624751195312</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.0202405508607626</v>
+        <v>0.009718630462884903</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.01284043584018946</v>
+        <v>0.01835432089865208</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.006267035845667124</v>
+        <v>0.001210856251418591</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.02065172232687473</v>
+        <v>0.006569130346179008</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.002117633586749434</v>
+        <v>0.00532505102455616</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.002407799474895</v>
+        <v>0.005609828978776932</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.001130188349634409</v>
+        <v>0.006601780187338591</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.00288362754508853</v>
+        <v>0.007841357961297035</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0.003887980477884412</v>
+        <v>0.009149838238954544</v>
       </c>
       <c r="AK12" t="n">
-        <v>0.01814698241651058</v>
+        <v>0.008197177201509476</v>
       </c>
       <c r="AL12" t="n">
-        <v>0.005118248984217644</v>
+        <v>0.01001793425530195</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.006187446415424347</v>
+        <v>0.003851498011499643</v>
       </c>
       <c r="AN12" t="n">
-        <v>0.002538511995226145</v>
+        <v>0.01193287316709757</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.009099794551730156</v>
+        <v>0.0003376951208338141</v>
       </c>
       <c r="AP12" t="n">
-        <v>0.0009112297557294369</v>
+        <v>0.003737223101779819</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.00395863363519311</v>
+        <v>0.004943251609802246</v>
       </c>
       <c r="AR12" t="n">
-        <v>0.003141594352200627</v>
+        <v>0.001900247531011701</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.002908371854573488</v>
+        <v>0.002095025265589356</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.01793331652879715</v>
+        <v>0.01321063004434109</v>
       </c>
       <c r="AU12" t="n">
-        <v>0.03207959234714508</v>
+        <v>0.06607993692159653</v>
       </c>
       <c r="AV12" t="n">
-        <v>0.01833537220954895</v>
+        <v>0.008731197565793991</v>
       </c>
       <c r="AW12" t="n">
-        <v>0.01332378853112459</v>
+        <v>0.01774667203426361</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.02573302574455738</v>
+        <v>0.003981067799031734</v>
       </c>
       <c r="AY12" t="n">
-        <v>0.01418421138077974</v>
+        <v>0.003461237298324704</v>
       </c>
       <c r="AZ12" t="n">
-        <v>0.004525601398199797</v>
+        <v>0.01316122990101576</v>
       </c>
       <c r="BA12" t="n">
-        <v>0.01391102187335491</v>
+        <v>0.009618187323212624</v>
       </c>
       <c r="BB12" t="n">
-        <v>0.0008803074015304446</v>
+        <v>0.0005588107160292566</v>
       </c>
       <c r="BC12" t="n">
-        <v>0.003994947765022516</v>
+        <v>0.001631982624530792</v>
       </c>
       <c r="BD12" t="n">
-        <v>0.00490211695432663</v>
+        <v>0.01881813816726208</v>
       </c>
       <c r="BE12" t="n">
-        <v>0.01942148245871067</v>
+        <v>0.02002672664821148</v>
       </c>
       <c r="BF12" t="n">
-        <v>0.02918799966573715</v>
+        <v>0.01568160392343998</v>
       </c>
       <c r="BG12" t="n">
-        <v>0.01797481626272202</v>
+        <v>0.01898764632642269</v>
       </c>
       <c r="BH12" t="n">
-        <v>0.02523768879473209</v>
+        <v>0.001258724485523999</v>
       </c>
       <c r="BI12" t="n">
-        <v>0.001799340127035975</v>
+        <v>0.02533986791968346</v>
       </c>
       <c r="BJ12" t="n">
-        <v>0.00788379181176424</v>
+        <v>0.01507561001926661</v>
       </c>
       <c r="BK12" t="n">
-        <v>0.001707372488453984</v>
+        <v>0.002614864148199558</v>
       </c>
       <c r="BL12" t="n">
-        <v>0.01376750133931637</v>
+        <v>0.002185240387916565</v>
       </c>
       <c r="BM12" t="n">
-        <v>0.01715964078903198</v>
+        <v>0.01555515080690384</v>
       </c>
       <c r="BN12" t="n">
-        <v>0.01125007309019566</v>
+        <v>0.008062803186476231</v>
       </c>
       <c r="BO12" t="n">
-        <v>0.01343890093266964</v>
+        <v>0.008044357411563396</v>
       </c>
       <c r="BP12" t="n">
-        <v>0.01280373241752386</v>
+        <v>0.03174920380115509</v>
       </c>
       <c r="BQ12" t="n">
-        <v>0.001959376502782106</v>
+        <v>0.00461122440174222</v>
       </c>
       <c r="BR12" t="n">
-        <v>0.001781770028173923</v>
+        <v>0.004660150967538357</v>
       </c>
       <c r="BS12" t="n">
-        <v>0.0003808771434705704</v>
+        <v>0.01134719140827656</v>
       </c>
       <c r="BT12" t="n">
-        <v>0.0007831575348973274</v>
+        <v>0.001610247301869094</v>
       </c>
       <c r="BU12" t="n">
-        <v>0.02122892625629902</v>
+        <v>0.008874348364770412</v>
       </c>
       <c r="BV12" t="n">
-        <v>0.005896211601793766</v>
+        <v>0.03510676324367523</v>
       </c>
       <c r="BW12" t="n">
-        <v>0.003995134960860014</v>
+        <v>0.01036130171269178</v>
       </c>
       <c r="BX12" t="n">
-        <v>0.01028592232614756</v>
+        <v>0.009376429952681065</v>
       </c>
       <c r="BY12" t="n">
-        <v>0.001462722662836313</v>
+        <v>0.002315784338861704</v>
       </c>
       <c r="BZ12" t="n">
-        <v>0.01596353761851788</v>
+        <v>0.008686968125402927</v>
       </c>
       <c r="CA12" t="n">
-        <v>0.002766448073089123</v>
+        <v>0.003128109965473413</v>
       </c>
       <c r="CB12" t="n">
-        <v>0.008319045417010784</v>
+        <v>0.009123066440224648</v>
       </c>
       <c r="CC12" t="n">
-        <v>0.0002976039540953934</v>
+        <v>0.002319398103281856</v>
       </c>
       <c r="CD12" t="n">
-        <v>0.02517137303948402</v>
+        <v>0.00199244124814868</v>
       </c>
       <c r="CE12" t="n">
-        <v>0.004997750278562307</v>
+        <v>0.01682566292583942</v>
       </c>
       <c r="CF12" t="n">
-        <v>0.00511969905346632</v>
+        <v>0.0040229307487607</v>
       </c>
       <c r="CG12" t="n">
-        <v>0.01048888079822063</v>
+        <v>0.005765066947788</v>
       </c>
       <c r="CH12" t="n">
-        <v>0.003292968729510903</v>
+        <v>0.001337431604042649</v>
       </c>
       <c r="CI12" t="n">
-        <v>0.007616392802447081</v>
+        <v>0.002622856292873621</v>
       </c>
       <c r="CJ12" t="n">
-        <v>0.004843139089643955</v>
+        <v>0.01010463200509548</v>
       </c>
       <c r="CK12" t="n">
-        <v>0.005673131439834833</v>
+        <v>0.003404552349820733</v>
       </c>
       <c r="CL12" t="n">
-        <v>0.003615597495809197</v>
+        <v>0.00251235137693584</v>
       </c>
       <c r="CM12" t="n">
-        <v>0.01819769106805325</v>
+        <v>0.0231282040476799</v>
       </c>
       <c r="CN12" t="n">
-        <v>0.01246163994073868</v>
+        <v>0.02109247259795666</v>
       </c>
       <c r="CO12" t="n">
-        <v>0.01585931330919266</v>
+        <v>0.0003412773367017508</v>
       </c>
       <c r="CP12" t="n">
-        <v>0.006166598293930292</v>
+        <v>0.002442231867462397</v>
       </c>
       <c r="CQ12" t="n">
-        <v>0.01419824734330177</v>
+        <v>0.01237160339951515</v>
       </c>
       <c r="CR12" t="n">
-        <v>0.03995290771126747</v>
+        <v>0.00650890776887536</v>
       </c>
       <c r="CS12" t="n">
-        <v>0.007849056273698807</v>
+        <v>0.0004581368993967772</v>
       </c>
       <c r="CT12" t="n">
-        <v>0.007446275092661381</v>
+        <v>0.01031607016921043</v>
       </c>
       <c r="CU12" t="n">
-        <v>0.009297827258706093</v>
+        <v>0.008263002149760723</v>
       </c>
       <c r="CV12" t="n">
-        <v>0.02432426437735558</v>
+        <v>0.003392189508304</v>
       </c>
       <c r="CW12" t="n">
-        <v>0.006906557362526655</v>
+        <v>0.01443636976182461</v>
       </c>
       <c r="CX12" t="n">
-        <v>0.005881946068257093</v>
+        <v>0.007786969654262066</v>
       </c>
       <c r="CY12" t="n">
-        <v>0.01040436234325171</v>
+        <v>0.01178064197301865</v>
       </c>
       <c r="CZ12" t="n">
-        <v>0.00281296344473958</v>
+        <v>0.001975951250642538</v>
       </c>
       <c r="DA12" t="n">
-        <v>0.008337050676345825</v>
+        <v>0.00347428279928863</v>
       </c>
       <c r="DB12" t="n">
-        <v>0.002042839303612709</v>
+        <v>0.01042632292956114</v>
       </c>
       <c r="DC12" t="n">
-        <v>0.003858407959342003</v>
+        <v>0.0005888182204216719</v>
       </c>
       <c r="DD12" t="n">
-        <v>0.005589945241808891</v>
+        <v>0.001919529400765896</v>
       </c>
       <c r="DE12" t="n">
-        <v>0.02527018263936043</v>
+        <v>0.008094305172562599</v>
       </c>
       <c r="DF12" t="n">
-        <v>0.0002354760654270649</v>
+        <v>0.05175519734621048</v>
       </c>
       <c r="DG12" t="n">
-        <v>0.006654848344624043</v>
+        <v>0.01186196506023407</v>
       </c>
       <c r="DH12" t="n">
-        <v>0.006743797101080418</v>
+        <v>0.02261410281062126</v>
       </c>
       <c r="DI12" t="n">
-        <v>0.02360709197819233</v>
+        <v>0.0008302805945277214</v>
       </c>
       <c r="DJ12" t="n">
-        <v>0.01084482669830322</v>
+        <v>0.002679737750440836</v>
       </c>
       <c r="DK12" t="n">
-        <v>0.002680815290659666</v>
+        <v>0.004892034456133842</v>
       </c>
       <c r="DL12" t="n">
-        <v>0.01520253252238035</v>
+        <v>0.005422018934041262</v>
       </c>
       <c r="DM12" t="n">
-        <v>0.003742683911696076</v>
+        <v>0.0127839557826519</v>
       </c>
       <c r="DN12" t="n">
-        <v>0.02181888371706009</v>
+        <v>0.003203061642125249</v>
       </c>
       <c r="DO12" t="n">
-        <v>2.614280674606562e-05</v>
+        <v>0.01182689238339663</v>
       </c>
       <c r="DP12" t="n">
-        <v>0.01155419461429119</v>
+        <v>0.009104594588279724</v>
       </c>
       <c r="DQ12" t="n">
-        <v>0.005377946887165308</v>
+        <v>0.00334674259647727</v>
       </c>
       <c r="DR12" t="n">
-        <v>0.02539438381791115</v>
+        <v>0.006146963685750961</v>
       </c>
       <c r="DS12" t="n">
-        <v>0.0007211921620182693</v>
+        <v>0.01136604230850935</v>
       </c>
       <c r="DT12" t="n">
-        <v>0.01056954730302095</v>
+        <v>0.005985320545732975</v>
       </c>
       <c r="DU12" t="n">
-        <v>0.0001497923221904784</v>
+        <v>0.006420610938221216</v>
       </c>
       <c r="DV12" t="n">
-        <v>0.001743307453580201</v>
+        <v>0.01141782850027084</v>
       </c>
       <c r="DW12" t="n">
-        <v>0.006329253315925598</v>
+        <v>0.004350312054157257</v>
       </c>
       <c r="DX12" t="n">
-        <v>0.001556206494569778</v>
+        <v>0.01089336443692446</v>
       </c>
       <c r="DY12" t="n">
-        <v>0.0139444638043642</v>
+        <v>0.0009525959030725062</v>
       </c>
       <c r="DZ12" t="n">
-        <v>0.01040420681238174</v>
+        <v>0.006476889830082655</v>
       </c>
       <c r="EA12" t="n">
-        <v>0.005657823756337166</v>
+        <v>0.008725060150027275</v>
       </c>
       <c r="EB12" t="n">
-        <v>0.02213064022362232</v>
+        <v>0.00287175877019763</v>
       </c>
       <c r="EC12" t="n">
-        <v>0.0001880253839772195</v>
+        <v>0.004885551519691944</v>
       </c>
       <c r="ED12" t="n">
-        <v>0.007548129186034203</v>
+        <v>0.008141721598803997</v>
       </c>
       <c r="EE12" t="n">
-        <v>0.005251576192677021</v>
+        <v>0.004393181297928095</v>
       </c>
       <c r="EF12" t="n">
-        <v>0.02423105016350746</v>
+        <v>0.005522574298083782</v>
       </c>
       <c r="EG12" t="n">
-        <v>0.01123620755970478</v>
+        <v>0.002962387632578611</v>
       </c>
       <c r="EH12" t="n">
-        <v>0.00653669610619545</v>
+        <v>0.003929090220481157</v>
       </c>
       <c r="EI12" t="n">
-        <v>0.02083946019411087</v>
+        <v>0.01162585243582726</v>
       </c>
       <c r="EJ12" t="n">
-        <v>0.0254661962389946</v>
+        <v>0.005236475728452206</v>
       </c>
       <c r="EK12" t="n">
-        <v>0.01570113375782967</v>
+        <v>0.001346367411315441</v>
       </c>
       <c r="EL12" t="n">
-        <v>0.001785346888937056</v>
+        <v>0.004757558461278677</v>
       </c>
       <c r="EM12" t="n">
-        <v>0.001549430890008807</v>
+        <v>0.005140397697687149</v>
       </c>
       <c r="EN12" t="n">
-        <v>0.004265601746737957</v>
+        <v>0.0002097319375025108</v>
       </c>
       <c r="EO12" t="n">
-        <v>0.01549709215760231</v>
+        <v>0.008196655660867691</v>
       </c>
       <c r="EP12" t="n">
-        <v>0.003063793294131756</v>
+        <v>0.005122704897075891</v>
       </c>
       <c r="EQ12" t="n">
-        <v>0.00245310366153717</v>
+        <v>0.01410279888659716</v>
       </c>
       <c r="ER12" t="n">
-        <v>0.00484070647507906</v>
+        <v>0.01231016684323549</v>
       </c>
       <c r="ES12" t="n">
-        <v>0.005784444510936737</v>
+        <v>0.005144945811480284</v>
       </c>
       <c r="ET12" t="n">
-        <v>0.004554587882012129</v>
+        <v>0.0006180709460750222</v>
       </c>
       <c r="EU12" t="n">
-        <v>0.004542283713817596</v>
+        <v>0.00539251696318388</v>
       </c>
       <c r="EV12" t="n">
-        <v>0.004621436819434166</v>
+        <v>0.007251628674566746</v>
       </c>
       <c r="EW12" t="n">
-        <v>0.002189401537179947</v>
+        <v>0.006826786790043116</v>
       </c>
       <c r="EX12" t="n">
-        <v>0.02358540706336498</v>
+        <v>0.003749007824808359</v>
       </c>
       <c r="EY12" t="n">
-        <v>0.008213629014790058</v>
+        <v>0.01440275739878416</v>
       </c>
       <c r="EZ12" t="n">
-        <v>0.005318047013133764</v>
+        <v>0.006098374258726835</v>
       </c>
       <c r="FA12" t="n">
-        <v>0.01019530650228262</v>
+        <v>0.008019950240850449</v>
       </c>
       <c r="FB12" t="n">
-        <v>0.005109631922096014</v>
+        <v>0.0005602209712378681</v>
       </c>
       <c r="FC12" t="n">
-        <v>0.009120123460888863</v>
+        <v>0.0002330376737518236</v>
       </c>
       <c r="FD12" t="n">
-        <v>0.002930236980319023</v>
+        <v>0.01220639050006866</v>
       </c>
       <c r="FE12" t="n">
-        <v>0.004027470480650663</v>
+        <v>0.003904885379597545</v>
       </c>
       <c r="FF12" t="n">
-        <v>0.004889761563390493</v>
+        <v>0.001111836638301611</v>
       </c>
       <c r="FG12" t="n">
-        <v>0.02186027355492115</v>
+        <v>0.005339218769222498</v>
       </c>
       <c r="FH12" t="n">
-        <v>0.004210247658193111</v>
+        <v>0.007900181226432323</v>
       </c>
       <c r="FI12" t="n">
-        <v>0.005558522418141365</v>
+        <v>0.003610711777582765</v>
       </c>
       <c r="FJ12" t="n">
-        <v>0.006973567418754101</v>
+        <v>0.009405734948813915</v>
       </c>
       <c r="FK12" t="n">
-        <v>0.01016963273286819</v>
+        <v>0.007550651673227549</v>
       </c>
       <c r="FL12" t="n">
-        <v>0.02939441800117493</v>
+        <v>0.004956724587827921</v>
       </c>
       <c r="FM12" t="n">
-        <v>0.006970853079110384</v>
+        <v>0.002304251305758953</v>
       </c>
       <c r="FN12" t="n">
-        <v>0.008615170605480671</v>
+        <v>0.001062204129993916</v>
       </c>
       <c r="FO12" t="n">
-        <v>0.007002247497439384</v>
+        <v>0.003333446569740772</v>
       </c>
       <c r="FP12" t="n">
-        <v>0.01272937655448914</v>
+        <v>0.01060066372156143</v>
       </c>
       <c r="FQ12" t="n">
-        <v>0.013840576633811</v>
+        <v>0.00537531916052103</v>
       </c>
       <c r="FR12" t="n">
-        <v>0.02290426008403301</v>
+        <v>0.01578101329505444</v>
       </c>
       <c r="FS12" t="n">
-        <v>0.007899525575339794</v>
+        <v>0.008619155734777451</v>
       </c>
       <c r="FT12" t="n">
-        <v>0.008812273852527142</v>
+        <v>0.02285048924386501</v>
       </c>
       <c r="FU12" t="n">
-        <v>0.01064572483301163</v>
+        <v>0.008902127854526043</v>
       </c>
       <c r="FV12" t="n">
-        <v>0.001304189907386899</v>
+        <v>0.01211500726640224</v>
       </c>
       <c r="FW12" t="n">
-        <v>0.008931675925850868</v>
+        <v>0.003402161877602339</v>
       </c>
       <c r="FX12" t="n">
-        <v>0.003147409297525883</v>
+        <v>0.007895706221461296</v>
       </c>
       <c r="FY12" t="n">
-        <v>0.02454783208668232</v>
+        <v>0.008718960918486118</v>
       </c>
       <c r="FZ12" t="n">
-        <v>0.004876854829490185</v>
+        <v>0.01088177971541882</v>
       </c>
       <c r="GA12" t="n">
-        <v>0.001999761909246445</v>
+        <v>0.004978322423994541</v>
       </c>
       <c r="GB12" t="n">
-        <v>0.001460593775846064</v>
+        <v>0.01742524467408657</v>
       </c>
       <c r="GC12" t="n">
-        <v>0.01564211770892143</v>
+        <v>0.01102159358561039</v>
       </c>
       <c r="GD12" t="n">
-        <v>0.005804158747196198</v>
+        <v>0.01941301487386227</v>
       </c>
       <c r="GE12" t="n">
-        <v>0.008425641804933548</v>
+        <v>0.01254840102046728</v>
       </c>
       <c r="GF12" t="n">
-        <v>0.003345164004713297</v>
+        <v>0.01155707146972418</v>
       </c>
       <c r="GG12" t="n">
-        <v>0.004388881381601095</v>
+        <v>0.002818248700350523</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.001017391216009855</v>
+        <v>0.009510093368589878</v>
       </c>
       <c r="B13" t="n">
-        <v>0.001363565912470222</v>
+        <v>0.09655767679214478</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01550920493900776</v>
+        <v>0.01717576943337917</v>
       </c>
       <c r="D13" t="n">
-        <v>0.002403146121650934</v>
+        <v>0.02250517345964909</v>
       </c>
       <c r="E13" t="n">
-        <v>0.004827278666198254</v>
+        <v>0.0462164431810379</v>
       </c>
       <c r="F13" t="n">
-        <v>0.003212268697097898</v>
+        <v>0.00417516240850091</v>
       </c>
       <c r="G13" t="n">
-        <v>0.001362350769340992</v>
+        <v>0.01696365512907505</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01065026037395</v>
+        <v>0.02013400197029114</v>
       </c>
       <c r="I13" t="n">
-        <v>0.003984681330621243</v>
+        <v>0.0354795977473259</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0004623778513632715</v>
+        <v>0.01606898754835129</v>
       </c>
       <c r="K13" t="n">
-        <v>0.001554536400362849</v>
+        <v>0.07410845905542374</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01509011164307594</v>
+        <v>0.01148559805005789</v>
       </c>
       <c r="M13" t="n">
-        <v>0.000450236489996314</v>
+        <v>0.02961399033665657</v>
       </c>
       <c r="N13" t="n">
-        <v>0.002910744398832321</v>
+        <v>0.05362372100353241</v>
       </c>
       <c r="O13" t="n">
-        <v>0.002965894993394613</v>
+        <v>0.01571210287511349</v>
       </c>
       <c r="P13" t="n">
-        <v>0.0004525841795839369</v>
+        <v>0.0008354815654456615</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.01164054311811924</v>
+        <v>0.009941733442246914</v>
       </c>
       <c r="R13" t="n">
-        <v>0.00538583192974329</v>
+        <v>0.03212040662765503</v>
       </c>
       <c r="S13" t="n">
-        <v>0.0002932525239884853</v>
+        <v>0.001868426916189492</v>
       </c>
       <c r="T13" t="n">
-        <v>0.004064685665071011</v>
+        <v>0.02062928304076195</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0005665504140779376</v>
+        <v>0.01001144852489233</v>
       </c>
       <c r="V13" t="n">
-        <v>0.0001014226581901312</v>
+        <v>0.008936729282140732</v>
       </c>
       <c r="W13" t="n">
-        <v>0.0008739507757127285</v>
+        <v>0.005682571791112423</v>
       </c>
       <c r="X13" t="n">
-        <v>0.0001201460618176498</v>
+        <v>0.00639746617525816</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.001011827494949102</v>
+        <v>0.007158709224313498</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.004824801348149776</v>
+        <v>0.006486047990620136</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.0008859941735863686</v>
+        <v>0.007686734199523926</v>
       </c>
       <c r="AB13" t="n">
-        <v>9.676981426309794e-05</v>
+        <v>0.01183822005987167</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.0004031281860079616</v>
+        <v>0.02254992350935936</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.0001316441921517253</v>
+        <v>0.007618991658091545</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.001150354044511914</v>
+        <v>0.002527008298784494</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.001058959984220564</v>
+        <v>0.01263065170496702</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.0009393301443196833</v>
+        <v>0.01192865334451199</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.003382651833817363</v>
+        <v>0.002930035581812263</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.001545338658615947</v>
+        <v>0.006364138796925545</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.003464789362624288</v>
+        <v>0.001434583216905594</v>
       </c>
       <c r="AK13" t="n">
-        <v>0.0001777811994543299</v>
+        <v>0.01117778848856688</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.001743101282045245</v>
+        <v>0.01299231220036745</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.002905252622440457</v>
+        <v>0.007020768243819475</v>
       </c>
       <c r="AN13" t="n">
-        <v>3.205385655746795e-05</v>
+        <v>0.003831790527328849</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.004115058574825525</v>
+        <v>0.005564486607909203</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.00130520889069885</v>
+        <v>0.01295973919332027</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.0001176101141027175</v>
+        <v>0.003233186900615692</v>
       </c>
       <c r="AR13" t="n">
-        <v>0.00117430544923991</v>
+        <v>0.001427572220563889</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.0006192883593030274</v>
+        <v>0.001120046945288777</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.0009733284823596478</v>
+        <v>0.0009205953683704138</v>
       </c>
       <c r="AU13" t="n">
-        <v>0.003000501543283463</v>
+        <v>0.06518198549747467</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.006715548224747181</v>
+        <v>0.007050624582916498</v>
       </c>
       <c r="AW13" t="n">
-        <v>0.002858314197510481</v>
+        <v>0.00134444423019886</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.003170969896018505</v>
+        <v>0.007755333557724953</v>
       </c>
       <c r="AY13" t="n">
-        <v>0.00102985359262675</v>
+        <v>0.006528975442051888</v>
       </c>
       <c r="AZ13" t="n">
-        <v>0.0001659552799537778</v>
+        <v>0.01225195359438658</v>
       </c>
       <c r="BA13" t="n">
-        <v>0.0020877281203866</v>
+        <v>0.008420933969318867</v>
       </c>
       <c r="BB13" t="n">
-        <v>0.002361869905143976</v>
+        <v>0.006608277559280396</v>
       </c>
       <c r="BC13" t="n">
-        <v>0.0005788102280348539</v>
+        <v>0.00664726784452796</v>
       </c>
       <c r="BD13" t="n">
-        <v>0.0009339053649455309</v>
+        <v>0.0220164954662323</v>
       </c>
       <c r="BE13" t="n">
-        <v>0.00392457889392972</v>
+        <v>0.01418343558907509</v>
       </c>
       <c r="BF13" t="n">
-        <v>3.47308159689419e-05</v>
+        <v>0.007118946872651577</v>
       </c>
       <c r="BG13" t="n">
-        <v>0.006093072239309549</v>
+        <v>0.03241662681102753</v>
       </c>
       <c r="BH13" t="n">
-        <v>0.001774674630723894</v>
+        <v>0.01114979386329651</v>
       </c>
       <c r="BI13" t="n">
-        <v>0.0006125406362116337</v>
+        <v>0.003713973565027118</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0.006386068183928728</v>
+        <v>0.007189561147242785</v>
       </c>
       <c r="BK13" t="n">
-        <v>0.001544743776321411</v>
+        <v>0.02095616422593594</v>
       </c>
       <c r="BL13" t="n">
-        <v>0.0003601782664190978</v>
+        <v>0.0128604443743825</v>
       </c>
       <c r="BM13" t="n">
-        <v>0.001460082828998566</v>
+        <v>0.006636200938373804</v>
       </c>
       <c r="BN13" t="n">
-        <v>0.002828870434314013</v>
+        <v>0.002012678189203143</v>
       </c>
       <c r="BO13" t="n">
-        <v>2.630842209327966e-05</v>
+        <v>0.0134738115593791</v>
       </c>
       <c r="BP13" t="n">
-        <v>0.001476942095905542</v>
+        <v>0.02549492940306664</v>
       </c>
       <c r="BQ13" t="n">
-        <v>0.0008576319087296724</v>
+        <v>0.01574151217937469</v>
       </c>
       <c r="BR13" t="n">
-        <v>0.001630173879675567</v>
+        <v>0.003743730019778013</v>
       </c>
       <c r="BS13" t="n">
-        <v>0.002666678745299578</v>
+        <v>0.00352715770713985</v>
       </c>
       <c r="BT13" t="n">
-        <v>0.001398421823978424</v>
+        <v>0.001726449932903051</v>
       </c>
       <c r="BU13" t="n">
-        <v>0.0002731914864853024</v>
+        <v>0.002180743729695678</v>
       </c>
       <c r="BV13" t="n">
-        <v>0.0005713265272788703</v>
+        <v>0.04138952121138573</v>
       </c>
       <c r="BW13" t="n">
-        <v>0.00512226577848196</v>
+        <v>0.01401799358427525</v>
       </c>
       <c r="BX13" t="n">
-        <v>0.0005783879896625876</v>
+        <v>0.008315503597259521</v>
       </c>
       <c r="BY13" t="n">
-        <v>0.0005241015460342169</v>
+        <v>0.001698511186987162</v>
       </c>
       <c r="BZ13" t="n">
-        <v>0.00135182891972363</v>
+        <v>0.006143763661384583</v>
       </c>
       <c r="CA13" t="n">
-        <v>0.0005453355261124671</v>
+        <v>0.003800788428634405</v>
       </c>
       <c r="CB13" t="n">
-        <v>0.003061217255890369</v>
+        <v>0.002766541671007872</v>
       </c>
       <c r="CC13" t="n">
-        <v>0.0008879431406967342</v>
+        <v>0.01073886826634407</v>
       </c>
       <c r="CD13" t="n">
-        <v>0.0002639922895468771</v>
+        <v>0.0007561325328424573</v>
       </c>
       <c r="CE13" t="n">
-        <v>0.0009878743439912796</v>
+        <v>0.01823454722762108</v>
       </c>
       <c r="CF13" t="n">
-        <v>0.002843221183866262</v>
+        <v>0.0004544503754004836</v>
       </c>
       <c r="CG13" t="n">
-        <v>0.0002434148045722395</v>
+        <v>0.003442846704274416</v>
       </c>
       <c r="CH13" t="n">
-        <v>0.0008578419219702482</v>
+        <v>0.002888413844630122</v>
       </c>
       <c r="CI13" t="n">
-        <v>0.0007252049981616437</v>
+        <v>0.00247122161090374</v>
       </c>
       <c r="CJ13" t="n">
-        <v>0.0007261342252604663</v>
+        <v>0.002489823149517179</v>
       </c>
       <c r="CK13" t="n">
-        <v>0.001149513991549611</v>
+        <v>0.00122647697571665</v>
       </c>
       <c r="CL13" t="n">
-        <v>0.0008107674075290561</v>
+        <v>0.009639543481171131</v>
       </c>
       <c r="CM13" t="n">
-        <v>1.895695459097624e-05</v>
+        <v>0.02325794659554958</v>
       </c>
       <c r="CN13" t="n">
-        <v>0.001859134528785944</v>
+        <v>0.02310632169246674</v>
       </c>
       <c r="CO13" t="n">
-        <v>0.0005070044426247478</v>
+        <v>0.002179915318265557</v>
       </c>
       <c r="CP13" t="n">
-        <v>0.0001698814012343064</v>
+        <v>0.0005522834253497422</v>
       </c>
       <c r="CQ13" t="n">
-        <v>0.002333850832656026</v>
+        <v>0.0110450005158782</v>
       </c>
       <c r="CR13" t="n">
-        <v>0.002442484721541405</v>
+        <v>0.002687999978661537</v>
       </c>
       <c r="CS13" t="n">
-        <v>0.001736150356009603</v>
+        <v>0.01318810414522886</v>
       </c>
       <c r="CT13" t="n">
-        <v>0.0009151968406513333</v>
+        <v>0.01930676773190498</v>
       </c>
       <c r="CU13" t="n">
-        <v>0.00319959013722837</v>
+        <v>0.009122146293520927</v>
       </c>
       <c r="CV13" t="n">
-        <v>0.0006242624949663877</v>
+        <v>0.001063569448888302</v>
       </c>
       <c r="CW13" t="n">
-        <v>0.0008110344642773271</v>
+        <v>0.01568129472434521</v>
       </c>
       <c r="CX13" t="n">
-        <v>0.003159110434353352</v>
+        <v>0.002831948222592473</v>
       </c>
       <c r="CY13" t="n">
-        <v>6.558955647051334e-05</v>
+        <v>0.003915234934538603</v>
       </c>
       <c r="CZ13" t="n">
-        <v>0.002224194351583719</v>
+        <v>0.004744836129248142</v>
       </c>
       <c r="DA13" t="n">
-        <v>0.0005772624863311648</v>
+        <v>0.0002817504573613405</v>
       </c>
       <c r="DB13" t="n">
-        <v>0.0006355928489938378</v>
+        <v>0.002066545886918902</v>
       </c>
       <c r="DC13" t="n">
-        <v>0.001252514310181141</v>
+        <v>0.0003126662923023105</v>
       </c>
       <c r="DD13" t="n">
-        <v>0.0002065333683276549</v>
+        <v>0.006076045334339142</v>
       </c>
       <c r="DE13" t="n">
-        <v>0.0021733483299613</v>
+        <v>0.001960840309038758</v>
       </c>
       <c r="DF13" t="n">
-        <v>0.002336934674531221</v>
+        <v>0.02873320877552032</v>
       </c>
       <c r="DG13" t="n">
-        <v>0.001692536287009716</v>
+        <v>0.0100919883698225</v>
       </c>
       <c r="DH13" t="n">
-        <v>0.002619475126266479</v>
+        <v>0.02442017756402493</v>
       </c>
       <c r="DI13" t="n">
-        <v>0.0005335209425538778</v>
+        <v>0.0134805953130126</v>
       </c>
       <c r="DJ13" t="n">
-        <v>0.001317751011811197</v>
+        <v>0.006094323471188545</v>
       </c>
       <c r="DK13" t="n">
-        <v>0.0007505154935643077</v>
+        <v>0.01394497975707054</v>
       </c>
       <c r="DL13" t="n">
-        <v>0.000618632067926228</v>
+        <v>0.01418856251984835</v>
       </c>
       <c r="DM13" t="n">
-        <v>0.00044284897739999</v>
+        <v>0.005164207424968481</v>
       </c>
       <c r="DN13" t="n">
-        <v>0.0002384104882366955</v>
+        <v>0.002049230737611651</v>
       </c>
       <c r="DO13" t="n">
-        <v>0.0001877331233117729</v>
+        <v>0.003708860836923122</v>
       </c>
       <c r="DP13" t="n">
-        <v>0.0002781164366751909</v>
+        <v>0.005311193410307169</v>
       </c>
       <c r="DQ13" t="n">
-        <v>0.0001356208667857572</v>
+        <v>0.003548454958945513</v>
       </c>
       <c r="DR13" t="n">
-        <v>0.001445784466341138</v>
+        <v>0.003110840916633606</v>
       </c>
       <c r="DS13" t="n">
-        <v>0.0008320757187902927</v>
+        <v>0.0009126164368353784</v>
       </c>
       <c r="DT13" t="n">
-        <v>0.0002256746665807441</v>
+        <v>0.009609474800527096</v>
       </c>
       <c r="DU13" t="n">
-        <v>0.002308135619387031</v>
+        <v>0.004506038967519999</v>
       </c>
       <c r="DV13" t="n">
-        <v>0.0006323462002910674</v>
+        <v>0.001970056211575866</v>
       </c>
       <c r="DW13" t="n">
-        <v>0.00108824111521244</v>
+        <v>0.002343467669561505</v>
       </c>
       <c r="DX13" t="n">
-        <v>0.0009072838583961129</v>
+        <v>0.01238168776035309</v>
       </c>
       <c r="DY13" t="n">
-        <v>0.0008313694270327687</v>
+        <v>0.002247067634016275</v>
       </c>
       <c r="DZ13" t="n">
-        <v>0.001210944261401892</v>
+        <v>0.001799936173483729</v>
       </c>
       <c r="EA13" t="n">
-        <v>0.0009689194266684353</v>
+        <v>0.009779819287359715</v>
       </c>
       <c r="EB13" t="n">
-        <v>0.0007497771875932813</v>
+        <v>0.0006615293677896261</v>
       </c>
       <c r="EC13" t="n">
-        <v>0.0004922588123008609</v>
+        <v>0.002641757950186729</v>
       </c>
       <c r="ED13" t="n">
-        <v>0.00176490587182343</v>
+        <v>0.009662722237408161</v>
       </c>
       <c r="EE13" t="n">
-        <v>0.0003435738617554307</v>
+        <v>0.005516600795090199</v>
       </c>
       <c r="EF13" t="n">
-        <v>0.001441339263692498</v>
+        <v>0.001645521144382656</v>
       </c>
       <c r="EG13" t="n">
-        <v>0.0009655269095674157</v>
+        <v>0.008598245680332184</v>
       </c>
       <c r="EH13" t="n">
-        <v>0.002745151985436678</v>
+        <v>0.0008361140498891473</v>
       </c>
       <c r="EI13" t="n">
-        <v>0.0003534821444191039</v>
+        <v>0.0006024891627021134</v>
       </c>
       <c r="EJ13" t="n">
-        <v>0.0004660314589273185</v>
+        <v>0.009512763470411301</v>
       </c>
       <c r="EK13" t="n">
-        <v>0.001547735650092363</v>
+        <v>0.001043186290189624</v>
       </c>
       <c r="EL13" t="n">
-        <v>0.000455156754469499</v>
+        <v>0.005789429880678654</v>
       </c>
       <c r="EM13" t="n">
-        <v>0.002372479531913996</v>
+        <v>0.0006387076573446393</v>
       </c>
       <c r="EN13" t="n">
-        <v>0.001226954394951463</v>
+        <v>0.01249674148857594</v>
       </c>
       <c r="EO13" t="n">
-        <v>0.0008409129222854972</v>
+        <v>0.007445856928825378</v>
       </c>
       <c r="EP13" t="n">
-        <v>0.001906716730445623</v>
+        <v>0.01538323145359755</v>
       </c>
       <c r="EQ13" t="n">
-        <v>0.000319199520163238</v>
+        <v>0.008267519995570183</v>
       </c>
       <c r="ER13" t="n">
-        <v>0.001277885166928172</v>
+        <v>0.003683274611830711</v>
       </c>
       <c r="ES13" t="n">
-        <v>0.000931422458961606</v>
+        <v>0.001615690300241113</v>
       </c>
       <c r="ET13" t="n">
-        <v>0.0008651969255879521</v>
+        <v>0.002012830693274736</v>
       </c>
       <c r="EU13" t="n">
-        <v>0.0006579258479177952</v>
+        <v>0.005337468348443508</v>
       </c>
       <c r="EV13" t="n">
-        <v>0.001445599482394755</v>
+        <v>0.0007582467515021563</v>
       </c>
       <c r="EW13" t="n">
-        <v>0.002459281822666526</v>
+        <v>0.0001550945453345776</v>
       </c>
       <c r="EX13" t="n">
-        <v>0.0001206134911626577</v>
+        <v>0.001662405207753181</v>
       </c>
       <c r="EY13" t="n">
-        <v>0.0003855791292153299</v>
+        <v>0.0191306471824646</v>
       </c>
       <c r="EZ13" t="n">
-        <v>0.003089530160650611</v>
+        <v>9.769821917871013e-05</v>
       </c>
       <c r="FA13" t="n">
-        <v>0.0005520964041352272</v>
+        <v>0.003537630662322044</v>
       </c>
       <c r="FB13" t="n">
-        <v>0.00192722084466368</v>
+        <v>0.004534599371254444</v>
       </c>
       <c r="FC13" t="n">
-        <v>0.0001110296798287891</v>
+        <v>0.002856881823390722</v>
       </c>
       <c r="FD13" t="n">
-        <v>0.0005135148530825973</v>
+        <v>0.0005764765664935112</v>
       </c>
       <c r="FE13" t="n">
-        <v>0.001791125629097223</v>
+        <v>0.001465526176616549</v>
       </c>
       <c r="FF13" t="n">
-        <v>0.0005094717489555478</v>
+        <v>0.005513884592801332</v>
       </c>
       <c r="FG13" t="n">
-        <v>0.002241595648229122</v>
+        <v>0.0009943998884409666</v>
       </c>
       <c r="FH13" t="n">
-        <v>0.0006229678983800113</v>
+        <v>0.007808650378137827</v>
       </c>
       <c r="FI13" t="n">
-        <v>0.003312543034553528</v>
+        <v>0.004814980085939169</v>
       </c>
       <c r="FJ13" t="n">
-        <v>0.001266816281713545</v>
+        <v>0.004461749922484159</v>
       </c>
       <c r="FK13" t="n">
-        <v>0.0003334081266075373</v>
+        <v>0.002572402358055115</v>
       </c>
       <c r="FL13" t="n">
-        <v>0.002878769999369979</v>
+        <v>0.001020413124933839</v>
       </c>
       <c r="FM13" t="n">
-        <v>0.002200752729550004</v>
+        <v>0.005561105441302061</v>
       </c>
       <c r="FN13" t="n">
-        <v>0.0003029610379599035</v>
+        <v>0.001063031377270818</v>
       </c>
       <c r="FO13" t="n">
-        <v>0.0004672833892982453</v>
+        <v>0.00812858808785677</v>
       </c>
       <c r="FP13" t="n">
-        <v>0.005060642957687378</v>
+        <v>0.005472386255860329</v>
       </c>
       <c r="FQ13" t="n">
-        <v>0.003908131737262011</v>
+        <v>0.00673148687928915</v>
       </c>
       <c r="FR13" t="n">
-        <v>0.003271360881626606</v>
+        <v>0.009074188768863678</v>
       </c>
       <c r="FS13" t="n">
-        <v>0.00146409694571048</v>
+        <v>0.01319612469524145</v>
       </c>
       <c r="FT13" t="n">
-        <v>0.001110624056309462</v>
+        <v>0.006163143087178469</v>
       </c>
       <c r="FU13" t="n">
-        <v>0.001450403942726552</v>
+        <v>0.01286548841744661</v>
       </c>
       <c r="FV13" t="n">
-        <v>0.001674072584137321</v>
+        <v>0.01378449331969023</v>
       </c>
       <c r="FW13" t="n">
-        <v>0.0003022508462890983</v>
+        <v>0.009960221126675606</v>
       </c>
       <c r="FX13" t="n">
-        <v>0.002704816171899438</v>
+        <v>0.006187033839523792</v>
       </c>
       <c r="FY13" t="n">
-        <v>0.002142804674804211</v>
+        <v>0.01182000525295734</v>
       </c>
       <c r="FZ13" t="n">
-        <v>0.0005972690414637327</v>
+        <v>0.01267229672521353</v>
       </c>
       <c r="GA13" t="n">
-        <v>0.0006591348792426288</v>
+        <v>0.006159040611237288</v>
       </c>
       <c r="GB13" t="n">
-        <v>0.001342845382168889</v>
+        <v>0.006281347014009953</v>
       </c>
       <c r="GC13" t="n">
-        <v>0.0003429002535995096</v>
+        <v>0.01112161856144667</v>
       </c>
       <c r="GD13" t="n">
-        <v>0.002844368806108832</v>
+        <v>0.01436903513967991</v>
       </c>
       <c r="GE13" t="n">
-        <v>0.0003459592699073255</v>
+        <v>0.01072284579277039</v>
       </c>
       <c r="GF13" t="n">
-        <v>0.0005738121690228581</v>
+        <v>0.005636589601635933</v>
       </c>
       <c r="GG13" t="n">
-        <v>0.001335384789854288</v>
+        <v>0.003100052941590548</v>
       </c>
     </row>
     <row r="14">
@@ -8401,2278 +8401,2278 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.04898930341005325</v>
+        <v>0.05218959227204323</v>
       </c>
       <c r="B15" t="n">
-        <v>0.001983053982257843</v>
+        <v>0.6639389991760254</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3377724885940552</v>
+        <v>0.5591022968292236</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0217512920498848</v>
+        <v>0.2630481719970703</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1881409585475922</v>
+        <v>0.7724147439002991</v>
       </c>
       <c r="F15" t="n">
-        <v>0.4526568055152893</v>
+        <v>0.08604203164577484</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1059231013059616</v>
+        <v>0.2994252741336823</v>
       </c>
       <c r="H15" t="n">
-        <v>0.08524975180625916</v>
+        <v>0.2428047955036163</v>
       </c>
       <c r="I15" t="n">
-        <v>0.06893712282180786</v>
+        <v>0.3379888832569122</v>
       </c>
       <c r="J15" t="n">
-        <v>0.02704055421054363</v>
+        <v>0.1392220854759216</v>
       </c>
       <c r="K15" t="n">
-        <v>0.04234106466174126</v>
+        <v>0.468994677066803</v>
       </c>
       <c r="L15" t="n">
-        <v>0.314878523349762</v>
+        <v>0.3678843379020691</v>
       </c>
       <c r="M15" t="n">
-        <v>0.08391395956277847</v>
+        <v>0.2026888430118561</v>
       </c>
       <c r="N15" t="n">
-        <v>0.1308418363332748</v>
+        <v>0.8540152907371521</v>
       </c>
       <c r="O15" t="n">
-        <v>0.4398206472396851</v>
+        <v>0.1411975175142288</v>
       </c>
       <c r="P15" t="n">
-        <v>0.06040307506918907</v>
+        <v>0.2840638160705566</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.02151824161410332</v>
+        <v>0.1649882793426514</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1103159487247467</v>
+        <v>0.263327956199646</v>
       </c>
       <c r="S15" t="n">
-        <v>0.0443546362221241</v>
+        <v>0.03119376488029957</v>
       </c>
       <c r="T15" t="n">
-        <v>0.0293721929192543</v>
+        <v>0.1216165199875832</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01898503862321377</v>
+        <v>0.006534671410918236</v>
       </c>
       <c r="V15" t="n">
-        <v>0.01716599240899086</v>
+        <v>0.1744429767131805</v>
       </c>
       <c r="W15" t="n">
-        <v>0.03133642673492432</v>
+        <v>0.1051153093576431</v>
       </c>
       <c r="X15" t="n">
-        <v>0.05824912339448929</v>
+        <v>0.1552974879741669</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.03846403956413269</v>
+        <v>0.007887645624577999</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.105736069381237</v>
+        <v>0.1265004873275757</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.02937586978077888</v>
+        <v>0.0658579021692276</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.01481256820261478</v>
+        <v>0.07471615076065063</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.1222855746746063</v>
+        <v>0.1712130606174469</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.006678281351923943</v>
+        <v>0.004251431673765182</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.01824693195521832</v>
+        <v>0.1110864207148552</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.1604245752096176</v>
+        <v>0.0648442804813385</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.04530659317970276</v>
+        <v>0.1374839544296265</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.0742388591170311</v>
+        <v>0.0172446072101593</v>
       </c>
       <c r="AI15" t="n">
-        <v>0.09148149192333221</v>
+        <v>0.06923212856054306</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0.1242845952510834</v>
+        <v>0.02671600319445133</v>
       </c>
       <c r="AK15" t="n">
-        <v>0.02690420858561993</v>
+        <v>0.01060542277991772</v>
       </c>
       <c r="AL15" t="n">
-        <v>0.001902639865875244</v>
+        <v>0.3619006872177124</v>
       </c>
       <c r="AM15" t="n">
-        <v>0.1299867630004883</v>
+        <v>0.008203327655792236</v>
       </c>
       <c r="AN15" t="n">
-        <v>0.01029677875339985</v>
+        <v>0.07283881306648254</v>
       </c>
       <c r="AO15" t="n">
-        <v>0.02726087905466557</v>
+        <v>0.01783988624811172</v>
       </c>
       <c r="AP15" t="n">
-        <v>0.07716661691665649</v>
+        <v>0.1507122963666916</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.01809095032513142</v>
+        <v>0.02686667814850807</v>
       </c>
       <c r="AR15" t="n">
-        <v>0.03720526024699211</v>
+        <v>0.04643086344003677</v>
       </c>
       <c r="AS15" t="n">
-        <v>0.02161811850965023</v>
+        <v>0.1124114692211151</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.07178084552288055</v>
+        <v>0.1904490441083908</v>
       </c>
       <c r="AU15" t="n">
-        <v>0.0009430982172489166</v>
+        <v>0.6124455332756042</v>
       </c>
       <c r="AV15" t="n">
-        <v>0.1572283208370209</v>
+        <v>0.3739569783210754</v>
       </c>
       <c r="AW15" t="n">
-        <v>0.09283959120512009</v>
+        <v>0.05484581738710403</v>
       </c>
       <c r="AX15" t="n">
-        <v>0.09055982530117035</v>
+        <v>0.144161194562912</v>
       </c>
       <c r="AY15" t="n">
-        <v>0.1649523824453354</v>
+        <v>0.181226372718811</v>
       </c>
       <c r="AZ15" t="n">
-        <v>0.006401970982551575</v>
+        <v>0.003029882907867432</v>
       </c>
       <c r="BA15" t="n">
-        <v>0.02031665295362473</v>
+        <v>0.01434147264808416</v>
       </c>
       <c r="BB15" t="n">
-        <v>0.04640816897153854</v>
+        <v>0.12713323533535</v>
       </c>
       <c r="BC15" t="n">
-        <v>0.02529862523078918</v>
+        <v>0.03812593594193459</v>
       </c>
       <c r="BD15" t="n">
-        <v>0.005199872422963381</v>
+        <v>0.02246520295739174</v>
       </c>
       <c r="BE15" t="n">
-        <v>0.00152198038995266</v>
+        <v>0.05975838005542755</v>
       </c>
       <c r="BF15" t="n">
-        <v>0.02657848782837391</v>
+        <v>0.294916570186615</v>
       </c>
       <c r="BG15" t="n">
-        <v>0.2235330045223236</v>
+        <v>0.6350424885749817</v>
       </c>
       <c r="BH15" t="n">
-        <v>0.1263033747673035</v>
+        <v>0.02576234564185143</v>
       </c>
       <c r="BI15" t="n">
-        <v>0.1000867187976837</v>
+        <v>0.1638778746128082</v>
       </c>
       <c r="BJ15" t="n">
-        <v>0.009544994682073593</v>
+        <v>0.08189292252063751</v>
       </c>
       <c r="BK15" t="n">
-        <v>0.0112569173797965</v>
+        <v>0.1762715876102448</v>
       </c>
       <c r="BL15" t="n">
-        <v>0.004791233222931623</v>
+        <v>0.2276044338941574</v>
       </c>
       <c r="BM15" t="n">
-        <v>0.01935107819736004</v>
+        <v>0.2256065011024475</v>
       </c>
       <c r="BN15" t="n">
-        <v>0.05347992852330208</v>
+        <v>0.05202276259660721</v>
       </c>
       <c r="BO15" t="n">
-        <v>0.04486536607146263</v>
+        <v>0.06353402137756348</v>
       </c>
       <c r="BP15" t="n">
-        <v>0.01023805234581232</v>
+        <v>0.142497256398201</v>
       </c>
       <c r="BQ15" t="n">
-        <v>0.008937188424170017</v>
+        <v>0.1685353815555573</v>
       </c>
       <c r="BR15" t="n">
-        <v>0.003355553839355707</v>
+        <v>0.1535047292709351</v>
       </c>
       <c r="BS15" t="n">
-        <v>0.07805674523115158</v>
+        <v>0.09425537288188934</v>
       </c>
       <c r="BT15" t="n">
-        <v>0.04782329872250557</v>
+        <v>0.1136693358421326</v>
       </c>
       <c r="BU15" t="n">
-        <v>0.04863425344228745</v>
+        <v>0.1422877311706543</v>
       </c>
       <c r="BV15" t="n">
-        <v>0.04553483054041862</v>
+        <v>0.3357929587364197</v>
       </c>
       <c r="BW15" t="n">
-        <v>0.1108789667487144</v>
+        <v>0.4011074602603912</v>
       </c>
       <c r="BX15" t="n">
-        <v>0.0001189401373267174</v>
+        <v>0.001990869641304016</v>
       </c>
       <c r="BY15" t="n">
-        <v>0.006739547476172447</v>
+        <v>0.1276033818721771</v>
       </c>
       <c r="BZ15" t="n">
-        <v>0.1757387667894363</v>
+        <v>0.1033441498875618</v>
       </c>
       <c r="CA15" t="n">
-        <v>0.05751536786556244</v>
+        <v>0.0507892519235611</v>
       </c>
       <c r="CB15" t="n">
-        <v>0.03091039881110191</v>
+        <v>0.02929332666099072</v>
       </c>
       <c r="CC15" t="n">
-        <v>0.03107995912432671</v>
+        <v>0.01007702108472586</v>
       </c>
       <c r="CD15" t="n">
-        <v>0.01065474934875965</v>
+        <v>0.003939684480428696</v>
       </c>
       <c r="CE15" t="n">
-        <v>0.01507198996841908</v>
+        <v>0.09711147844791412</v>
       </c>
       <c r="CF15" t="n">
-        <v>0.0594952255487442</v>
+        <v>0.07462888211011887</v>
       </c>
       <c r="CG15" t="n">
-        <v>0.0267634317278862</v>
+        <v>0.1356567442417145</v>
       </c>
       <c r="CH15" t="n">
-        <v>0.02807836979627609</v>
+        <v>0.1650910377502441</v>
       </c>
       <c r="CI15" t="n">
-        <v>0.08841526508331299</v>
+        <v>0.04016997292637825</v>
       </c>
       <c r="CJ15" t="n">
-        <v>0.007068435661494732</v>
+        <v>0.002734667155891657</v>
       </c>
       <c r="CK15" t="n">
-        <v>0.003524583764374256</v>
+        <v>0.07057437300682068</v>
       </c>
       <c r="CL15" t="n">
-        <v>0.005654617212712765</v>
+        <v>0.07475736737251282</v>
       </c>
       <c r="CM15" t="n">
-        <v>0.0720563605427742</v>
+        <v>0.1604124754667282</v>
       </c>
       <c r="CN15" t="n">
-        <v>0.01366595737636089</v>
+        <v>0.1075641512870789</v>
       </c>
       <c r="CO15" t="n">
-        <v>0.1340191662311554</v>
+        <v>0.03148508071899414</v>
       </c>
       <c r="CP15" t="n">
-        <v>0.03743332251906395</v>
+        <v>0.2505121827125549</v>
       </c>
       <c r="CQ15" t="n">
-        <v>0.08157005161046982</v>
+        <v>0.2029819339513779</v>
       </c>
       <c r="CR15" t="n">
-        <v>0.05607009679079056</v>
+        <v>0.1084140539169312</v>
       </c>
       <c r="CS15" t="n">
-        <v>0.06606955081224442</v>
+        <v>0.1530043184757233</v>
       </c>
       <c r="CT15" t="n">
-        <v>0.03121080994606018</v>
+        <v>0.07349501550197601</v>
       </c>
       <c r="CU15" t="n">
-        <v>0.1066560745239258</v>
+        <v>0.05772083625197411</v>
       </c>
       <c r="CV15" t="n">
-        <v>0.02227499708533287</v>
+        <v>0.02789242379367352</v>
       </c>
       <c r="CW15" t="n">
-        <v>0.0151698924601078</v>
+        <v>0.02960120141506195</v>
       </c>
       <c r="CX15" t="n">
-        <v>0.05413556471467018</v>
+        <v>0.06428736448287964</v>
       </c>
       <c r="CY15" t="n">
-        <v>0.03107002377510071</v>
+        <v>0.1093334332108498</v>
       </c>
       <c r="CZ15" t="n">
-        <v>0.06074963137507439</v>
+        <v>0.1397037506103516</v>
       </c>
       <c r="DA15" t="n">
-        <v>0.08591505885124207</v>
+        <v>0.05896740779280663</v>
       </c>
       <c r="DB15" t="n">
-        <v>0.009138341993093491</v>
+        <v>0.004545843228697777</v>
       </c>
       <c r="DC15" t="n">
-        <v>0.02785863727331161</v>
+        <v>0.03705616295337677</v>
       </c>
       <c r="DD15" t="n">
-        <v>0.002451778622344136</v>
+        <v>0.1297419816255569</v>
       </c>
       <c r="DE15" t="n">
-        <v>0.003967753611505032</v>
+        <v>0.1451236605644226</v>
       </c>
       <c r="DF15" t="n">
-        <v>0.05817174911499023</v>
+        <v>0.06052592024207115</v>
       </c>
       <c r="DG15" t="n">
-        <v>0.05525923520326614</v>
+        <v>0.111933134496212</v>
       </c>
       <c r="DH15" t="n">
-        <v>0.05771549791097641</v>
+        <v>0.3287102282047272</v>
       </c>
       <c r="DI15" t="n">
-        <v>0.05582104623317719</v>
+        <v>0.02623368799686432</v>
       </c>
       <c r="DJ15" t="n">
-        <v>0.05221058055758476</v>
+        <v>0.0801827684044838</v>
       </c>
       <c r="DK15" t="n">
-        <v>0.07339734584093094</v>
+        <v>0.09270770847797394</v>
       </c>
       <c r="DL15" t="n">
-        <v>0.1268890053033829</v>
+        <v>0.1731627285480499</v>
       </c>
       <c r="DM15" t="n">
-        <v>0.04474401473999023</v>
+        <v>0.1755460798740387</v>
       </c>
       <c r="DN15" t="n">
-        <v>0.006866824813187122</v>
+        <v>0.09207641333341599</v>
       </c>
       <c r="DO15" t="n">
-        <v>0.05346153303980827</v>
+        <v>0.0405266173183918</v>
       </c>
       <c r="DP15" t="n">
-        <v>0.00608654972165823</v>
+        <v>0.04432159289717674</v>
       </c>
       <c r="DQ15" t="n">
-        <v>0.01788339577615261</v>
+        <v>0.1177288219332695</v>
       </c>
       <c r="DR15" t="n">
-        <v>0.03340167552232742</v>
+        <v>0.1705664843320847</v>
       </c>
       <c r="DS15" t="n">
-        <v>0.003058496862649918</v>
+        <v>0.193335235118866</v>
       </c>
       <c r="DT15" t="n">
-        <v>0.03192424401640892</v>
+        <v>0.0179186575114727</v>
       </c>
       <c r="DU15" t="n">
-        <v>0.03123685345053673</v>
+        <v>0.03929482027888298</v>
       </c>
       <c r="DV15" t="n">
-        <v>0.04152185469865799</v>
+        <v>0.04848606139421463</v>
       </c>
       <c r="DW15" t="n">
-        <v>0.0541769415140152</v>
+        <v>0.07708780467510223</v>
       </c>
       <c r="DX15" t="n">
-        <v>0.008679244667291641</v>
+        <v>0.103641614317894</v>
       </c>
       <c r="DY15" t="n">
-        <v>0.006172529421746731</v>
+        <v>0.0986253097653389</v>
       </c>
       <c r="DZ15" t="n">
-        <v>0.03326869755983353</v>
+        <v>0.07588973641395569</v>
       </c>
       <c r="EA15" t="n">
-        <v>0.02280598320066929</v>
+        <v>0.1233604997396469</v>
       </c>
       <c r="EB15" t="n">
-        <v>0.007206950336694717</v>
+        <v>0.2159357964992523</v>
       </c>
       <c r="EC15" t="n">
-        <v>0.05742523819208145</v>
+        <v>0.01244691573083401</v>
       </c>
       <c r="ED15" t="n">
-        <v>0.03964703530073166</v>
+        <v>0.07883644104003906</v>
       </c>
       <c r="EE15" t="n">
-        <v>0.02824882604181767</v>
+        <v>0.01958679594099522</v>
       </c>
       <c r="EF15" t="n">
-        <v>0.009436015039682388</v>
+        <v>0.04188919067382812</v>
       </c>
       <c r="EG15" t="n">
-        <v>0.06601361930370331</v>
+        <v>0.05294055864214897</v>
       </c>
       <c r="EH15" t="n">
-        <v>0.06858726590871811</v>
+        <v>0.04006074741482735</v>
       </c>
       <c r="EI15" t="n">
-        <v>0.01269472297281027</v>
+        <v>0.05503078550100327</v>
       </c>
       <c r="EJ15" t="n">
-        <v>0.1023072227835655</v>
+        <v>0.1935387849807739</v>
       </c>
       <c r="EK15" t="n">
-        <v>0.1075033098459244</v>
+        <v>0.05090682208538055</v>
       </c>
       <c r="EL15" t="n">
-        <v>0.009906947612762451</v>
+        <v>0.1014216691255569</v>
       </c>
       <c r="EM15" t="n">
-        <v>0.006739937234669924</v>
+        <v>0.02782638370990753</v>
       </c>
       <c r="EN15" t="n">
-        <v>0.04468255490064621</v>
+        <v>0.1358129382133484</v>
       </c>
       <c r="EO15" t="n">
-        <v>0.02221772260963917</v>
+        <v>0.05558568611741066</v>
       </c>
       <c r="EP15" t="n">
-        <v>0.04204052314162254</v>
+        <v>0.04320904240012169</v>
       </c>
       <c r="EQ15" t="n">
-        <v>0.0001475587487220764</v>
+        <v>0.09524765610694885</v>
       </c>
       <c r="ER15" t="n">
-        <v>0.02133834362030029</v>
+        <v>0.105467215180397</v>
       </c>
       <c r="ES15" t="n">
-        <v>0.0003790818154811859</v>
+        <v>0.03955967351794243</v>
       </c>
       <c r="ET15" t="n">
-        <v>0.03588572517037392</v>
+        <v>0.2116858065128326</v>
       </c>
       <c r="EU15" t="n">
-        <v>0.06173097342252731</v>
+        <v>0.08251943439245224</v>
       </c>
       <c r="EV15" t="n">
-        <v>0.04471077769994736</v>
+        <v>0.119676411151886</v>
       </c>
       <c r="EW15" t="n">
-        <v>0.07037484645843506</v>
+        <v>0.2533406913280487</v>
       </c>
       <c r="EX15" t="n">
-        <v>0.0007617890951223671</v>
+        <v>0.004690364003181458</v>
       </c>
       <c r="EY15" t="n">
-        <v>0.02438597194850445</v>
+        <v>0.01514221075922251</v>
       </c>
       <c r="EZ15" t="n">
-        <v>0.05125453323125839</v>
+        <v>0.06034298986196518</v>
       </c>
       <c r="FA15" t="n">
-        <v>0.02759261801838875</v>
+        <v>0.1474202871322632</v>
       </c>
       <c r="FB15" t="n">
-        <v>0.05604549497365952</v>
+        <v>0.1504799127578735</v>
       </c>
       <c r="FC15" t="n">
-        <v>0.07445020973682404</v>
+        <v>0.08493278920650482</v>
       </c>
       <c r="FD15" t="n">
-        <v>0.006955620832741261</v>
+        <v>0.02846724539995193</v>
       </c>
       <c r="FE15" t="n">
-        <v>0.02148008532822132</v>
+        <v>0.1002113372087479</v>
       </c>
       <c r="FF15" t="n">
-        <v>0.002694671507924795</v>
+        <v>0.05799296498298645</v>
       </c>
       <c r="FG15" t="n">
-        <v>0.06255239993333817</v>
+        <v>0.05535709857940674</v>
       </c>
       <c r="FH15" t="n">
-        <v>0.01553662121295929</v>
+        <v>0.2247912138700485</v>
       </c>
       <c r="FI15" t="n">
-        <v>0.07033476233482361</v>
+        <v>0.165241926908493</v>
       </c>
       <c r="FJ15" t="n">
-        <v>0.03189922124147415</v>
+        <v>0.07061266899108887</v>
       </c>
       <c r="FK15" t="n">
-        <v>0.003019389696419239</v>
+        <v>0.1481965631246567</v>
       </c>
       <c r="FL15" t="n">
-        <v>0.0651685893535614</v>
+        <v>0.00747954286634922</v>
       </c>
       <c r="FM15" t="n">
-        <v>0.08085808157920837</v>
+        <v>0.1609761416912079</v>
       </c>
       <c r="FN15" t="n">
-        <v>0.01005955040454865</v>
+        <v>0.002479590009897947</v>
       </c>
       <c r="FO15" t="n">
-        <v>0.01460273005068302</v>
+        <v>0.1205940693616867</v>
       </c>
       <c r="FP15" t="n">
-        <v>0.2030535489320755</v>
+        <v>0.00646006315946579</v>
       </c>
       <c r="FQ15" t="n">
-        <v>0.05695264786481857</v>
+        <v>0.1110849976539612</v>
       </c>
       <c r="FR15" t="n">
-        <v>0.1289987117052078</v>
+        <v>0.2006742507219315</v>
       </c>
       <c r="FS15" t="n">
-        <v>0.1049466207623482</v>
+        <v>0.3013356029987335</v>
       </c>
       <c r="FT15" t="n">
-        <v>0.06861673295497894</v>
+        <v>0.02514823339879513</v>
       </c>
       <c r="FU15" t="n">
-        <v>0.1715473383665085</v>
+        <v>0.0138313164934516</v>
       </c>
       <c r="FV15" t="n">
-        <v>0.01680149883031845</v>
+        <v>0.1376892030239105</v>
       </c>
       <c r="FW15" t="n">
-        <v>0.02022557333111763</v>
+        <v>0.2430970221757889</v>
       </c>
       <c r="FX15" t="n">
-        <v>0.06839195638895035</v>
+        <v>0.02162348479032516</v>
       </c>
       <c r="FY15" t="n">
-        <v>0.03365357592701912</v>
+        <v>0.1119570434093475</v>
       </c>
       <c r="FZ15" t="n">
-        <v>0.01959023624658585</v>
+        <v>0.05768051743507385</v>
       </c>
       <c r="GA15" t="n">
-        <v>0.02406157925724983</v>
+        <v>0.1384185701608658</v>
       </c>
       <c r="GB15" t="n">
-        <v>0.01314043253660202</v>
+        <v>0.05690078064799309</v>
       </c>
       <c r="GC15" t="n">
-        <v>0.05385763943195343</v>
+        <v>0.09088383615016937</v>
       </c>
       <c r="GD15" t="n">
-        <v>0.0003371313214302063</v>
+        <v>0.248469278216362</v>
       </c>
       <c r="GE15" t="n">
-        <v>0.009339874610304832</v>
+        <v>0.1671352833509445</v>
       </c>
       <c r="GF15" t="n">
-        <v>0.123034842312336</v>
+        <v>0.392890065908432</v>
       </c>
       <c r="GG15" t="n">
-        <v>0.0495462492108345</v>
+        <v>0.08752663433551788</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.01376449875533581</v>
+        <v>0.0001222966238856316</v>
       </c>
       <c r="B16" t="n">
-        <v>0.01731762290000916</v>
+        <v>0.001227765460498631</v>
       </c>
       <c r="C16" t="n">
-        <v>0.03465135768055916</v>
+        <v>0.0001147280418081209</v>
       </c>
       <c r="D16" t="n">
-        <v>0.03786737099289894</v>
+        <v>0.0004184154677204788</v>
       </c>
       <c r="E16" t="n">
-        <v>0.003786155954003334</v>
+        <v>0.0003169334377162158</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1222405880689621</v>
+        <v>0.0006492710672318935</v>
       </c>
       <c r="G16" t="n">
-        <v>0.02372217178344727</v>
+        <v>9.338773088529706e-05</v>
       </c>
       <c r="H16" t="n">
-        <v>0.08720367401838303</v>
+        <v>0.0004099379293620586</v>
       </c>
       <c r="I16" t="n">
-        <v>0.02948170155286789</v>
+        <v>1.057146528182784e-05</v>
       </c>
       <c r="J16" t="n">
-        <v>0.01316636893898249</v>
+        <v>0.0002130431239493191</v>
       </c>
       <c r="K16" t="n">
-        <v>0.001034381100907922</v>
+        <v>0.00116207601968199</v>
       </c>
       <c r="L16" t="n">
-        <v>0.04287607967853546</v>
+        <v>1.752644948282978e-06</v>
       </c>
       <c r="M16" t="n">
-        <v>0.03637664765119553</v>
+        <v>0.0002121409052051604</v>
       </c>
       <c r="N16" t="n">
-        <v>0.008072240278124809</v>
+        <v>1.77903966687154e-05</v>
       </c>
       <c r="O16" t="n">
-        <v>0.1102869734168053</v>
+        <v>0.0007082177326083183</v>
       </c>
       <c r="P16" t="n">
-        <v>0.004743143916130066</v>
+        <v>9.918778960127383e-05</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.0881403386592865</v>
+        <v>0.0001337732537649572</v>
       </c>
       <c r="R16" t="n">
-        <v>0.04923044145107269</v>
+        <v>2.431667962810025e-05</v>
       </c>
       <c r="S16" t="n">
-        <v>0.01046998333185911</v>
+        <v>3.704642222146504e-05</v>
       </c>
       <c r="T16" t="n">
-        <v>0.001845445483922958</v>
+        <v>9.453498205402866e-05</v>
       </c>
       <c r="U16" t="n">
-        <v>0.004496895708143711</v>
+        <v>5.735898957937025e-05</v>
       </c>
       <c r="V16" t="n">
-        <v>0.01540844235569239</v>
+        <v>0.0001965978590305895</v>
       </c>
       <c r="W16" t="n">
-        <v>0.01633719727396965</v>
+        <v>0.0001374567509628832</v>
       </c>
       <c r="X16" t="n">
-        <v>0.02670056372880936</v>
+        <v>1.280580136153731e-06</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.009595625102519989</v>
+        <v>2.830196535796858e-05</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.003692623926326632</v>
+        <v>0.0001142663531936705</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.004723694175481796</v>
+        <v>2.771936487988569e-05</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.005991561803966761</v>
+        <v>1.954306208062917e-05</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.003629495156928897</v>
+        <v>9.534090168017428e-06</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.001410119002684951</v>
+        <v>4.202523268759251e-05</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.01676176115870476</v>
+        <v>9.826861787587404e-05</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.04780701547861099</v>
+        <v>0.0001063531526597217</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.002997308038175106</v>
+        <v>2.452786793583073e-05</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.02783562615513802</v>
+        <v>2.182601383537985e-05</v>
       </c>
       <c r="AI16" t="n">
-        <v>0.008381741121411324</v>
+        <v>0.0001236840325873345</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0.003280004253610969</v>
+        <v>8.727735257707536e-05</v>
       </c>
       <c r="AK16" t="n">
-        <v>0.001768896589055657</v>
+        <v>0.0002234852145193145</v>
       </c>
       <c r="AL16" t="n">
-        <v>0.008828843012452126</v>
+        <v>7.549415022367612e-05</v>
       </c>
       <c r="AM16" t="n">
-        <v>0.01754024811089039</v>
+        <v>1.709114985715132e-05</v>
       </c>
       <c r="AN16" t="n">
-        <v>0.00490258913487196</v>
+        <v>4.986188287148252e-06</v>
       </c>
       <c r="AO16" t="n">
-        <v>0.03256135806441307</v>
+        <v>6.526744255097583e-05</v>
       </c>
       <c r="AP16" t="n">
-        <v>0.01786859519779682</v>
+        <v>0.0001762282336130738</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.002059880178421736</v>
+        <v>5.773501470685005e-05</v>
       </c>
       <c r="AR16" t="n">
-        <v>0.0101968040689826</v>
+        <v>0.0001148187293438241</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.007035534363240004</v>
+        <v>0.0001388714590575546</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.006229784339666367</v>
+        <v>2.787212179100607e-05</v>
       </c>
       <c r="AU16" t="n">
-        <v>0.01040429156273603</v>
+        <v>0.0006721630343236029</v>
       </c>
       <c r="AV16" t="n">
-        <v>0.02029719762504101</v>
+        <v>0.0001750680967234075</v>
       </c>
       <c r="AW16" t="n">
-        <v>0.006215328350663185</v>
+        <v>6.29321439191699e-05</v>
       </c>
       <c r="AX16" t="n">
-        <v>0.0005671768449246883</v>
+        <v>0.0002133668604074046</v>
       </c>
       <c r="AY16" t="n">
-        <v>0.06651342660188675</v>
+        <v>0.0002688207314349711</v>
       </c>
       <c r="AZ16" t="n">
-        <v>0.0001637968234717846</v>
+        <v>9.215405589202419e-05</v>
       </c>
       <c r="BA16" t="n">
-        <v>0.03910186141729355</v>
+        <v>0.000190386243048124</v>
       </c>
       <c r="BB16" t="n">
-        <v>0.01396327838301659</v>
+        <v>9.24327687243931e-05</v>
       </c>
       <c r="BC16" t="n">
-        <v>0.003689248580485582</v>
+        <v>4.65956109110266e-05</v>
       </c>
       <c r="BD16" t="n">
-        <v>0.001120984554290771</v>
+        <v>0.0002765774261206388</v>
       </c>
       <c r="BE16" t="n">
-        <v>0.01627980172634125</v>
+        <v>0.000341088802088052</v>
       </c>
       <c r="BF16" t="n">
-        <v>0.03589178994297981</v>
+        <v>2.619170663820114e-05</v>
       </c>
       <c r="BG16" t="n">
-        <v>0.01109631080180407</v>
+        <v>8.042492845561355e-05</v>
       </c>
       <c r="BH16" t="n">
-        <v>0.01564000733196735</v>
+        <v>0.0001457573962397873</v>
       </c>
       <c r="BI16" t="n">
-        <v>0.01640149764716625</v>
+        <v>0.0001243138976860791</v>
       </c>
       <c r="BJ16" t="n">
-        <v>0.02381718717515469</v>
+        <v>5.124988092575222e-05</v>
       </c>
       <c r="BK16" t="n">
-        <v>0.007364388555288315</v>
+        <v>4.615827128873207e-05</v>
       </c>
       <c r="BL16" t="n">
-        <v>0.009004100225865841</v>
+        <v>8.16329920780845e-05</v>
       </c>
       <c r="BM16" t="n">
-        <v>0.004725094418972731</v>
+        <v>0.000166645462741144</v>
       </c>
       <c r="BN16" t="n">
-        <v>0.007748366799205542</v>
+        <v>0.0001415189472027123</v>
       </c>
       <c r="BO16" t="n">
-        <v>0.004316741600632668</v>
+        <v>3.15092911478132e-05</v>
       </c>
       <c r="BP16" t="n">
-        <v>0.008958246558904648</v>
+        <v>4.605415597325191e-05</v>
       </c>
       <c r="BQ16" t="n">
-        <v>0.01123575028032064</v>
+        <v>3.695286068250425e-05</v>
       </c>
       <c r="BR16" t="n">
-        <v>0.01704077050089836</v>
+        <v>8.508913015248254e-05</v>
       </c>
       <c r="BS16" t="n">
-        <v>0.006529282778501511</v>
+        <v>8.468098531011492e-05</v>
       </c>
       <c r="BT16" t="n">
-        <v>0.004334027878940105</v>
+        <v>0.0001743971515679732</v>
       </c>
       <c r="BU16" t="n">
-        <v>0.0132807781919837</v>
+        <v>3.198112972313538e-05</v>
       </c>
       <c r="BV16" t="n">
-        <v>0.005506237037479877</v>
+        <v>0.0004051954892929643</v>
       </c>
       <c r="BW16" t="n">
-        <v>0.0008650741656310856</v>
+        <v>0.0001322142197750509</v>
       </c>
       <c r="BX16" t="n">
-        <v>0.0004128755535930395</v>
+        <v>2.108455373672768e-05</v>
       </c>
       <c r="BY16" t="n">
-        <v>0.004685381893068552</v>
+        <v>9.087991202250123e-05</v>
       </c>
       <c r="BZ16" t="n">
-        <v>0.03840336948633194</v>
+        <v>0.0001706884359009564</v>
       </c>
       <c r="CA16" t="n">
-        <v>0.008405101485550404</v>
+        <v>2.61152526945807e-05</v>
       </c>
       <c r="CB16" t="n">
-        <v>0.02615065686404705</v>
+        <v>7.776442362228408e-05</v>
       </c>
       <c r="CC16" t="n">
-        <v>0.01311821490526199</v>
+        <v>2.702947131183464e-05</v>
       </c>
       <c r="CD16" t="n">
-        <v>0.008180616423487663</v>
+        <v>4.063707092427649e-05</v>
       </c>
       <c r="CE16" t="n">
-        <v>0.01253400277346373</v>
+        <v>0.0002316952595720068</v>
       </c>
       <c r="CF16" t="n">
-        <v>0.008944478817284107</v>
+        <v>9.10426679183729e-05</v>
       </c>
       <c r="CG16" t="n">
-        <v>0.01386109087616205</v>
+        <v>7.471168646588922e-05</v>
       </c>
       <c r="CH16" t="n">
-        <v>0.003716109786182642</v>
+        <v>4.502115916693583e-05</v>
       </c>
       <c r="CI16" t="n">
-        <v>0.02200810983777046</v>
+        <v>5.32908015884459e-05</v>
       </c>
       <c r="CJ16" t="n">
-        <v>0.004274782259017229</v>
+        <v>7.364317571045831e-05</v>
       </c>
       <c r="CK16" t="n">
-        <v>0.01101675350219011</v>
+        <v>9.486400813329965e-05</v>
       </c>
       <c r="CL16" t="n">
-        <v>0.003817355027422309</v>
+        <v>6.3011706515681e-05</v>
       </c>
       <c r="CM16" t="n">
-        <v>0.0194137878715992</v>
+        <v>0.0002660157042555511</v>
       </c>
       <c r="CN16" t="n">
-        <v>0.001435272744856775</v>
+        <v>0.0001149611562141217</v>
       </c>
       <c r="CO16" t="n">
-        <v>0.01097452733665705</v>
+        <v>1.363318460789742e-05</v>
       </c>
       <c r="CP16" t="n">
-        <v>0.02029898762702942</v>
+        <v>0.0001936618064064533</v>
       </c>
       <c r="CQ16" t="n">
-        <v>0.0249721072614193</v>
+        <v>0.0001411924313288182</v>
       </c>
       <c r="CR16" t="n">
-        <v>0.02031103521585464</v>
+        <v>0.0003041661693714559</v>
       </c>
       <c r="CS16" t="n">
-        <v>0.007681349758058786</v>
+        <v>0.0002187256322940812</v>
       </c>
       <c r="CT16" t="n">
-        <v>0.01638252101838589</v>
+        <v>6.291978934314102e-05</v>
       </c>
       <c r="CU16" t="n">
-        <v>0.0142531730234623</v>
+        <v>6.995085277594626e-05</v>
       </c>
       <c r="CV16" t="n">
-        <v>0.00836203433573246</v>
+        <v>3.562297206372023e-05</v>
       </c>
       <c r="CW16" t="n">
-        <v>0.01656090095639229</v>
+        <v>0.0002248168748337775</v>
       </c>
       <c r="CX16" t="n">
-        <v>0.008985546417534351</v>
+        <v>0.0001179985047201626</v>
       </c>
       <c r="CY16" t="n">
-        <v>0.008792045526206493</v>
+        <v>0.0001264748279936612</v>
       </c>
       <c r="CZ16" t="n">
-        <v>0.004618817940354347</v>
+        <v>4.457554678083397e-05</v>
       </c>
       <c r="DA16" t="n">
-        <v>0.0230412483215332</v>
+        <v>7.356493006227538e-05</v>
       </c>
       <c r="DB16" t="n">
-        <v>0.00120897067245096</v>
+        <v>6.828393816249445e-05</v>
       </c>
       <c r="DC16" t="n">
-        <v>0.01927527226507664</v>
+        <v>0.000153816508827731</v>
       </c>
       <c r="DD16" t="n">
-        <v>0.003546724328771234</v>
+        <v>4.992583853891119e-05</v>
       </c>
       <c r="DE16" t="n">
-        <v>0.02313154004514217</v>
+        <v>0.000134728557895869</v>
       </c>
       <c r="DF16" t="n">
-        <v>0.01185088139027357</v>
+        <v>6.056554411770776e-05</v>
       </c>
       <c r="DG16" t="n">
-        <v>0.005052965134382248</v>
+        <v>5.985329607938183e-06</v>
       </c>
       <c r="DH16" t="n">
-        <v>0.01795413345098495</v>
+        <v>0.0004463793593458831</v>
       </c>
       <c r="DI16" t="n">
-        <v>0.01360669359564781</v>
+        <v>0.0004784912161994725</v>
       </c>
       <c r="DJ16" t="n">
-        <v>0.02006713673472404</v>
+        <v>9.554116695653647e-05</v>
       </c>
       <c r="DK16" t="n">
-        <v>0.02245591208338737</v>
+        <v>0.000145919038914144</v>
       </c>
       <c r="DL16" t="n">
-        <v>8.932780474424362e-05</v>
+        <v>0.0001485100801801309</v>
       </c>
       <c r="DM16" t="n">
-        <v>0.0187798235565424</v>
+        <v>0.0001732880191411823</v>
       </c>
       <c r="DN16" t="n">
-        <v>0.01596581004559994</v>
+        <v>6.103271516622044e-05</v>
       </c>
       <c r="DO16" t="n">
-        <v>8.264587086159736e-05</v>
+        <v>0.0001336261921096593</v>
       </c>
       <c r="DP16" t="n">
-        <v>0.008241338655352592</v>
+        <v>8.341289503732696e-05</v>
       </c>
       <c r="DQ16" t="n">
-        <v>0.01161221042275429</v>
+        <v>0.0001267509796889499</v>
       </c>
       <c r="DR16" t="n">
-        <v>0.007995228283107281</v>
+        <v>6.858214328531176e-05</v>
       </c>
       <c r="DS16" t="n">
-        <v>0.01509669329971075</v>
+        <v>0.0001089543802663684</v>
       </c>
       <c r="DT16" t="n">
-        <v>0.004525841679424047</v>
+        <v>7.689940684940666e-05</v>
       </c>
       <c r="DU16" t="n">
-        <v>0.001384278293699026</v>
+        <v>0.0001393080892739818</v>
       </c>
       <c r="DV16" t="n">
-        <v>0.007871503010392189</v>
+        <v>5.100380803924054e-05</v>
       </c>
       <c r="DW16" t="n">
-        <v>0.004328617826104164</v>
+        <v>2.888176823034883e-06</v>
       </c>
       <c r="DX16" t="n">
-        <v>0.001691507641226053</v>
+        <v>6.496917194453999e-05</v>
       </c>
       <c r="DY16" t="n">
-        <v>0.001726540038362145</v>
+        <v>0.0001153700577560812</v>
       </c>
       <c r="DZ16" t="n">
-        <v>0.0006233840249478817</v>
+        <v>4.120293306186795e-05</v>
       </c>
       <c r="EA16" t="n">
-        <v>6.998656317591667e-05</v>
+        <v>7.127761637093499e-05</v>
       </c>
       <c r="EB16" t="n">
-        <v>0.005937240552157164</v>
+        <v>3.273194670327939e-05</v>
       </c>
       <c r="EC16" t="n">
-        <v>0.002542767208069563</v>
+        <v>8.220136805903167e-05</v>
       </c>
       <c r="ED16" t="n">
-        <v>0.003867562161758542</v>
+        <v>2.464192220941186e-06</v>
       </c>
       <c r="EE16" t="n">
-        <v>0.005495103541761637</v>
+        <v>9.224185487255454e-05</v>
       </c>
       <c r="EF16" t="n">
-        <v>0.02091575413942337</v>
+        <v>0.0001804572239052504</v>
       </c>
       <c r="EG16" t="n">
-        <v>0.0138053959235549</v>
+        <v>0.0002756569592747837</v>
       </c>
       <c r="EH16" t="n">
-        <v>0.003407056909054518</v>
+        <v>0.000149382438394241</v>
       </c>
       <c r="EI16" t="n">
-        <v>0.009988457895815372</v>
+        <v>6.649801798630506e-05</v>
       </c>
       <c r="EJ16" t="n">
-        <v>0.008152894675731659</v>
+        <v>4.363032712717541e-05</v>
       </c>
       <c r="EK16" t="n">
-        <v>0.01664131879806519</v>
+        <v>6.647517875535414e-05</v>
       </c>
       <c r="EL16" t="n">
-        <v>0.001394276157952845</v>
+        <v>5.4616313718725e-05</v>
       </c>
       <c r="EM16" t="n">
-        <v>0.01662366650998592</v>
+        <v>3.601240678108297e-05</v>
       </c>
       <c r="EN16" t="n">
-        <v>0.004151301458477974</v>
+        <v>9.834096999838948e-06</v>
       </c>
       <c r="EO16" t="n">
-        <v>0.007444914430379868</v>
+        <v>4.986789645045064e-05</v>
       </c>
       <c r="EP16" t="n">
-        <v>0.008824392221868038</v>
+        <v>9.860946738626808e-05</v>
       </c>
       <c r="EQ16" t="n">
-        <v>0.00583741208538413</v>
+        <v>0.0001270356879103929</v>
       </c>
       <c r="ER16" t="n">
-        <v>0.01303619332611561</v>
+        <v>0.0001499503414379433</v>
       </c>
       <c r="ES16" t="n">
-        <v>0.01022091507911682</v>
+        <v>6.153550930321217e-05</v>
       </c>
       <c r="ET16" t="n">
-        <v>0.01075189746916294</v>
+        <v>0.0001875590241979808</v>
       </c>
       <c r="EU16" t="n">
-        <v>0.008610537275671959</v>
+        <v>0.0001249445194844157</v>
       </c>
       <c r="EV16" t="n">
-        <v>0.02359488792717457</v>
+        <v>0.000273273151833564</v>
       </c>
       <c r="EW16" t="n">
-        <v>0.01000888179987669</v>
+        <v>6.560361362062395e-05</v>
       </c>
       <c r="EX16" t="n">
-        <v>0.008988796733319759</v>
+        <v>5.516736200661398e-05</v>
       </c>
       <c r="EY16" t="n">
-        <v>0.01445178687572479</v>
+        <v>0.0002098287950502709</v>
       </c>
       <c r="EZ16" t="n">
-        <v>0.0101990420371294</v>
+        <v>9.942929318640381e-05</v>
       </c>
       <c r="FA16" t="n">
-        <v>0.01192586030811071</v>
+        <v>5.85183224757202e-05</v>
       </c>
       <c r="FB16" t="n">
-        <v>0.004663518629968166</v>
+        <v>4.23315359512344e-05</v>
       </c>
       <c r="FC16" t="n">
-        <v>0.02170401252806187</v>
+        <v>5.806428816867992e-05</v>
       </c>
       <c r="FD16" t="n">
-        <v>0.003153905738145113</v>
+        <v>9.166345989797264e-05</v>
       </c>
       <c r="FE16" t="n">
-        <v>0.01959061808884144</v>
+        <v>0.0001371666585328057</v>
       </c>
       <c r="FF16" t="n">
-        <v>0.002399624790996313</v>
+        <v>6.731074245180935e-05</v>
       </c>
       <c r="FG16" t="n">
-        <v>0.001261429628357291</v>
+        <v>6.524242053274065e-05</v>
       </c>
       <c r="FH16" t="n">
-        <v>0.0172693207859993</v>
+        <v>1.909596176119521e-05</v>
       </c>
       <c r="FI16" t="n">
-        <v>0.0126278018578887</v>
+        <v>0.0001888299157144502</v>
       </c>
       <c r="FJ16" t="n">
-        <v>0.01012657396495342</v>
+        <v>0.0001350190723314881</v>
       </c>
       <c r="FK16" t="n">
-        <v>0.001804338186047971</v>
+        <v>9.524353663437068e-05</v>
       </c>
       <c r="FL16" t="n">
-        <v>0.00553268613293767</v>
+        <v>0.0001530368463136256</v>
       </c>
       <c r="FM16" t="n">
-        <v>0.001017959322780371</v>
+        <v>9.04825355974026e-06</v>
       </c>
       <c r="FN16" t="n">
-        <v>0.005570181179791689</v>
+        <v>8.674968557897955e-05</v>
       </c>
       <c r="FO16" t="n">
-        <v>0.01352416351437569</v>
+        <v>9.114386921282858e-05</v>
       </c>
       <c r="FP16" t="n">
-        <v>0.007033363915979862</v>
+        <v>0.0001873886358225718</v>
       </c>
       <c r="FQ16" t="n">
-        <v>0.01091459859162569</v>
+        <v>1.268000141863013e-05</v>
       </c>
       <c r="FR16" t="n">
-        <v>0.0007878032047301531</v>
+        <v>0.0002373519237153232</v>
       </c>
       <c r="FS16" t="n">
-        <v>0.04796254634857178</v>
+        <v>3.216198092559353e-05</v>
       </c>
       <c r="FT16" t="n">
-        <v>0.002201789058744907</v>
+        <v>0.0001394146092934534</v>
       </c>
       <c r="FU16" t="n">
-        <v>0.05135693773627281</v>
+        <v>8.50199066917412e-05</v>
       </c>
       <c r="FV16" t="n">
-        <v>0.01279119774699211</v>
+        <v>3.862013545585796e-05</v>
       </c>
       <c r="FW16" t="n">
-        <v>0.01495253667235374</v>
+        <v>3.154301157337613e-05</v>
       </c>
       <c r="FX16" t="n">
-        <v>0.0161115936934948</v>
+        <v>6.404497980838642e-07</v>
       </c>
       <c r="FY16" t="n">
-        <v>0.001032764557749033</v>
+        <v>0.0002285974042024463</v>
       </c>
       <c r="FZ16" t="n">
-        <v>0.007449204102158546</v>
+        <v>7.897333125583827e-05</v>
       </c>
       <c r="GA16" t="n">
-        <v>0.004921006038784981</v>
+        <v>0.0001217801982420497</v>
       </c>
       <c r="GB16" t="n">
-        <v>0.009274336509406567</v>
+        <v>3.691863093990833e-05</v>
       </c>
       <c r="GC16" t="n">
-        <v>0.003514552023261786</v>
+        <v>3.936543726013042e-05</v>
       </c>
       <c r="GD16" t="n">
-        <v>0.001254748553037643</v>
+        <v>0.0001353735569864511</v>
       </c>
       <c r="GE16" t="n">
-        <v>0.008737331256270409</v>
+        <v>0.0002530372003093362</v>
       </c>
       <c r="GF16" t="n">
-        <v>0.009992188774049282</v>
+        <v>4.344925400801003e-06</v>
       </c>
       <c r="GG16" t="n">
-        <v>0.004479304421693087</v>
+        <v>0.0001664117153268307</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.0001224008010467514</v>
+        <v>0.0001071557926479727</v>
       </c>
       <c r="B17" t="n">
-        <v>2.381634840276092e-05</v>
+        <v>0.003763760672882199</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0003646473633125424</v>
+        <v>0.0001003943252726458</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0002499769325368106</v>
+        <v>0.000618663732893765</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0001228168694069609</v>
+        <v>0.001409779069945216</v>
       </c>
       <c r="F17" t="n">
-        <v>0.001324963639490306</v>
+        <v>0.0004540873342193663</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0002217071305494756</v>
+        <v>0.0002147593477275223</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0007775950361974537</v>
+        <v>0.0004981828387826681</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0002692098496481776</v>
+        <v>1.687907570158131e-06</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0001453841250622645</v>
+        <v>7.233697397168726e-05</v>
       </c>
       <c r="K17" t="n">
-        <v>0.000127500607050024</v>
+        <v>0.003271653316915035</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0003441079461481422</v>
+        <v>0.0005772492149844766</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0001626783632673323</v>
+        <v>5.923210119362921e-05</v>
       </c>
       <c r="N17" t="n">
-        <v>2.64744448941201e-05</v>
+        <v>0.0009345510043203831</v>
       </c>
       <c r="O17" t="n">
-        <v>0.001129812328144908</v>
+        <v>0.0006555125000886619</v>
       </c>
       <c r="P17" t="n">
-        <v>0.0001584852288942784</v>
+        <v>0.0002091272181132808</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.0006885759066790342</v>
+        <v>0.0001309218932874501</v>
       </c>
       <c r="R17" t="n">
-        <v>0.0003657285124063492</v>
+        <v>1.94103158719372e-05</v>
       </c>
       <c r="S17" t="n">
-        <v>0.0001870327541837469</v>
+        <v>3.667426062747836e-05</v>
       </c>
       <c r="T17" t="n">
-        <v>4.265079769538715e-05</v>
+        <v>0.0004669094341807067</v>
       </c>
       <c r="U17" t="n">
-        <v>4.933370291837491e-05</v>
+        <v>0.0001027482285280712</v>
       </c>
       <c r="V17" t="n">
-        <v>0.0001083648894564249</v>
+        <v>0.000401489349314943</v>
       </c>
       <c r="W17" t="n">
-        <v>8.379039354622364e-05</v>
+        <v>0.0006777074886485934</v>
       </c>
       <c r="X17" t="n">
-        <v>0.000353995943441987</v>
+        <v>0.0001514817995484918</v>
       </c>
       <c r="Y17" t="n">
-        <v>8.338533370988443e-05</v>
+        <v>8.203242759918794e-05</v>
       </c>
       <c r="Z17" t="n">
-        <v>5.917165981372818e-05</v>
+        <v>0.0006200622883625329</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.0001606600999366492</v>
+        <v>0.000167808699188754</v>
       </c>
       <c r="AB17" t="n">
-        <v>4.320812877267599e-05</v>
+        <v>0.0002385679690632969</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.0001077341512427665</v>
+        <v>2.512286300770938e-06</v>
       </c>
       <c r="AD17" t="n">
-        <v>2.702223173400853e-05</v>
+        <v>9.923285688273609e-05</v>
       </c>
       <c r="AE17" t="n">
-        <v>3.933273183065467e-05</v>
+        <v>0.0001046802499331534</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.000471279927296564</v>
+        <v>0.0001796048018150032</v>
       </c>
       <c r="AG17" t="n">
-        <v>3.87122345273383e-05</v>
+        <v>3.635864413809031e-05</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.0002568407799117267</v>
+        <v>5.421302921604365e-05</v>
       </c>
       <c r="AI17" t="n">
-        <v>0.0001168512098956853</v>
+        <v>0.0001437426108168438</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1.851876368164085e-05</v>
+        <v>0.000313355412799865</v>
       </c>
       <c r="AK17" t="n">
-        <v>5.371138286136556e-06</v>
+        <v>0.0006453327368944883</v>
       </c>
       <c r="AL17" t="n">
-        <v>8.313071157317609e-05</v>
+        <v>0.0003845985920634121</v>
       </c>
       <c r="AM17" t="n">
-        <v>0.0001598458911757916</v>
+        <v>8.854873885866255e-05</v>
       </c>
       <c r="AN17" t="n">
-        <v>2.585731454018969e-05</v>
+        <v>1.823866841732524e-05</v>
       </c>
       <c r="AO17" t="n">
-        <v>0.0002131274231942371</v>
+        <v>0.0004183310375083238</v>
       </c>
       <c r="AP17" t="n">
-        <v>0.000130020547658205</v>
+        <v>0.000349375099176541</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.064201569533907e-05</v>
+        <v>2.970378773170523e-05</v>
       </c>
       <c r="AR17" t="n">
-        <v>4.758544309879653e-05</v>
+        <v>0.0001288561907131225</v>
       </c>
       <c r="AS17" t="n">
-        <v>0.0001194256983580999</v>
+        <v>7.945385004859418e-05</v>
       </c>
       <c r="AT17" t="n">
-        <v>2.552137084421702e-05</v>
+        <v>4.231102502672002e-05</v>
       </c>
       <c r="AU17" t="n">
-        <v>6.006233525113203e-05</v>
+        <v>0.00238535413518548</v>
       </c>
       <c r="AV17" t="n">
-        <v>0.0002292367134941742</v>
+        <v>0.0002964340965263546</v>
       </c>
       <c r="AW17" t="n">
-        <v>2.958242839667946e-05</v>
+        <v>0.0002179553703172132</v>
       </c>
       <c r="AX17" t="n">
-        <v>9.216564649250358e-06</v>
+        <v>0.0008795356843620539</v>
       </c>
       <c r="AY17" t="n">
-        <v>0.0007768274517729878</v>
+        <v>0.000428884057328105</v>
       </c>
       <c r="AZ17" t="n">
-        <v>2.39101627812488e-05</v>
+        <v>0.0002983146696351469</v>
       </c>
       <c r="BA17" t="n">
-        <v>0.0002052489144261926</v>
+        <v>8.692324627190828e-05</v>
       </c>
       <c r="BB17" t="n">
-        <v>8.63845634739846e-05</v>
+        <v>2.350799695705064e-05</v>
       </c>
       <c r="BC17" t="n">
-        <v>3.665003168862313e-05</v>
+        <v>0.0004301667504478246</v>
       </c>
       <c r="BD17" t="n">
-        <v>0.0001971622987184674</v>
+        <v>0.0009378007962368429</v>
       </c>
       <c r="BE17" t="n">
-        <v>0.0001564013946335763</v>
+        <v>0.0005786654655821621</v>
       </c>
       <c r="BF17" t="n">
-        <v>0.0001958284265128896</v>
+        <v>0.0001051086073857732</v>
       </c>
       <c r="BG17" t="n">
-        <v>5.426482312032022e-05</v>
+        <v>0.0006195071619004011</v>
       </c>
       <c r="BH17" t="n">
-        <v>0.0001083014576579444</v>
+        <v>0.0003036894195247442</v>
       </c>
       <c r="BI17" t="n">
-        <v>8.07995384093374e-05</v>
+        <v>0.0004089735157322139</v>
       </c>
       <c r="BJ17" t="n">
-        <v>0.0003949945676140487</v>
+        <v>0.0002189326623920351</v>
       </c>
       <c r="BK17" t="n">
-        <v>8.038279338506982e-05</v>
+        <v>0.0001220748235937208</v>
       </c>
       <c r="BL17" t="n">
-        <v>4.509790232987143e-05</v>
+        <v>0.0003221792576368898</v>
       </c>
       <c r="BM17" t="n">
-        <v>4.906334652332589e-05</v>
+        <v>0.0006513269036076963</v>
       </c>
       <c r="BN17" t="n">
-        <v>0.0001203272913699038</v>
+        <v>0.0003410153149161488</v>
       </c>
       <c r="BO17" t="n">
-        <v>0.0001185151413665153</v>
+        <v>0.000161730931722559</v>
       </c>
       <c r="BP17" t="n">
-        <v>0.0001298479328397661</v>
+        <v>0.0003716500650625676</v>
       </c>
       <c r="BQ17" t="n">
-        <v>8.409812289755791e-05</v>
+        <v>0.0001722410816000775</v>
       </c>
       <c r="BR17" t="n">
-        <v>0.000108678184915334</v>
+        <v>1.588513259775937e-05</v>
       </c>
       <c r="BS17" t="n">
-        <v>8.170049113687128e-06</v>
+        <v>4.631396950571798e-05</v>
       </c>
       <c r="BT17" t="n">
-        <v>5.674360727425665e-05</v>
+        <v>0.0001638652029214427</v>
       </c>
       <c r="BU17" t="n">
-        <v>0.0001077027918654494</v>
+        <v>2.720327756833285e-05</v>
       </c>
       <c r="BV17" t="n">
-        <v>9.465577750233933e-05</v>
+        <v>0.001463830703869462</v>
       </c>
       <c r="BW17" t="n">
-        <v>7.439879937010119e-06</v>
+        <v>0.0002510285994503647</v>
       </c>
       <c r="BX17" t="n">
-        <v>5.270284964353777e-05</v>
+        <v>0.0001088151402655058</v>
       </c>
       <c r="BY17" t="n">
-        <v>3.3676675229799e-05</v>
+        <v>0.0005013115587644279</v>
       </c>
       <c r="BZ17" t="n">
-        <v>0.0004630107723642141</v>
+        <v>0.0001393640995956957</v>
       </c>
       <c r="CA17" t="n">
-        <v>6.158544420031831e-05</v>
+        <v>0.0001874123991001397</v>
       </c>
       <c r="CB17" t="n">
-        <v>0.0001999285886995494</v>
+        <v>0.0001490004069637507</v>
       </c>
       <c r="CC17" t="n">
-        <v>0.000109133921796456</v>
+        <v>9.829936607275158e-05</v>
       </c>
       <c r="CD17" t="n">
-        <v>3.296663635410368e-05</v>
+        <v>0.0001251371286343783</v>
       </c>
       <c r="CE17" t="n">
-        <v>0.0001415691367583349</v>
+        <v>0.000603804481215775</v>
       </c>
       <c r="CF17" t="n">
-        <v>8.593440725235268e-05</v>
+        <v>0.0001434552104910836</v>
       </c>
       <c r="CG17" t="n">
-        <v>0.0001066159748006612</v>
+        <v>9.235682227881625e-05</v>
       </c>
       <c r="CH17" t="n">
-        <v>2.564425631135236e-05</v>
+        <v>6.13599841017276e-05</v>
       </c>
       <c r="CI17" t="n">
-        <v>0.000235866304137744</v>
+        <v>2.420110467937775e-05</v>
       </c>
       <c r="CJ17" t="n">
-        <v>3.160805863444693e-05</v>
+        <v>0.0001666667521931231</v>
       </c>
       <c r="CK17" t="n">
-        <v>9.258919453714043e-05</v>
+        <v>0.000102945756225381</v>
       </c>
       <c r="CL17" t="n">
-        <v>5.489999239216559e-05</v>
+        <v>1.860640259110369e-05</v>
       </c>
       <c r="CM17" t="n">
-        <v>8.34337406558916e-05</v>
+        <v>0.0008111097267828882</v>
       </c>
       <c r="CN17" t="n">
-        <v>6.427380867535248e-05</v>
+        <v>0.0004894082085229456</v>
       </c>
       <c r="CO17" t="n">
-        <v>0.0001081170339602977</v>
+        <v>0.0002448150771670043</v>
       </c>
       <c r="CP17" t="n">
-        <v>5.698013046639971e-05</v>
+        <v>0.0002185261691920459</v>
       </c>
       <c r="CQ17" t="n">
-        <v>0.0002604488981887698</v>
+        <v>0.0004335199191700667</v>
       </c>
       <c r="CR17" t="n">
-        <v>0.0001546714192954823</v>
+        <v>0.0004271009820513427</v>
       </c>
       <c r="CS17" t="n">
-        <v>0.000113066824269481</v>
+        <v>0.0005890383617952466</v>
       </c>
       <c r="CT17" t="n">
-        <v>4.317189086577855e-05</v>
+        <v>0.0004368002410046756</v>
       </c>
       <c r="CU17" t="n">
-        <v>0.0001033462176565081</v>
+        <v>0.0001044099917635322</v>
       </c>
       <c r="CV17" t="n">
-        <v>6.378249963745475e-05</v>
+        <v>0.0001059925270965323</v>
       </c>
       <c r="CW17" t="n">
-        <v>0.0001631342602195218</v>
+        <v>0.0004935808246955276</v>
       </c>
       <c r="CX17" t="n">
-        <v>9.650320134824142e-05</v>
+        <v>0.0002381197700742632</v>
       </c>
       <c r="CY17" t="n">
-        <v>8.33412996144034e-05</v>
+        <v>0.0002811797894537449</v>
       </c>
       <c r="CZ17" t="n">
-        <v>1.556919596623629e-05</v>
+        <v>0.0001059227579389699</v>
       </c>
       <c r="DA17" t="n">
-        <v>0.0002305881353095174</v>
+        <v>1.344356041954597e-05</v>
       </c>
       <c r="DB17" t="n">
-        <v>1.423338835593313e-05</v>
+        <v>0.0001385638315696269</v>
       </c>
       <c r="DC17" t="n">
-        <v>0.0001662341092014685</v>
+        <v>0.0001875861344160512</v>
       </c>
       <c r="DD17" t="n">
-        <v>4.955762778990902e-05</v>
+        <v>1.460696876165457e-05</v>
       </c>
       <c r="DE17" t="n">
-        <v>0.0002829340228345245</v>
+        <v>0.0003633702581282705</v>
       </c>
       <c r="DF17" t="n">
-        <v>2.220808164565824e-05</v>
+        <v>0.0006081474130041897</v>
       </c>
       <c r="DG17" t="n">
-        <v>7.52720152377151e-05</v>
+        <v>4.196845839032903e-05</v>
       </c>
       <c r="DH17" t="n">
-        <v>0.0001112437748815864</v>
+        <v>0.001332387677393854</v>
       </c>
       <c r="DI17" t="n">
-        <v>0.0001227915636263788</v>
+        <v>0.0006578752654604614</v>
       </c>
       <c r="DJ17" t="n">
-        <v>0.0001598723465576768</v>
+        <v>0.0002744951052591205</v>
       </c>
       <c r="DK17" t="n">
-        <v>0.0001956679916474968</v>
+        <v>0.0002483233693055809</v>
       </c>
       <c r="DL17" t="n">
-        <v>2.614003460621461e-05</v>
+        <v>0.0001095590487238951</v>
       </c>
       <c r="DM17" t="n">
-        <v>0.0002343781379749998</v>
+        <v>0.0002369619905948639</v>
       </c>
       <c r="DN17" t="n">
-        <v>0.0001475787576055154</v>
+        <v>3.825238673016429e-05</v>
       </c>
       <c r="DO17" t="n">
-        <v>0.0001019746414385736</v>
+        <v>7.029951666481793e-05</v>
       </c>
       <c r="DP17" t="n">
-        <v>3.461581218289211e-05</v>
+        <v>0.0003920820308849216</v>
       </c>
       <c r="DQ17" t="n">
-        <v>0.0001426697272108868</v>
+        <v>0.0002606711350381374</v>
       </c>
       <c r="DR17" t="n">
-        <v>0.0001133073892560787</v>
+        <v>0.0002516025269869715</v>
       </c>
       <c r="DS17" t="n">
-        <v>0.0001410710974596441</v>
+        <v>0.0002629123046062887</v>
       </c>
       <c r="DT17" t="n">
-        <v>4.313129466027021e-05</v>
+        <v>3.302382901892997e-05</v>
       </c>
       <c r="DU17" t="n">
-        <v>2.2420745153795e-05</v>
+        <v>6.515693530673161e-05</v>
       </c>
       <c r="DV17" t="n">
-        <v>5.873619738849811e-05</v>
+        <v>2.03973104362376e-06</v>
       </c>
       <c r="DW17" t="n">
-        <v>3.600787749746814e-05</v>
+        <v>1.819659883040003e-05</v>
       </c>
       <c r="DX17" t="n">
-        <v>3.539285171427764e-05</v>
+        <v>0.000422840123064816</v>
       </c>
       <c r="DY17" t="n">
-        <v>3.993287100456655e-05</v>
+        <v>0.0002061964041786268</v>
       </c>
       <c r="DZ17" t="n">
-        <v>7.322873716475442e-05</v>
+        <v>1.844082726165652e-05</v>
       </c>
       <c r="EA17" t="n">
-        <v>8.347289985977113e-05</v>
+        <v>0.0003822730213869363</v>
       </c>
       <c r="EB17" t="n">
-        <v>1.187313682748936e-05</v>
+        <v>1.817420343286358e-05</v>
       </c>
       <c r="EC17" t="n">
-        <v>7.188433664850891e-05</v>
+        <v>9.776596562005579e-05</v>
       </c>
       <c r="ED17" t="n">
-        <v>2.392564238107298e-05</v>
+        <v>1.421897923137294e-05</v>
       </c>
       <c r="EE17" t="n">
-        <v>8.108509064186364e-07</v>
+        <v>3.833505616057664e-05</v>
       </c>
       <c r="EF17" t="n">
-        <v>0.0001004808000288904</v>
+        <v>0.0004026192764285952</v>
       </c>
       <c r="EG17" t="n">
-        <v>0.0001791140821296722</v>
+        <v>0.0006427227053791285</v>
       </c>
       <c r="EH17" t="n">
-        <v>7.539447688031942e-05</v>
+        <v>4.48753016826231e-05</v>
       </c>
       <c r="EI17" t="n">
-        <v>0.0001122461253544316</v>
+        <v>3.523622581269592e-06</v>
       </c>
       <c r="EJ17" t="n">
-        <v>0.0002045355504378676</v>
+        <v>2.830377343343571e-05</v>
       </c>
       <c r="EK17" t="n">
-        <v>0.0001249014167115092</v>
+        <v>6.651510921074077e-05</v>
       </c>
       <c r="EL17" t="n">
-        <v>2.222702823928557e-05</v>
+        <v>0.000111276785901282</v>
       </c>
       <c r="EM17" t="n">
-        <v>0.000152881650137715</v>
+        <v>0.0001259954151464626</v>
       </c>
       <c r="EN17" t="n">
-        <v>4.398297096486203e-05</v>
+        <v>3.918441871064715e-05</v>
       </c>
       <c r="EO17" t="n">
-        <v>7.068032573442906e-05</v>
+        <v>0.0001082850940292701</v>
       </c>
       <c r="EP17" t="n">
-        <v>3.16793957608752e-05</v>
+        <v>4.740314034279436e-05</v>
       </c>
       <c r="EQ17" t="n">
-        <v>0.0001138940424425527</v>
+        <v>0.0004618224920704961</v>
       </c>
       <c r="ER17" t="n">
-        <v>9.587570821167901e-05</v>
+        <v>0.0003573750727809966</v>
       </c>
       <c r="ES17" t="n">
-        <v>0.0001470285933464766</v>
+        <v>1.294149478781037e-05</v>
       </c>
       <c r="ET17" t="n">
-        <v>0.0001246950414497405</v>
+        <v>7.988857396412641e-05</v>
       </c>
       <c r="EU17" t="n">
-        <v>3.046795973205008e-05</v>
+        <v>0.0002333267912035808</v>
       </c>
       <c r="EV17" t="n">
-        <v>8.765438542468473e-05</v>
+        <v>0.0004287801566533744</v>
       </c>
       <c r="EW17" t="n">
-        <v>5.418830551207066e-05</v>
+        <v>0.0002801576629281044</v>
       </c>
       <c r="EX17" t="n">
-        <v>5.71862437936943e-05</v>
+        <v>8.389602589886636e-05</v>
       </c>
       <c r="EY17" t="n">
-        <v>0.0001470405550207943</v>
+        <v>0.000531529076397419</v>
       </c>
       <c r="EZ17" t="n">
-        <v>8.698755118530244e-05</v>
+        <v>0.0001904706150526181</v>
       </c>
       <c r="FA17" t="n">
-        <v>0.0001033608568832278</v>
+        <v>3.068740261369385e-05</v>
       </c>
       <c r="FB17" t="n">
-        <v>1.420420448994264e-05</v>
+        <v>2.873656194424257e-05</v>
       </c>
       <c r="FC17" t="n">
-        <v>0.0002368977293372154</v>
+        <v>7.301961159100756e-05</v>
       </c>
       <c r="FD17" t="n">
-        <v>1.338567017228343e-05</v>
+        <v>0.000197460554772988</v>
       </c>
       <c r="FE17" t="n">
-        <v>0.0001615176151972264</v>
+        <v>0.0001099615546991117</v>
       </c>
       <c r="FF17" t="n">
-        <v>2.441958167764824e-05</v>
+        <v>5.020021853852086e-05</v>
       </c>
       <c r="FG17" t="n">
-        <v>3.220979851903394e-05</v>
+        <v>0.0001238220575032756</v>
       </c>
       <c r="FH17" t="n">
-        <v>0.0001771506504155695</v>
+        <v>4.372349940240383e-05</v>
       </c>
       <c r="FI17" t="n">
-        <v>3.036756970686838e-05</v>
+        <v>0.0003890067455358803</v>
       </c>
       <c r="FJ17" t="n">
-        <v>0.0001368944067507982</v>
+        <v>0.000234909137361683</v>
       </c>
       <c r="FK17" t="n">
-        <v>2.641529135871679e-06</v>
+        <v>0.0004273735103197396</v>
       </c>
       <c r="FL17" t="n">
-        <v>0.0001447878603357822</v>
+        <v>0.0002180851297453046</v>
       </c>
       <c r="FM17" t="n">
-        <v>1.460577914258465e-05</v>
+        <v>8.06684693088755e-05</v>
       </c>
       <c r="FN17" t="n">
-        <v>0.0001117723804782145</v>
+        <v>0.0001046343095367774</v>
       </c>
       <c r="FO17" t="n">
-        <v>0.0001737453712848946</v>
+        <v>0.0002803698880597949</v>
       </c>
       <c r="FP17" t="n">
-        <v>7.289640780072659e-05</v>
+        <v>0.0004190173931419849</v>
       </c>
       <c r="FQ17" t="n">
-        <v>3.958485467592254e-05</v>
+        <v>0.0004190184990875423</v>
       </c>
       <c r="FR17" t="n">
-        <v>3.133188874926418e-05</v>
+        <v>0.0004462547367438674</v>
       </c>
       <c r="FS17" t="n">
-        <v>0.0003273776965215802</v>
+        <v>0.0002472951891832054</v>
       </c>
       <c r="FT17" t="n">
-        <v>0.0001134217382059433</v>
+        <v>0.0001604892458999529</v>
       </c>
       <c r="FU17" t="n">
-        <v>0.0005349509883671999</v>
+        <v>0.0001798557786969468</v>
       </c>
       <c r="FV17" t="n">
-        <v>6.775059591745958e-05</v>
+        <v>2.583785499155056e-05</v>
       </c>
       <c r="FW17" t="n">
-        <v>0.0001530223817098886</v>
+        <v>0.0001189406611956656</v>
       </c>
       <c r="FX17" t="n">
-        <v>0.0001466446847189218</v>
+        <v>0.0001023912991513498</v>
       </c>
       <c r="FY17" t="n">
-        <v>3.387211472727358e-05</v>
+        <v>0.0005313049769029021</v>
       </c>
       <c r="FZ17" t="n">
-        <v>1.639782203710638e-05</v>
+        <v>0.0002303626388311386</v>
       </c>
       <c r="GA17" t="n">
-        <v>3.977195956395008e-05</v>
+        <v>8.805331162875518e-05</v>
       </c>
       <c r="GB17" t="n">
-        <v>8.857332431944087e-05</v>
+        <v>0.000130282889585942</v>
       </c>
       <c r="GC17" t="n">
-        <v>1.429599251423497e-05</v>
+        <v>0.0002129645872628316</v>
       </c>
       <c r="GD17" t="n">
-        <v>0.0001386613002978265</v>
+        <v>0.0005879380623809993</v>
       </c>
       <c r="GE17" t="n">
-        <v>0.0001853125722846016</v>
+        <v>0.0004732507513836026</v>
       </c>
       <c r="GF17" t="n">
-        <v>0.0001314543187618256</v>
+        <v>0.0002859037194866687</v>
       </c>
       <c r="GG17" t="n">
-        <v>6.459952419390902e-05</v>
+        <v>0.0002192962274421006</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.0003801031562034041</v>
+        <v>6.442017820518231e-06</v>
       </c>
       <c r="B18" t="n">
-        <v>0.00167365837842226</v>
+        <v>0.0002863721747417003</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0002868159208446741</v>
+        <v>2.401361234660726e-05</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0005634232074953616</v>
+        <v>0.000146484118886292</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0008140192367136478</v>
+        <v>6.153467256808653e-05</v>
       </c>
       <c r="F18" t="n">
-        <v>0.002859191270545125</v>
+        <v>9.041828889166936e-06</v>
       </c>
       <c r="G18" t="n">
-        <v>0.00013980436779093</v>
+        <v>2.313373988727108e-05</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0004779826558660716</v>
+        <v>2.663339728314895e-05</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0005058211972936988</v>
+        <v>2.444774690957274e-05</v>
       </c>
       <c r="J18" t="n">
-        <v>0.000278753082966432</v>
+        <v>1.645748488954268e-05</v>
       </c>
       <c r="K18" t="n">
-        <v>0.001488339155912399</v>
+        <v>0.0002367689448874444</v>
       </c>
       <c r="L18" t="n">
-        <v>6.472491077147424e-05</v>
+        <v>1.263674676010851e-05</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0002487124293111265</v>
+        <v>0.000129977153846994</v>
       </c>
       <c r="N18" t="n">
-        <v>0.0006935807759873569</v>
+        <v>6.632672011619434e-05</v>
       </c>
       <c r="O18" t="n">
-        <v>0.002480769995599985</v>
+        <v>4.049986819154583e-05</v>
       </c>
       <c r="P18" t="n">
-        <v>0.0003532397677190602</v>
+        <v>1.500518192187883e-05</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.0002559146378189325</v>
+        <v>3.165763337165117e-05</v>
       </c>
       <c r="R18" t="n">
-        <v>0.0005400187219493091</v>
+        <v>4.283268026483711e-06</v>
       </c>
       <c r="S18" t="n">
-        <v>0.0003145652590319514</v>
+        <v>1.198464633489493e-05</v>
       </c>
       <c r="T18" t="n">
-        <v>6.059999213903211e-05</v>
+        <v>4.330579758970998e-05</v>
       </c>
       <c r="U18" t="n">
-        <v>9.241094085155055e-05</v>
+        <v>8.723400242161006e-06</v>
       </c>
       <c r="V18" t="n">
-        <v>0.0005698786117136478</v>
+        <v>1.245999101229245e-05</v>
       </c>
       <c r="W18" t="n">
-        <v>0.0002751691499724984</v>
+        <v>1.43834749906091e-05</v>
       </c>
       <c r="X18" t="n">
-        <v>0.0004898497718386352</v>
+        <v>1.577614966663532e-05</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.0002752869622781873</v>
+        <v>2.931063863798045e-05</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.0009674797765910625</v>
+        <v>3.049542829103302e-05</v>
       </c>
       <c r="AA18" t="n">
-        <v>4.068766429554671e-06</v>
+        <v>2.696825868042652e-05</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.0004398152232170105</v>
+        <v>2.056614903267473e-05</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.0002428688167128712</v>
+        <v>3.933857078664005e-05</v>
       </c>
       <c r="AD18" t="n">
-        <v>1.691409488557838e-05</v>
+        <v>3.985619514423888e-06</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.0001839429896790534</v>
+        <v>6.036527338437736e-06</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.0007324683829210699</v>
+        <v>1.747568148857681e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.0002206915087299421</v>
+        <v>2.383795390414889e-06</v>
       </c>
       <c r="AH18" t="n">
-        <v>0.0002896470250561833</v>
+        <v>1.849391264840961e-05</v>
       </c>
       <c r="AI18" t="n">
-        <v>0.0007103028474375606</v>
+        <v>1.171216808870668e-06</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0.0002861087559722364</v>
+        <v>6.098624908190686e-06</v>
       </c>
       <c r="AK18" t="n">
-        <v>6.317022780422121e-07</v>
+        <v>1.870009509730153e-05</v>
       </c>
       <c r="AL18" t="n">
-        <v>0.0002602464519441128</v>
+        <v>2.72459838015493e-05</v>
       </c>
       <c r="AM18" t="n">
-        <v>8.782669465290383e-05</v>
+        <v>1.402278758177999e-05</v>
       </c>
       <c r="AN18" t="n">
-        <v>4.048328628414311e-05</v>
+        <v>7.933617780508939e-06</v>
       </c>
       <c r="AO18" t="n">
-        <v>1.685400275164284e-05</v>
+        <v>2.409964690741617e-05</v>
       </c>
       <c r="AP18" t="n">
-        <v>0.0004335094126872718</v>
+        <v>2.456333459122106e-05</v>
       </c>
       <c r="AQ18" t="n">
-        <v>8.093167707556859e-05</v>
+        <v>2.200053495471366e-05</v>
       </c>
       <c r="AR18" t="n">
-        <v>1.180843173642643e-05</v>
+        <v>1.781671562639531e-05</v>
       </c>
       <c r="AS18" t="n">
-        <v>0.0003199562197551131</v>
+        <v>7.314989034057362e-06</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.0002924551954492927</v>
+        <v>1.627584060770459e-05</v>
       </c>
       <c r="AU18" t="n">
-        <v>0.0007754987454973161</v>
+        <v>0.0002064862055703998</v>
       </c>
       <c r="AV18" t="n">
-        <v>0.0002247011725557968</v>
+        <v>2.989511995110661e-05</v>
       </c>
       <c r="AW18" t="n">
-        <v>0.0002601843734737486</v>
+        <v>3.134934740955941e-05</v>
       </c>
       <c r="AX18" t="n">
-        <v>0.0001211708658956923</v>
+        <v>3.537935754138744e-06</v>
       </c>
       <c r="AY18" t="n">
-        <v>0.001276542898267508</v>
+        <v>1.471780797146494e-05</v>
       </c>
       <c r="AZ18" t="n">
-        <v>5.727097232011147e-05</v>
+        <v>9.634991329221521e-07</v>
       </c>
       <c r="BA18" t="n">
-        <v>0.0001881253265310079</v>
+        <v>1.736108788463753e-05</v>
       </c>
       <c r="BB18" t="n">
-        <v>0.0001179266473627649</v>
+        <v>3.191150881320937e-07</v>
       </c>
       <c r="BC18" t="n">
-        <v>0.0003257808566559106</v>
+        <v>2.674134339031298e-05</v>
       </c>
       <c r="BD18" t="n">
-        <v>0.0003667464479804039</v>
+        <v>4.853964856010862e-05</v>
       </c>
       <c r="BE18" t="n">
-        <v>1.625425466045272e-05</v>
+        <v>5.768240953329951e-05</v>
       </c>
       <c r="BF18" t="n">
-        <v>0.000657624623272568</v>
+        <v>3.261962410761043e-05</v>
       </c>
       <c r="BG18" t="n">
-        <v>7.008669490460306e-05</v>
+        <v>5.812494055135176e-05</v>
       </c>
       <c r="BH18" t="n">
-        <v>0.0007222468848340213</v>
+        <v>3.339020622661337e-05</v>
       </c>
       <c r="BI18" t="n">
-        <v>0.0001182600972242653</v>
+        <v>1.49870575114619e-05</v>
       </c>
       <c r="BJ18" t="n">
-        <v>0.0008564342861063778</v>
+        <v>2.836446583387442e-05</v>
       </c>
       <c r="BK18" t="n">
-        <v>0.0001099752262234688</v>
+        <v>1.432743283658056e-05</v>
       </c>
       <c r="BL18" t="n">
-        <v>0.0002124645980075002</v>
+        <v>3.661177106550895e-05</v>
       </c>
       <c r="BM18" t="n">
-        <v>0.0001436869497410953</v>
+        <v>3.97419098590035e-05</v>
       </c>
       <c r="BN18" t="n">
-        <v>0.0001263617305085063</v>
+        <v>2.96810976578854e-05</v>
       </c>
       <c r="BO18" t="n">
-        <v>0.0005112775834277272</v>
+        <v>6.208286322362255e-06</v>
       </c>
       <c r="BP18" t="n">
-        <v>0.0001610939507372677</v>
+        <v>3.205659231753089e-05</v>
       </c>
       <c r="BQ18" t="n">
-        <v>0.0001861677155829966</v>
+        <v>1.975568011403084e-05</v>
       </c>
       <c r="BR18" t="n">
-        <v>0.000328806578181684</v>
+        <v>1.240523488377221e-05</v>
       </c>
       <c r="BS18" t="n">
-        <v>0.0003122818598058075</v>
+        <v>1.312837048317306e-05</v>
       </c>
       <c r="BT18" t="n">
-        <v>0.0001751099480316043</v>
+        <v>1.967105345102027e-05</v>
       </c>
       <c r="BU18" t="n">
-        <v>7.975514745339751e-05</v>
+        <v>1.42190629048855e-05</v>
       </c>
       <c r="BV18" t="n">
-        <v>0.000333981734002009</v>
+        <v>0.0001091546000679955</v>
       </c>
       <c r="BW18" t="n">
-        <v>0.0001914346066769212</v>
+        <v>2.68242038146127e-05</v>
       </c>
       <c r="BX18" t="n">
-        <v>0.0001521758822491392</v>
+        <v>1.829354005167261e-05</v>
       </c>
       <c r="BY18" t="n">
-        <v>0.0002334696328034624</v>
+        <v>1.704925125523005e-05</v>
       </c>
       <c r="BZ18" t="n">
-        <v>0.0009792324854061007</v>
+        <v>2.383646278758533e-05</v>
       </c>
       <c r="CA18" t="n">
-        <v>3.597400791477412e-06</v>
+        <v>1.44875075420714e-05</v>
       </c>
       <c r="CB18" t="n">
-        <v>0.0002432173787383363</v>
+        <v>6.459311407525092e-06</v>
       </c>
       <c r="CC18" t="n">
-        <v>0.0005204696790315211</v>
+        <v>1.941827213158831e-05</v>
       </c>
       <c r="CD18" t="n">
-        <v>0.0001466238463763148</v>
+        <v>1.767105686667492e-06</v>
       </c>
       <c r="CE18" t="n">
-        <v>0.0002735271991696209</v>
+        <v>5.057840098743327e-05</v>
       </c>
       <c r="CF18" t="n">
-        <v>4.852057463722304e-05</v>
+        <v>1.120424167311285e-05</v>
       </c>
       <c r="CG18" t="n">
-        <v>7.272251241374761e-05</v>
+        <v>1.368613447993994e-05</v>
       </c>
       <c r="CH18" t="n">
-        <v>0.0001221350103151053</v>
+        <v>8.183031241060235e-06</v>
       </c>
       <c r="CI18" t="n">
-        <v>0.0003416097606532276</v>
+        <v>2.215379481640412e-06</v>
       </c>
       <c r="CJ18" t="n">
-        <v>2.375969415879808e-05</v>
+        <v>9.651153959566727e-06</v>
       </c>
       <c r="CK18" t="n">
-        <v>7.026566890999675e-06</v>
+        <v>2.809857733154786e-06</v>
       </c>
       <c r="CL18" t="n">
-        <v>0.0001707526826066896</v>
+        <v>8.843458090268541e-06</v>
       </c>
       <c r="CM18" t="n">
-        <v>0.0002121681754942983</v>
+        <v>5.656995926983654e-05</v>
       </c>
       <c r="CN18" t="n">
-        <v>7.22695913282223e-05</v>
+        <v>4.365485801827163e-05</v>
       </c>
       <c r="CO18" t="n">
-        <v>2.825988849508576e-05</v>
+        <v>3.813488547166344e-07</v>
       </c>
       <c r="CP18" t="n">
-        <v>8.499206160195172e-05</v>
+        <v>4.722052835859358e-05</v>
       </c>
       <c r="CQ18" t="n">
-        <v>0.0003513073606882244</v>
+        <v>5.602783494396135e-05</v>
       </c>
       <c r="CR18" t="n">
-        <v>0.0004116061027161777</v>
+        <v>2.296486854902469e-05</v>
       </c>
       <c r="CS18" t="n">
-        <v>0.000193511601537466</v>
+        <v>3.781986015383154e-05</v>
       </c>
       <c r="CT18" t="n">
-        <v>0.0002428342559142038</v>
+        <v>4.640010229195468e-05</v>
       </c>
       <c r="CU18" t="n">
-        <v>0.0002114782691933215</v>
+        <v>2.92439244731213e-06</v>
       </c>
       <c r="CV18" t="n">
-        <v>0.0001802900223992765</v>
+        <v>3.300752268842189e-06</v>
       </c>
       <c r="CW18" t="n">
-        <v>0.0002927884925156832</v>
+        <v>4.417302261572331e-05</v>
       </c>
       <c r="CX18" t="n">
-        <v>4.502413139562123e-05</v>
+        <v>1.950722617038991e-05</v>
       </c>
       <c r="CY18" t="n">
-        <v>5.85934758419171e-05</v>
+        <v>2.478278656781185e-05</v>
       </c>
       <c r="CZ18" t="n">
-        <v>0.0001050394639605656</v>
+        <v>1.064850584953092e-05</v>
       </c>
       <c r="DA18" t="n">
-        <v>0.0004026565293315798</v>
+        <v>7.85783413448371e-06</v>
       </c>
       <c r="DB18" t="n">
-        <v>7.834244752302766e-05</v>
+        <v>1.062711635313462e-05</v>
       </c>
       <c r="DC18" t="n">
-        <v>0.0001036902103805915</v>
+        <v>5.986310043226695e-06</v>
       </c>
       <c r="DD18" t="n">
-        <v>0.0002142052544513717</v>
+        <v>3.056464720430085e-06</v>
       </c>
       <c r="DE18" t="n">
-        <v>4.154540511080995e-05</v>
+        <v>2.117702024406753e-05</v>
       </c>
       <c r="DF18" t="n">
-        <v>0.0003245803236495703</v>
+        <v>2.988942469528411e-05</v>
       </c>
       <c r="DG18" t="n">
-        <v>0.000274031248409301</v>
+        <v>7.5432376434037e-07</v>
       </c>
       <c r="DH18" t="n">
-        <v>2.519171721360181e-05</v>
+        <v>6.347607268253341e-05</v>
       </c>
       <c r="DI18" t="n">
-        <v>0.0001337803696515039</v>
+        <v>3.526971113387845e-06</v>
       </c>
       <c r="DJ18" t="n">
-        <v>0.0004145553102716804</v>
+        <v>6.564097930095159e-06</v>
       </c>
       <c r="DK18" t="n">
-        <v>0.0005477567901834846</v>
+        <v>1.063837225956377e-05</v>
       </c>
       <c r="DL18" t="n">
-        <v>0.000262804445810616</v>
+        <v>1.295704350923188e-05</v>
       </c>
       <c r="DM18" t="n">
-        <v>0.0002286519884364679</v>
+        <v>9.235388461092953e-06</v>
       </c>
       <c r="DN18" t="n">
-        <v>0.0003207308473065495</v>
+        <v>7.386372544715414e-07</v>
       </c>
       <c r="DO18" t="n">
-        <v>0.000110367858724203</v>
+        <v>1.552903813717421e-05</v>
       </c>
       <c r="DP18" t="n">
-        <v>4.239578629494645e-05</v>
+        <v>1.379065361106768e-05</v>
       </c>
       <c r="DQ18" t="n">
-        <v>0.0001988478179555386</v>
+        <v>1.744052678986918e-05</v>
       </c>
       <c r="DR18" t="n">
-        <v>0.0001651025959290564</v>
+        <v>2.77257331617875e-05</v>
       </c>
       <c r="DS18" t="n">
-        <v>0.0001030786588671617</v>
+        <v>4.108700522920117e-06</v>
       </c>
       <c r="DT18" t="n">
-        <v>0.0001696428807917982</v>
+        <v>1.785206336535339e-06</v>
       </c>
       <c r="DU18" t="n">
-        <v>0.0002181196032324806</v>
+        <v>1.369268920825562e-05</v>
       </c>
       <c r="DV18" t="n">
-        <v>0.0004987074644304812</v>
+        <v>1.545342092867941e-05</v>
       </c>
       <c r="DW18" t="n">
-        <v>3.196377656422555e-05</v>
+        <v>1.150505113400868e-08</v>
       </c>
       <c r="DX18" t="n">
-        <v>0.0001160618121502921</v>
+        <v>2.174250766984187e-05</v>
       </c>
       <c r="DY18" t="n">
-        <v>1.178088314190973e-05</v>
+        <v>1.284546306123957e-05</v>
       </c>
       <c r="DZ18" t="n">
-        <v>0.0001890921557787806</v>
+        <v>1.094934668799397e-05</v>
       </c>
       <c r="EA18" t="n">
-        <v>0.0002072125062113628</v>
+        <v>1.999228152271826e-05</v>
       </c>
       <c r="EB18" t="n">
-        <v>0.0001269790082005784</v>
+        <v>1.399876873620087e-05</v>
       </c>
       <c r="EC18" t="n">
-        <v>0.0001712947268970311</v>
+        <v>1.0950133400911e-05</v>
       </c>
       <c r="ED18" t="n">
-        <v>8.964783046394587e-05</v>
+        <v>3.943838692066493e-06</v>
       </c>
       <c r="EE18" t="n">
-        <v>0.0001354521518805996</v>
+        <v>9.15993780381541e-07</v>
       </c>
       <c r="EF18" t="n">
-        <v>0.0001427912939107046</v>
+        <v>1.06929201137973e-06</v>
       </c>
       <c r="EG18" t="n">
-        <v>0.0002167172497138381</v>
+        <v>5.032363696955144e-05</v>
       </c>
       <c r="EH18" t="n">
-        <v>0.0004689189372584224</v>
+        <v>1.820359830162488e-05</v>
       </c>
       <c r="EI18" t="n">
-        <v>0.0001044321616063826</v>
+        <v>1.974702718143817e-05</v>
       </c>
       <c r="EJ18" t="n">
-        <v>0.0007968263817019761</v>
+        <v>3.825913518085144e-05</v>
       </c>
       <c r="EK18" t="n">
-        <v>0.0003503396874293685</v>
+        <v>5.694280844181776e-06</v>
       </c>
       <c r="EL18" t="n">
-        <v>0.0001734715478960425</v>
+        <v>4.745534624817083e-06</v>
       </c>
       <c r="EM18" t="n">
-        <v>0.000160551571752876</v>
+        <v>7.166870091168676e-06</v>
       </c>
       <c r="EN18" t="n">
-        <v>0.0002449891471769661</v>
+        <v>4.818975867237896e-06</v>
       </c>
       <c r="EO18" t="n">
-        <v>0.0001497858465882018</v>
+        <v>3.173127879563253e-06</v>
       </c>
       <c r="EP18" t="n">
-        <v>3.038034265046008e-05</v>
+        <v>3.456962804193608e-05</v>
       </c>
       <c r="EQ18" t="n">
-        <v>5.666762444889173e-05</v>
+        <v>2.925744593085255e-05</v>
       </c>
       <c r="ER18" t="n">
-        <v>0.0002021059626713395</v>
+        <v>9.911864253808744e-06</v>
       </c>
       <c r="ES18" t="n">
-        <v>3.178161568939686e-05</v>
+        <v>6.280212801357266e-06</v>
       </c>
       <c r="ET18" t="n">
-        <v>0.0001325616321992129</v>
+        <v>1.358893314318266e-05</v>
       </c>
       <c r="EU18" t="n">
-        <v>0.0004269155615475029</v>
+        <v>2.112022593792062e-05</v>
       </c>
       <c r="EV18" t="n">
-        <v>2.568662239355035e-05</v>
+        <v>2.030916402873117e-05</v>
       </c>
       <c r="EW18" t="n">
-        <v>0.0001817052834667265</v>
+        <v>1.013526707538404e-05</v>
       </c>
       <c r="EX18" t="n">
-        <v>0.0001806930813472718</v>
+        <v>4.257558430253994e-06</v>
       </c>
       <c r="EY18" t="n">
-        <v>0.0002861427783500403</v>
+        <v>4.693352457252331e-05</v>
       </c>
       <c r="EZ18" t="n">
-        <v>4.829315730603412e-05</v>
+        <v>1.10009214040474e-05</v>
       </c>
       <c r="FA18" t="n">
-        <v>0.0001072357044904493</v>
+        <v>1.95799620996695e-05</v>
       </c>
       <c r="FB18" t="n">
-        <v>0.0001229671906912699</v>
+        <v>4.901214197161607e-06</v>
       </c>
       <c r="FC18" t="n">
-        <v>0.0003950510872527957</v>
+        <v>8.087708010862116e-06</v>
       </c>
       <c r="FD18" t="n">
-        <v>1.542587779113092e-05</v>
+        <v>1.081092614185764e-05</v>
       </c>
       <c r="FE18" t="n">
-        <v>6.23761661699973e-05</v>
+        <v>1.929443214976345e-06</v>
       </c>
       <c r="FF18" t="n">
-        <v>0.0002605894696898758</v>
+        <v>7.930967512947973e-06</v>
       </c>
       <c r="FG18" t="n">
-        <v>0.0003381137503311038</v>
+        <v>1.042373969539767e-05</v>
       </c>
       <c r="FH18" t="n">
-        <v>0.0006294208578765392</v>
+        <v>1.189262275147485e-05</v>
       </c>
       <c r="FI18" t="n">
-        <v>0.0004639593244064599</v>
+        <v>2.794696411001496e-05</v>
       </c>
       <c r="FJ18" t="n">
-        <v>8.13014994491823e-05</v>
+        <v>2.935197335318662e-05</v>
       </c>
       <c r="FK18" t="n">
-        <v>0.0004582773544825613</v>
+        <v>1.942399103427306e-05</v>
       </c>
       <c r="FL18" t="n">
-        <v>0.0004330720694269985</v>
+        <v>9.735737876326311e-06</v>
       </c>
       <c r="FM18" t="n">
-        <v>0.0001469413982704282</v>
+        <v>1.409886226610979e-05</v>
       </c>
       <c r="FN18" t="n">
-        <v>0.0001097788190236315</v>
+        <v>9.617958767194068e-07</v>
       </c>
       <c r="FO18" t="n">
-        <v>0.0001085975964087993</v>
+        <v>5.32834155819728e-06</v>
       </c>
       <c r="FP18" t="n">
-        <v>4.126057319808751e-05</v>
+        <v>1.83700230991235e-05</v>
       </c>
       <c r="FQ18" t="n">
-        <v>0.0002328893169760704</v>
+        <v>3.649226709967479e-05</v>
       </c>
       <c r="FR18" t="n">
-        <v>4.460573836695403e-05</v>
+        <v>2.705362931010313e-05</v>
       </c>
       <c r="FS18" t="n">
-        <v>0.00147160142660141</v>
+        <v>1.333905856881756e-06</v>
       </c>
       <c r="FT18" t="n">
-        <v>0.000665459199808538</v>
+        <v>3.335274959681556e-05</v>
       </c>
       <c r="FU18" t="n">
-        <v>0.0010215207003057</v>
+        <v>2.486020093783736e-05</v>
       </c>
       <c r="FV18" t="n">
-        <v>0.0001422349014319479</v>
+        <v>4.747156708617695e-06</v>
       </c>
       <c r="FW18" t="n">
-        <v>0.0002042658161371946</v>
+        <v>5.74141631659586e-06</v>
       </c>
       <c r="FX18" t="n">
-        <v>1.951221202034503e-05</v>
+        <v>1.583550510986242e-05</v>
       </c>
       <c r="FY18" t="n">
-        <v>0.0002944789011962712</v>
+        <v>3.594693771447055e-05</v>
       </c>
       <c r="FZ18" t="n">
-        <v>0.000154051449499093</v>
+        <v>6.433328962884843e-06</v>
       </c>
       <c r="GA18" t="n">
-        <v>1.304872967011761e-06</v>
+        <v>3.902956905221799e-06</v>
       </c>
       <c r="GB18" t="n">
-        <v>0.0001486756809754297</v>
+        <v>9.53591734287329e-06</v>
       </c>
       <c r="GC18" t="n">
-        <v>0.0004009898693766445</v>
+        <v>5.152908670424949e-06</v>
       </c>
       <c r="GD18" t="n">
-        <v>0.0002331015275558457</v>
+        <v>4.183062992524356e-05</v>
       </c>
       <c r="GE18" t="n">
-        <v>0.0005707521922886372</v>
+        <v>6.489284714916721e-05</v>
       </c>
       <c r="GF18" t="n">
-        <v>0.0003976823063567281</v>
+        <v>1.551291279611178e-05</v>
       </c>
       <c r="GG18" t="n">
-        <v>0.0003421720175538212</v>
+        <v>1.998158404603601e-05</v>
       </c>
     </row>
     <row r="19">
